--- a/players_stats.xlsx
+++ b/players_stats.xlsx
@@ -9819,7 +9819,7 @@
         <v>3</v>
       </c>
       <c r="BH36" t="n">
-        <v>5.5333333333333</v>
+        <v>5.6</v>
       </c>
       <c r="BI36" t="n">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="BK36" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="BL36" t="n">
         <v>3</v>
@@ -12121,7 +12121,7 @@
         <v>30</v>
       </c>
       <c r="BH44" t="n">
-        <v>6.7966666666667</v>
+        <v>6.7866666666667</v>
       </c>
       <c r="BI44" t="n">
         <v>0</v>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="BK44" t="n">
-        <v>203.9</v>
+        <v>203.6</v>
       </c>
       <c r="BL44" t="n">
         <v>30</v>
@@ -12601,7 +12601,7 @@
         <v>7</v>
       </c>
       <c r="BH46" t="n">
-        <v>6.6714285714286</v>
+        <v>6.6857142857143</v>
       </c>
       <c r="BI46" t="n">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>0</v>
       </c>
       <c r="BK46" t="n">
-        <v>46.7</v>
+        <v>46.8</v>
       </c>
       <c r="BL46" t="n">
         <v>7</v>
@@ -13081,7 +13081,7 @@
         <v>16</v>
       </c>
       <c r="BH48" t="n">
-        <v>6.59375</v>
+        <v>6.6375</v>
       </c>
       <c r="BI48" t="n">
         <v>895</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="BK48" t="n">
-        <v>105.5</v>
+        <v>106.2</v>
       </c>
       <c r="BL48" t="n">
         <v>16</v>
@@ -14532,16 +14532,16 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F54" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G54" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H54" t="n">
-        <v>84.44</v>
+        <v>81.63</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -14591,7 +14591,7 @@
         <v>41.18</v>
       </c>
       <c r="Z54" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AA54" t="n">
         <v>0</v>
@@ -14606,10 +14606,10 @@
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG54" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="AW54" t="inlineStr"/>
       <c r="AX54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY54" t="n">
         <v>0</v>
@@ -14673,7 +14673,7 @@
         <v>1</v>
       </c>
       <c r="BB54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC54" t="n">
         <v>0</v>
@@ -14690,7 +14690,7 @@
         </is>
       </c>
       <c r="BG54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH54" t="n">
         <v>6.6</v>
@@ -16095,7 +16095,7 @@
         <v>6</v>
       </c>
       <c r="BH60" t="n">
-        <v>6.8333333333333</v>
+        <v>6.775</v>
       </c>
       <c r="BI60" t="n">
         <v>61</v>
@@ -17799,7 +17799,7 @@
         <v>4</v>
       </c>
       <c r="BH66" t="n">
-        <v>6.95</v>
+        <v>6.975</v>
       </c>
       <c r="BI66" t="n">
         <v>0</v>
@@ -17808,7 +17808,7 @@
         <v>0</v>
       </c>
       <c r="BK66" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="BL66" t="n">
         <v>4</v>
@@ -22489,7 +22489,7 @@
         <v>5</v>
       </c>
       <c r="BH80" t="n">
-        <v>6.8</v>
+        <v>6.7333333333333</v>
       </c>
       <c r="BI80" t="n">
         <v>0</v>
@@ -22498,7 +22498,7 @@
         <v>0</v>
       </c>
       <c r="BK80" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="BL80" t="n">
         <v>3</v>
@@ -22826,7 +22826,7 @@
         <v>23</v>
       </c>
       <c r="BH81" t="n">
-        <v>7</v>
+        <v>6.9869565217391</v>
       </c>
       <c r="BI81" t="n">
         <v>0</v>
@@ -22835,7 +22835,7 @@
         <v>0</v>
       </c>
       <c r="BK81" t="n">
-        <v>161</v>
+        <v>160.7</v>
       </c>
       <c r="BL81" t="n">
         <v>23</v>
@@ -26545,19 +26545,19 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H95" t="n">
-        <v>97.727272727273</v>
+        <v>97.777777777778</v>
       </c>
       <c r="I95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -26732,7 +26732,7 @@
         <v>23</v>
       </c>
       <c r="BP95" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BQ95" t="n">
         <v>3</v>
@@ -26792,7 +26792,7 @@
         <v>2</v>
       </c>
       <c r="CJ95" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CK95" t="n">
         <v>0</v>
@@ -26858,7 +26858,7 @@
         <v>23</v>
       </c>
       <c r="DF95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DG95" t="n">
         <v>0</v>
@@ -27462,7 +27462,7 @@
         <v>0</v>
       </c>
       <c r="CJ97" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CK97" t="n">
         <v>0</v>
@@ -40898,34 +40898,34 @@
         <v>7</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E150" t="n">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="F150" t="n">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="G150" t="n">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="H150" t="n">
-        <v>71.09</v>
+        <v>70.37</v>
       </c>
       <c r="I150" t="n">
         <v>63</v>
       </c>
       <c r="J150" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K150" t="n">
         <v>132</v>
       </c>
       <c r="L150" t="n">
-        <v>74.58</v>
+        <v>74.16</v>
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="n">
@@ -40938,10 +40938,10 @@
         <v>0</v>
       </c>
       <c r="Q150" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R150" t="n">
-        <v>28.57</v>
+        <v>28.79</v>
       </c>
       <c r="S150" t="n">
         <v>61</v>
@@ -40951,19 +40951,19 @@
       </c>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W150" t="n">
-        <v>22.99</v>
+        <v>23.6</v>
       </c>
       <c r="X150" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Y150" t="n">
-        <v>39.7</v>
+        <v>39.54</v>
       </c>
       <c r="Z150" t="n">
-        <v>2275</v>
+        <v>2387</v>
       </c>
       <c r="AA150" t="n">
         <v>11.47</v>
@@ -40981,25 +40981,25 @@
         <v>27</v>
       </c>
       <c r="AF150" t="n">
-        <v>46.55</v>
+        <v>45</v>
       </c>
       <c r="AG150" t="n">
         <v>8</v>
       </c>
       <c r="AH150" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI150" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AJ150" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AK150" t="n">
         <v>52</v>
       </c>
       <c r="AL150" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AM150" t="n">
         <v>2</v>
@@ -41015,41 +41015,41 @@
         <v>0</v>
       </c>
       <c r="AR150" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS150" t="n">
         <v>100</v>
       </c>
       <c r="AT150" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AU150" t="n">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="AV150" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AW150" t="inlineStr"/>
       <c r="AX150" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY150" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AZ150" t="n">
         <v>0</v>
       </c>
       <c r="BA150" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC150" t="n">
         <v>0</v>
       </c>
       <c r="BD150" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BE150" t="n">
         <v>1522713</v>
@@ -41060,13 +41060,13 @@
         </is>
       </c>
       <c r="BG150" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BH150" t="n">
-        <v>7.1615384615385</v>
+        <v>7.1296296296296</v>
       </c>
       <c r="BI150" t="n">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="BJ150" t="n">
         <v>0</v>
@@ -41838,16 +41838,16 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="F154" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G154" t="n">
-        <v>741</v>
+        <v>786</v>
       </c>
       <c r="H154" t="n">
-        <v>81.78</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="I154" t="n">
         <v>64</v>
@@ -41863,7 +41863,7 @@
       </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O154" t="n">
         <v>0</v>
@@ -41885,19 +41885,19 @@
       </c>
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W154" t="n">
-        <v>51.61</v>
+        <v>52.38</v>
       </c>
       <c r="X154" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Y154" t="n">
-        <v>31.28</v>
+        <v>31.51</v>
       </c>
       <c r="Z154" t="n">
-        <v>1353</v>
+        <v>1533</v>
       </c>
       <c r="AA154" t="n">
         <v>12.5</v>
@@ -41912,16 +41912,16 @@
         <v>1</v>
       </c>
       <c r="AE154" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AF154" t="n">
-        <v>53.85</v>
+        <v>52.94</v>
       </c>
       <c r="AG154" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AH154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI154" t="n">
         <v>5</v>
@@ -41930,13 +41930,13 @@
         <v>24</v>
       </c>
       <c r="AK154" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL154" t="n">
         <v>1</v>
       </c>
       <c r="AM154" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN154" t="n">
         <v>0</v>
@@ -41951,24 +41951,24 @@
         <v>0</v>
       </c>
       <c r="AR154" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS154" t="inlineStr"/>
       <c r="AT154" t="n">
         <v>0</v>
       </c>
       <c r="AU154" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AV154" t="n">
         <v>30</v>
       </c>
       <c r="AW154" t="inlineStr"/>
       <c r="AX154" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AY154" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ154" t="n">
         <v>0</v>
@@ -41983,7 +41983,7 @@
         <v>17</v>
       </c>
       <c r="BD154" t="n">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="BE154" t="n">
         <v>1592735</v>
@@ -41994,13 +41994,13 @@
         </is>
       </c>
       <c r="BG154" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BH154" t="n">
-        <v>6.8105263157895</v>
+        <v>6.81</v>
       </c>
       <c r="BI154" t="n">
-        <v>1353</v>
+        <v>1533</v>
       </c>
       <c r="BJ154" t="n">
         <v>0</v>
@@ -42764,28 +42764,28 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="F158" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G158" t="n">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="H158" t="n">
-        <v>58.58</v>
+        <v>58.45</v>
       </c>
       <c r="I158" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J158" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K158" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L158" t="n">
-        <v>75</v>
+        <v>76.19</v>
       </c>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="n">
@@ -42804,26 +42804,26 @@
         <v>25</v>
       </c>
       <c r="S158" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T158" t="n">
         <v>0</v>
       </c>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W158" t="n">
-        <v>62.26</v>
+        <v>56.45</v>
       </c>
       <c r="X158" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Y158" t="n">
-        <v>41</v>
+        <v>39.34</v>
       </c>
       <c r="Z158" t="n">
-        <v>1020</v>
+        <v>1110</v>
       </c>
       <c r="AA158" t="n">
         <v>0</v>
@@ -42838,25 +42838,25 @@
         <v>0</v>
       </c>
       <c r="AE158" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF158" t="n">
-        <v>33.33</v>
+        <v>33.96</v>
       </c>
       <c r="AG158" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AH158" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI158" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ158" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AK158" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AL158" t="n">
         <v>0</v>
@@ -42871,27 +42871,27 @@
         <v>0</v>
       </c>
       <c r="AP158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ158" t="n">
         <v>0</v>
       </c>
       <c r="AR158" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS158" t="inlineStr"/>
       <c r="AT158" t="n">
         <v>16</v>
       </c>
       <c r="AU158" t="n">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="AV158" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AW158" t="inlineStr"/>
       <c r="AX158" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AY158" t="n">
         <v>8</v>
@@ -42909,7 +42909,7 @@
         <v>0</v>
       </c>
       <c r="BD158" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="BE158" t="n">
         <v>1634194</v>
@@ -42920,7 +42920,7 @@
         </is>
       </c>
       <c r="BG158" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BH158" t="n">
         <v>6.8785714285714</v>
@@ -43692,19 +43692,19 @@
         <v>5</v>
       </c>
       <c r="E162" t="n">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="F162" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G162" t="n">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="H162" t="n">
-        <v>78.55</v>
+        <v>78</v>
       </c>
       <c r="I162" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J162" t="n">
         <v>9</v>
@@ -43713,11 +43713,11 @@
         <v>26</v>
       </c>
       <c r="L162" t="n">
-        <v>61.9</v>
+        <v>60.47</v>
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O162" t="n">
         <v>0</v>
@@ -43729,7 +43729,7 @@
         <v>19</v>
       </c>
       <c r="R162" t="n">
-        <v>45.24</v>
+        <v>42.22</v>
       </c>
       <c r="S162" t="n">
         <v>7</v>
@@ -43739,16 +43739,16 @@
       </c>
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W162" t="n">
-        <v>31.58</v>
+        <v>33.33</v>
       </c>
       <c r="X162" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Y162" t="n">
-        <v>34.55</v>
+        <v>34.44</v>
       </c>
       <c r="Z162" t="n">
         <v>707</v>
@@ -43766,25 +43766,25 @@
         <v>0</v>
       </c>
       <c r="AE162" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF162" t="n">
-        <v>37.5</v>
+        <v>37.04</v>
       </c>
       <c r="AG162" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH162" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI162" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ162" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK162" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL162" t="n">
         <v>0</v>
@@ -43809,26 +43809,26 @@
       </c>
       <c r="AS162" t="inlineStr"/>
       <c r="AT162" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AU162" t="n">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="AV162" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW162" t="inlineStr"/>
       <c r="AX162" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AY162" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ162" t="n">
         <v>1</v>
       </c>
       <c r="BA162" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB162" t="n">
         <v>0</v>
@@ -43837,7 +43837,7 @@
         <v>0</v>
       </c>
       <c r="BD162" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="BE162" t="n">
         <v>1894292</v>
@@ -43848,10 +43848,10 @@
         </is>
       </c>
       <c r="BG162" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BH162" t="n">
-        <v>6.9888888888889</v>
+        <v>6.88</v>
       </c>
       <c r="BI162" t="n">
         <v>707</v>
@@ -44163,7 +44163,7 @@
         <v>906</v>
       </c>
       <c r="H164" t="n">
-        <v>80.79000000000001</v>
+        <v>80.794701986755</v>
       </c>
       <c r="I164" t="n">
         <v>119</v>
@@ -44175,9 +44175,11 @@
         <v>23</v>
       </c>
       <c r="L164" t="n">
-        <v>85.19</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>85.18518518518501</v>
+      </c>
+      <c r="M164" t="n">
+        <v>52</v>
+      </c>
       <c r="N164" t="n">
         <v>4</v>
       </c>
@@ -44199,21 +44201,23 @@
       <c r="T164" t="n">
         <v>3</v>
       </c>
-      <c r="U164" t="inlineStr"/>
+      <c r="U164" t="n">
+        <v>8</v>
+      </c>
       <c r="V164" t="n">
         <v>48</v>
       </c>
       <c r="W164" t="n">
-        <v>48.48</v>
+        <v>48.484848484848</v>
       </c>
       <c r="X164" t="n">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="Y164" t="n">
-        <v>38.04</v>
+        <v>35.263157894737</v>
       </c>
       <c r="Z164" t="n">
-        <v>2292</v>
+        <v>2185</v>
       </c>
       <c r="AA164" t="n">
         <v>6.25</v>
@@ -44231,13 +44235,13 @@
         <v>34</v>
       </c>
       <c r="AF164" t="n">
-        <v>46.58</v>
+        <v>46.575342465753</v>
       </c>
       <c r="AG164" t="n">
         <v>42</v>
       </c>
       <c r="AH164" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AI164" t="n">
         <v>22</v>
@@ -44246,13 +44250,13 @@
         <v>24</v>
       </c>
       <c r="AK164" t="n">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="AL164" t="n">
         <v>2</v>
       </c>
       <c r="AM164" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AN164" t="n">
         <v>0</v>
@@ -44267,7 +44271,7 @@
         <v>0</v>
       </c>
       <c r="AR164" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS164" t="n">
         <v>0</v>
@@ -44276,17 +44280,19 @@
         <v>16</v>
       </c>
       <c r="AU164" t="n">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="AV164" t="n">
         <v>51</v>
       </c>
-      <c r="AW164" t="inlineStr"/>
+      <c r="AW164" t="n">
+        <v>0</v>
+      </c>
       <c r="AX164" t="n">
         <v>73</v>
       </c>
       <c r="AY164" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AZ164" t="n">
         <v>0</v>
@@ -44318,60 +44324,164 @@
         <v>6.737037037037</v>
       </c>
       <c r="BI164" t="n">
-        <v>2292</v>
-      </c>
-      <c r="BJ164" t="inlineStr"/>
-      <c r="BK164" t="inlineStr"/>
-      <c r="BL164" t="inlineStr"/>
-      <c r="BM164" t="inlineStr"/>
-      <c r="BN164" t="inlineStr"/>
-      <c r="BO164" t="inlineStr"/>
-      <c r="BP164" t="inlineStr"/>
-      <c r="BQ164" t="inlineStr"/>
-      <c r="BR164" t="inlineStr"/>
-      <c r="BS164" t="inlineStr"/>
-      <c r="BT164" t="inlineStr"/>
-      <c r="BU164" t="inlineStr"/>
-      <c r="BV164" t="inlineStr"/>
-      <c r="BW164" t="inlineStr"/>
-      <c r="BX164" t="inlineStr"/>
-      <c r="BY164" t="inlineStr"/>
-      <c r="BZ164" t="inlineStr"/>
-      <c r="CA164" t="inlineStr"/>
-      <c r="CB164" t="inlineStr"/>
-      <c r="CC164" t="inlineStr"/>
-      <c r="CD164" t="inlineStr"/>
-      <c r="CE164" t="inlineStr"/>
-      <c r="CF164" t="inlineStr"/>
-      <c r="CG164" t="inlineStr"/>
-      <c r="CH164" t="inlineStr"/>
-      <c r="CI164" t="inlineStr"/>
-      <c r="CJ164" t="inlineStr"/>
-      <c r="CK164" t="inlineStr"/>
-      <c r="CL164" t="inlineStr"/>
-      <c r="CM164" t="inlineStr"/>
-      <c r="CN164" t="inlineStr"/>
-      <c r="CO164" t="inlineStr"/>
-      <c r="CP164" t="inlineStr"/>
-      <c r="CQ164" t="inlineStr"/>
-      <c r="CR164" t="inlineStr"/>
-      <c r="CS164" t="inlineStr"/>
-      <c r="CT164" t="inlineStr"/>
-      <c r="CU164" t="inlineStr"/>
-      <c r="CV164" t="inlineStr"/>
-      <c r="CW164" t="inlineStr"/>
-      <c r="CX164" t="inlineStr"/>
-      <c r="CY164" t="inlineStr"/>
-      <c r="CZ164" t="inlineStr"/>
-      <c r="DA164" t="inlineStr"/>
-      <c r="DB164" t="inlineStr"/>
-      <c r="DC164" t="inlineStr"/>
-      <c r="DD164" t="inlineStr"/>
-      <c r="DE164" t="inlineStr"/>
-      <c r="DF164" t="inlineStr"/>
-      <c r="DG164" t="inlineStr"/>
-      <c r="DH164" t="inlineStr"/>
-      <c r="DI164" t="inlineStr"/>
+        <v>2185</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>27</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>324</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>379</v>
+      </c>
+      <c r="BQ164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR164" t="n">
+        <v>86</v>
+      </c>
+      <c r="BS164" t="n">
+        <v>30.604982206406</v>
+      </c>
+      <c r="BT164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA164" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE164" t="n">
+        <v>8</v>
+      </c>
+      <c r="CF164" t="n">
+        <v>269</v>
+      </c>
+      <c r="CG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ164" t="n">
+        <v>1213</v>
+      </c>
+      <c r="CK164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP164" t="n">
+        <v>34</v>
+      </c>
+      <c r="CQ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW164" t="n">
+        <v>8</v>
+      </c>
+      <c r="CX164" t="n">
+        <v>27</v>
+      </c>
+      <c r="CY164" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA164" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB164" t="n">
+        <v>50</v>
+      </c>
+      <c r="DC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE164" t="n">
+        <v>365</v>
+      </c>
+      <c r="DF164" t="n">
+        <v>495</v>
+      </c>
+      <c r="DG164" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH164" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="DI164" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -45447,7 +45557,7 @@
         <v>12</v>
       </c>
       <c r="BH168" t="n">
-        <v>6.5727272727273</v>
+        <v>6.5916666666667</v>
       </c>
       <c r="BI168" t="inlineStr"/>
       <c r="BJ168" t="inlineStr"/>
@@ -49417,7 +49527,7 @@
         <v>21</v>
       </c>
       <c r="BH182" t="n">
-        <v>6.585</v>
+        <v>6.5761904761905</v>
       </c>
       <c r="BI182" t="inlineStr"/>
       <c r="BJ182" t="inlineStr"/>
@@ -51665,16 +51775,16 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F191" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G191" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H191" t="n">
-        <v>71.212121212121</v>
+        <v>70.58823529411799</v>
       </c>
       <c r="I191" t="n">
         <v>17</v>
@@ -51722,10 +51832,10 @@
         <v>14.285714285714</v>
       </c>
       <c r="X191" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y191" t="n">
-        <v>27.272727272727</v>
+        <v>29.411764705882</v>
       </c>
       <c r="Z191" t="n">
         <v>411</v>
@@ -51852,16 +51962,16 @@
         <v>16</v>
       </c>
       <c r="BP191" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BQ191" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BR191" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS191" t="n">
-        <v>30.769230769231</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BT191" t="n">
         <v>0</v>
@@ -51900,7 +52010,7 @@
         <v>7</v>
       </c>
       <c r="CF191" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CG191" t="n">
         <v>1</v>
@@ -51912,7 +52022,7 @@
         <v>1</v>
       </c>
       <c r="CJ191" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="CK191" t="n">
         <v>0</v>
@@ -51966,7 +52076,7 @@
         <v>4</v>
       </c>
       <c r="DB191" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="DC191" t="n">
         <v>0</v>
@@ -51978,7 +52088,7 @@
         <v>22</v>
       </c>
       <c r="DF191" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="DG191" t="n">
         <v>0</v>
@@ -53576,13 +53686,13 @@
         <v>501</v>
       </c>
       <c r="F197" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G197" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H197" t="n">
-        <v>85.204081632653</v>
+        <v>85.05942275042401</v>
       </c>
       <c r="I197" t="n">
         <v>62</v>
@@ -53630,10 +53740,10 @@
         <v>68.75</v>
       </c>
       <c r="X197" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y197" t="n">
-        <v>75.409836065574</v>
+        <v>76.229508196721</v>
       </c>
       <c r="Z197" t="n">
         <v>1166</v>
@@ -53657,7 +53767,7 @@
         <v>47.945205479452</v>
       </c>
       <c r="AG197" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH197" t="n">
         <v>0</v>
@@ -53666,7 +53776,7 @@
         <v>34</v>
       </c>
       <c r="AJ197" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK197" t="n">
         <v>7</v>
@@ -53699,7 +53809,7 @@
         <v>3</v>
       </c>
       <c r="AU197" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV197" t="n">
         <v>10</v>
@@ -53763,13 +53873,13 @@
         <v>150</v>
       </c>
       <c r="BQ197" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BR197" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BS197" t="n">
-        <v>77.777777777778</v>
+        <v>78.888888888889</v>
       </c>
       <c r="BT197" t="n">
         <v>0</v>
@@ -53808,7 +53918,7 @@
         <v>3</v>
       </c>
       <c r="CF197" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CG197" t="n">
         <v>2</v>
@@ -53820,7 +53930,7 @@
         <v>8</v>
       </c>
       <c r="CJ197" t="n">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CK197" t="n">
         <v>0</v>
@@ -53871,10 +53981,10 @@
         <v>0</v>
       </c>
       <c r="DA197" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DB197" t="n">
-        <v>66.666666666667</v>
+        <v>67.64705882352899</v>
       </c>
       <c r="DC197" t="n">
         <v>0</v>
@@ -53886,7 +53996,7 @@
         <v>372</v>
       </c>
       <c r="DF197" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="DG197" t="n">
         <v>1</v>
@@ -55440,19 +55550,19 @@
         <v>4</v>
       </c>
       <c r="E204" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F204" t="n">
         <v>94</v>
       </c>
       <c r="G204" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H204" t="n">
-        <v>76.616915422886</v>
+        <v>76.67493796526099</v>
       </c>
       <c r="I204" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J204" t="n">
         <v>18</v>
@@ -55476,10 +55586,10 @@
         <v>0</v>
       </c>
       <c r="Q204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R204" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="S204" t="n">
         <v>17</v>
@@ -55500,7 +55610,7 @@
         <v>58</v>
       </c>
       <c r="Y204" t="n">
-        <v>50.877192982456</v>
+        <v>50.434782608696</v>
       </c>
       <c r="Z204" t="n">
         <v>922</v>
@@ -55518,10 +55628,10 @@
         <v>0</v>
       </c>
       <c r="AE204" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF204" t="n">
-        <v>32.258064516129</v>
+        <v>34.375</v>
       </c>
       <c r="AG204" t="n">
         <v>7</v>
@@ -55563,10 +55673,10 @@
         <v>0</v>
       </c>
       <c r="AT204" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU204" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AV204" t="n">
         <v>5</v>
@@ -55575,7 +55685,7 @@
         <v>0</v>
       </c>
       <c r="AX204" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AY204" t="n">
         <v>17</v>
@@ -55589,7 +55699,7 @@
         <v>0</v>
       </c>
       <c r="BD204" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BE204" t="n">
         <v>1904891</v>
@@ -55636,7 +55746,7 @@
         <v>56</v>
       </c>
       <c r="BS204" t="n">
-        <v>52.336448598131</v>
+        <v>51.851851851852</v>
       </c>
       <c r="BT204" t="n">
         <v>0</v>
@@ -55672,7 +55782,7 @@
         <v>0</v>
       </c>
       <c r="CE204" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CF204" t="n">
         <v>154</v>
@@ -55681,10 +55791,10 @@
         <v>6</v>
       </c>
       <c r="CH204" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CI204" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CJ204" t="n">
         <v>592</v>
@@ -57315,7 +57425,7 @@
         <v>86.106032906764</v>
       </c>
       <c r="I211" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J211" t="n">
         <v>14</v>
@@ -57381,10 +57491,10 @@
         <v>0</v>
       </c>
       <c r="AE211" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF211" t="n">
-        <v>76.666666666667</v>
+        <v>77.41935483871001</v>
       </c>
       <c r="AG211" t="n">
         <v>9</v>
@@ -57438,7 +57548,7 @@
         <v>0</v>
       </c>
       <c r="AX211" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY211" t="n">
         <v>9</v>
@@ -57487,10 +57597,10 @@
         <v>2</v>
       </c>
       <c r="BO211" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BP211" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BQ211" t="n">
         <v>21</v>
@@ -57538,7 +57648,7 @@
         <v>21</v>
       </c>
       <c r="CF211" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CG211" t="n">
         <v>6</v>
@@ -57547,10 +57657,10 @@
         <v>26</v>
       </c>
       <c r="CI211" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CJ211" t="n">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="CK211" t="n">
         <v>0</v>
@@ -57613,10 +57723,10 @@
         <v>0</v>
       </c>
       <c r="DE211" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="DF211" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="DG211" t="n">
         <v>3</v>
@@ -57638,25 +57748,25 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F212" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G212" t="n">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="H212" t="n">
-        <v>87.73999999999999</v>
+        <v>81.95</v>
       </c>
       <c r="I212" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J212" t="n">
         <v>1</v>
       </c>
       <c r="K212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L212" t="n">
         <v>100</v>
@@ -57675,13 +57785,13 @@
         <v>1</v>
       </c>
       <c r="R212" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="S212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="n">
@@ -57691,13 +57801,13 @@
         <v>50</v>
       </c>
       <c r="X212" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y212" t="n">
-        <v>36.36</v>
+        <v>34</v>
       </c>
       <c r="Z212" t="n">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="AA212" t="n">
         <v>0</v>
@@ -57715,28 +57825,28 @@
         <v>3</v>
       </c>
       <c r="AF212" t="n">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="AG212" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH212" t="n">
         <v>3</v>
       </c>
-      <c r="AH212" t="n">
-        <v>0</v>
-      </c>
       <c r="AI212" t="n">
         <v>2</v>
       </c>
       <c r="AJ212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK212" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL212" t="n">
         <v>0</v>
       </c>
       <c r="AM212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN212" t="n">
         <v>0</v>
@@ -57751,23 +57861,23 @@
         <v>0</v>
       </c>
       <c r="AR212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS212" t="n">
         <v>0</v>
       </c>
       <c r="AT212" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU212" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="AV212" t="n">
         <v>3</v>
       </c>
       <c r="AW212" t="inlineStr"/>
       <c r="AX212" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY212" t="n">
         <v>0</v>
@@ -57785,7 +57895,7 @@
         <v>0</v>
       </c>
       <c r="BD212" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="BE212" t="n">
         <v>1954252</v>
@@ -57796,10 +57906,10 @@
         </is>
       </c>
       <c r="BG212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH212" t="n">
-        <v>6.85</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="BI212" t="inlineStr"/>
       <c r="BJ212" t="inlineStr"/>
@@ -66435,7 +66545,7 @@
         <v>32</v>
       </c>
       <c r="BH246" t="n">
-        <v>6.865625</v>
+        <v>6.8625</v>
       </c>
       <c r="BI246" t="n">
         <v>1349.5</v>
@@ -66444,7 +66554,7 @@
         <v>0</v>
       </c>
       <c r="BK246" t="n">
-        <v>219.7</v>
+        <v>219.6</v>
       </c>
       <c r="BL246" t="n">
         <v>32</v>
@@ -68347,7 +68457,7 @@
         <v>13</v>
       </c>
       <c r="BH252" t="n">
-        <v>7.2545454545455</v>
+        <v>7.225</v>
       </c>
       <c r="BI252" t="n">
         <v>1238</v>
@@ -71732,13 +71842,13 @@
         <v>261</v>
       </c>
       <c r="F265" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G265" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H265" t="n">
-        <v>82.334384858044</v>
+        <v>82.07547169811301</v>
       </c>
       <c r="I265" t="n">
         <v>41</v>
@@ -71964,7 +72074,7 @@
         <v>3</v>
       </c>
       <c r="CF265" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CG265" t="n">
         <v>0</v>
@@ -71976,7 +72086,7 @@
         <v>7</v>
       </c>
       <c r="CJ265" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="CK265" t="n">
         <v>0</v>
@@ -72039,7 +72149,7 @@
         <v>0</v>
       </c>
       <c r="DE265" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DF265" t="n">
         <v>140</v>
@@ -72121,10 +72231,10 @@
         <v>0</v>
       </c>
       <c r="X266" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y266" t="n">
-        <v>28.971962616822</v>
+        <v>28.301886792453</v>
       </c>
       <c r="Z266" t="n">
         <v>540</v>
@@ -72254,13 +72364,13 @@
         <v>63</v>
       </c>
       <c r="BQ266" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BR266" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BS266" t="n">
-        <v>31</v>
+        <v>30.30303030303</v>
       </c>
       <c r="BT266" t="n">
         <v>0</v>
@@ -72311,7 +72421,7 @@
         <v>4</v>
       </c>
       <c r="CJ266" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="CK266" t="n">
         <v>0</v>
@@ -72365,7 +72475,7 @@
         <v>6</v>
       </c>
       <c r="DB266" t="n">
-        <v>54.545454545455</v>
+        <v>60</v>
       </c>
       <c r="DC266" t="n">
         <v>0</v>
@@ -73793,13 +73903,13 @@
         <v>6</v>
       </c>
       <c r="W271" t="n">
-        <v>46.153846153846</v>
+        <v>42.857142857143</v>
       </c>
       <c r="X271" t="n">
         <v>58</v>
       </c>
       <c r="Y271" t="n">
-        <v>49.57264957265</v>
+        <v>48.739495798319</v>
       </c>
       <c r="Z271" t="n">
         <v>910</v>
@@ -73865,10 +73975,10 @@
         <v>63</v>
       </c>
       <c r="AU271" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AV271" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW271" t="n">
         <v>0</v>
@@ -73935,7 +74045,7 @@
         <v>52</v>
       </c>
       <c r="BS271" t="n">
-        <v>50</v>
+        <v>49.52380952381</v>
       </c>
       <c r="BT271" t="n">
         <v>0</v>
@@ -73971,7 +74081,7 @@
         <v>0</v>
       </c>
       <c r="CE271" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CF271" t="n">
         <v>192</v>
@@ -74409,28 +74519,28 @@
         <v>6</v>
       </c>
       <c r="E273" t="n">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="F273" t="n">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G273" t="n">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="H273" t="n">
-        <v>80.47</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="I273" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J273" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K273" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L273" t="n">
-        <v>67.73999999999999</v>
+        <v>69.44</v>
       </c>
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="n">
@@ -74443,13 +74553,13 @@
         <v>0</v>
       </c>
       <c r="Q273" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R273" t="n">
-        <v>40.91</v>
+        <v>39.29</v>
       </c>
       <c r="S273" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="T273" t="n">
         <v>14</v>
@@ -74462,19 +74572,19 @@
         <v>17.65</v>
       </c>
       <c r="X273" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Y273" t="n">
-        <v>38.17</v>
+        <v>37.56</v>
       </c>
       <c r="Z273" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="AA273" t="n">
-        <v>10.71</v>
+        <v>9.677</v>
       </c>
       <c r="AB273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC273" t="n">
         <v>0</v>
@@ -74483,13 +74593,13 @@
         <v>2</v>
       </c>
       <c r="AE273" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF273" t="n">
-        <v>50</v>
+        <v>48.48</v>
       </c>
       <c r="AG273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH273" t="n">
         <v>3</v>
@@ -74501,7 +74611,7 @@
         <v>10</v>
       </c>
       <c r="AK273" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL273" t="n">
         <v>1</v>
@@ -74522,23 +74632,23 @@
         <v>0</v>
       </c>
       <c r="AR273" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS273" t="n">
         <v>0</v>
       </c>
       <c r="AT273" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AU273" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="AV273" t="n">
         <v>14</v>
       </c>
       <c r="AW273" t="inlineStr"/>
       <c r="AX273" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AY273" t="n">
         <v>0</v>
@@ -74556,7 +74666,7 @@
         <v>0</v>
       </c>
       <c r="BD273" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BE273" t="n">
         <v>1930152</v>
@@ -74567,13 +74677,13 @@
         </is>
       </c>
       <c r="BG273" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BH273" t="n">
-        <v>7.575</v>
+        <v>7.5538461538462</v>
       </c>
       <c r="BI273" t="n">
-        <v>376.66666666667</v>
+        <v>409.66666666667</v>
       </c>
       <c r="BJ273" t="inlineStr"/>
       <c r="BK273" t="inlineStr"/>
@@ -79734,7 +79844,7 @@
         <v>17</v>
       </c>
       <c r="BH289" t="n">
-        <v>7.1176470588235</v>
+        <v>7.0647058823529</v>
       </c>
       <c r="BI289" t="n">
         <v>152</v>
@@ -79743,7 +79853,7 @@
         <v>0</v>
       </c>
       <c r="BK289" t="n">
-        <v>121</v>
+        <v>120.1</v>
       </c>
       <c r="BL289" t="n">
         <v>17</v>

--- a/players_stats.xlsx
+++ b/players_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DI312"/>
+  <dimension ref="A1:DI338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15288,7 +15288,7 @@
         <v>32.69</v>
       </c>
       <c r="Z57" t="n">
-        <v>851</v>
+        <v>941</v>
       </c>
       <c r="AA57" t="n">
         <v>0</v>
@@ -15342,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="AR57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS57" t="n">
         <v>0</v>
@@ -15387,7 +15387,7 @@
         </is>
       </c>
       <c r="BG57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BH57" t="n">
         <v>6.36</v>
@@ -26545,16 +26545,16 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="n">
-        <v>97.777777777778</v>
+        <v>97.826086956522</v>
       </c>
       <c r="I95" t="n">
         <v>6</v>
@@ -26569,7 +26569,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -26605,7 +26605,7 @@
         <v>5</v>
       </c>
       <c r="Y95" t="n">
-        <v>50</v>
+        <v>55.555555555556</v>
       </c>
       <c r="Z95" t="n">
         <v>120</v>
@@ -26629,7 +26629,7 @@
         <v>50</v>
       </c>
       <c r="AG95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH95" t="n">
         <v>0</v>
@@ -26641,7 +26641,7 @@
         <v>1</v>
       </c>
       <c r="AK95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL95" t="n">
         <v>0</v>
@@ -26671,7 +26671,7 @@
         <v>0</v>
       </c>
       <c r="AU95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV95" t="n">
         <v>1</v>
@@ -26732,7 +26732,7 @@
         <v>23</v>
       </c>
       <c r="BP95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BQ95" t="n">
         <v>3</v>
@@ -26741,7 +26741,7 @@
         <v>4</v>
       </c>
       <c r="BS95" t="n">
-        <v>50</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BT95" t="n">
         <v>0</v>
@@ -26858,7 +26858,7 @@
         <v>23</v>
       </c>
       <c r="DF95" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DG95" t="n">
         <v>0</v>
@@ -40901,25 +40901,25 @@
         <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E150" t="n">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="F150" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G150" t="n">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="H150" t="n">
-        <v>70.37</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I150" t="n">
         <v>63</v>
       </c>
       <c r="J150" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K150" t="n">
         <v>132</v>
@@ -40938,35 +40938,35 @@
         <v>0</v>
       </c>
       <c r="Q150" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R150" t="n">
-        <v>28.79</v>
+        <v>29.41</v>
       </c>
       <c r="S150" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="T150" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W150" t="n">
-        <v>23.6</v>
+        <v>24.44</v>
       </c>
       <c r="X150" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Y150" t="n">
-        <v>39.54</v>
+        <v>39.71</v>
       </c>
       <c r="Z150" t="n">
         <v>2387</v>
       </c>
       <c r="AA150" t="n">
-        <v>11.47</v>
+        <v>10.77</v>
       </c>
       <c r="AB150" t="n">
         <v>1</v>
@@ -40990,16 +40990,16 @@
         <v>10</v>
       </c>
       <c r="AI150" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AJ150" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AK150" t="n">
         <v>52</v>
       </c>
       <c r="AL150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM150" t="n">
         <v>2</v>
@@ -41021,10 +41021,10 @@
         <v>100</v>
       </c>
       <c r="AT150" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU150" t="n">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AV150" t="n">
         <v>68</v>
@@ -41049,7 +41049,7 @@
         <v>0</v>
       </c>
       <c r="BD150" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BE150" t="n">
         <v>1522713</v>
@@ -41063,7 +41063,7 @@
         <v>28</v>
       </c>
       <c r="BH150" t="n">
-        <v>7.1296296296296</v>
+        <v>7.1535714285714</v>
       </c>
       <c r="BI150" t="n">
         <v>341</v>
@@ -41838,19 +41838,19 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="F154" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G154" t="n">
-        <v>786</v>
+        <v>816</v>
       </c>
       <c r="H154" t="n">
-        <v>81.68000000000001</v>
+        <v>80.88</v>
       </c>
       <c r="I154" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J154" t="n">
         <v>2</v>
@@ -41888,13 +41888,13 @@
         <v>33</v>
       </c>
       <c r="W154" t="n">
-        <v>52.38</v>
+        <v>51.56</v>
       </c>
       <c r="X154" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Y154" t="n">
-        <v>31.51</v>
+        <v>31.42</v>
       </c>
       <c r="Z154" t="n">
         <v>1533</v>
@@ -41912,31 +41912,31 @@
         <v>1</v>
       </c>
       <c r="AE154" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AF154" t="n">
-        <v>52.94</v>
+        <v>52.47</v>
       </c>
       <c r="AG154" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH154" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI154" t="n">
         <v>5</v>
       </c>
       <c r="AJ154" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK154" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL154" t="n">
         <v>1</v>
       </c>
       <c r="AM154" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN154" t="n">
         <v>0</v>
@@ -41958,14 +41958,14 @@
         <v>0</v>
       </c>
       <c r="AU154" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AV154" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AW154" t="inlineStr"/>
       <c r="AX154" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AY154" t="n">
         <v>22</v>
@@ -41980,10 +41980,10 @@
         <v>5</v>
       </c>
       <c r="BC154" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD154" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="BE154" t="n">
         <v>1592735</v>
@@ -41997,7 +41997,7 @@
         <v>21</v>
       </c>
       <c r="BH154" t="n">
-        <v>6.81</v>
+        <v>6.7857142857143</v>
       </c>
       <c r="BI154" t="n">
         <v>1533</v>
@@ -42764,28 +42764,28 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="F158" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G158" t="n">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="H158" t="n">
-        <v>58.45</v>
+        <v>59.44</v>
       </c>
       <c r="I158" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J158" t="n">
         <v>8</v>
       </c>
       <c r="K158" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L158" t="n">
-        <v>76.19</v>
+        <v>75</v>
       </c>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="n">
@@ -42801,7 +42801,7 @@
         <v>4</v>
       </c>
       <c r="R158" t="n">
-        <v>25</v>
+        <v>23.53</v>
       </c>
       <c r="S158" t="n">
         <v>5</v>
@@ -42811,19 +42811,19 @@
       </c>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W158" t="n">
-        <v>56.45</v>
+        <v>56.34</v>
       </c>
       <c r="X158" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="Y158" t="n">
-        <v>39.34</v>
+        <v>40.66</v>
       </c>
       <c r="Z158" t="n">
-        <v>1110</v>
+        <v>1200</v>
       </c>
       <c r="AA158" t="n">
         <v>0</v>
@@ -42838,25 +42838,25 @@
         <v>0</v>
       </c>
       <c r="AE158" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF158" t="n">
-        <v>33.96</v>
+        <v>33.33</v>
       </c>
       <c r="AG158" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AH158" t="n">
         <v>9</v>
       </c>
       <c r="AI158" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ158" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AK158" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AL158" t="n">
         <v>0</v>
@@ -42877,30 +42877,30 @@
         <v>0</v>
       </c>
       <c r="AR158" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS158" t="inlineStr"/>
       <c r="AT158" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU158" t="n">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="AV158" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AW158" t="inlineStr"/>
       <c r="AX158" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AY158" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ158" t="n">
         <v>0</v>
       </c>
       <c r="BA158" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB158" t="n">
         <v>1</v>
@@ -42909,7 +42909,7 @@
         <v>0</v>
       </c>
       <c r="BD158" t="n">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="BE158" t="n">
         <v>1634194</v>
@@ -42920,10 +42920,10 @@
         </is>
       </c>
       <c r="BG158" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BH158" t="n">
-        <v>6.8785714285714</v>
+        <v>6.84375</v>
       </c>
       <c r="BI158" t="inlineStr"/>
       <c r="BJ158" t="n">
@@ -43692,28 +43692,28 @@
         <v>5</v>
       </c>
       <c r="E162" t="n">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="F162" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G162" t="n">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="H162" t="n">
-        <v>78</v>
+        <v>78.04000000000001</v>
       </c>
       <c r="I162" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J162" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K162" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L162" t="n">
-        <v>60.47</v>
+        <v>61.22</v>
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="n">
@@ -43726,35 +43726,35 @@
         <v>1</v>
       </c>
       <c r="Q162" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R162" t="n">
-        <v>42.22</v>
+        <v>39.22</v>
       </c>
       <c r="S162" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T162" t="n">
         <v>1</v>
       </c>
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W162" t="n">
-        <v>33.33</v>
+        <v>36.36</v>
       </c>
       <c r="X162" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="Y162" t="n">
-        <v>34.44</v>
+        <v>36.84</v>
       </c>
       <c r="Z162" t="n">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="AA162" t="n">
-        <v>14.29</v>
+        <v>12.5</v>
       </c>
       <c r="AB162" t="n">
         <v>0</v>
@@ -43766,10 +43766,10 @@
         <v>0</v>
       </c>
       <c r="AE162" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF162" t="n">
-        <v>37.04</v>
+        <v>37.93</v>
       </c>
       <c r="AG162" t="n">
         <v>13</v>
@@ -43778,10 +43778,10 @@
         <v>6</v>
       </c>
       <c r="AI162" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ162" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK162" t="n">
         <v>20</v>
@@ -43799,27 +43799,27 @@
         <v>0</v>
       </c>
       <c r="AP162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ162" t="n">
         <v>0</v>
       </c>
       <c r="AR162" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS162" t="inlineStr"/>
       <c r="AT162" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AU162" t="n">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AV162" t="n">
         <v>14</v>
       </c>
       <c r="AW162" t="inlineStr"/>
       <c r="AX162" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AY162" t="n">
         <v>10</v>
@@ -43837,7 +43837,7 @@
         <v>0</v>
       </c>
       <c r="BD162" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="BE162" t="n">
         <v>1894292</v>
@@ -43848,13 +43848,13 @@
         </is>
       </c>
       <c r="BG162" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BH162" t="n">
-        <v>6.88</v>
+        <v>6.9454545454545</v>
       </c>
       <c r="BI162" t="n">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="BJ162" t="n">
         <v>0</v>
@@ -44497,22 +44497,22 @@
         <v>8</v>
       </c>
       <c r="E165" t="n">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="F165" t="n">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G165" t="n">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="H165" t="n">
-        <v>68.67</v>
+        <v>68.42</v>
       </c>
       <c r="I165" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J165" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K165" t="n">
         <v>35</v>
@@ -44537,29 +44537,29 @@
         <v>30</v>
       </c>
       <c r="S165" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T165" t="n">
         <v>16</v>
       </c>
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W165" t="n">
-        <v>23.53</v>
+        <v>27.03</v>
       </c>
       <c r="X165" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Y165" t="n">
-        <v>25.23</v>
+        <v>24.51</v>
       </c>
       <c r="Z165" t="n">
-        <v>1556</v>
+        <v>1709</v>
       </c>
       <c r="AA165" t="n">
-        <v>9.433999999999999</v>
+        <v>9.090999999999999</v>
       </c>
       <c r="AB165" t="n">
         <v>1</v>
@@ -44571,25 +44571,25 @@
         <v>0</v>
       </c>
       <c r="AE165" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF165" t="n">
-        <v>37.25</v>
+        <v>37.74</v>
       </c>
       <c r="AG165" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH165" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI165" t="n">
         <v>14</v>
       </c>
       <c r="AJ165" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK165" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL165" t="n">
         <v>4</v>
@@ -44608,7 +44608,7 @@
         <v>0</v>
       </c>
       <c r="AR165" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS165" t="n">
         <v>0</v>
@@ -44617,23 +44617,23 @@
         <v>20</v>
       </c>
       <c r="AU165" t="n">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="AV165" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW165" t="inlineStr"/>
       <c r="AX165" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AY165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ165" t="n">
         <v>0</v>
       </c>
       <c r="BA165" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB165" t="n">
         <v>2</v>
@@ -44642,7 +44642,7 @@
         <v>0</v>
       </c>
       <c r="BD165" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="BE165" t="n">
         <v>1506287</v>
@@ -44653,13 +44653,13 @@
         </is>
       </c>
       <c r="BG165" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BH165" t="n">
-        <v>6.905</v>
+        <v>6.8545454545455</v>
       </c>
       <c r="BI165" t="n">
-        <v>311.2</v>
+        <v>341.8</v>
       </c>
       <c r="BJ165" t="n">
         <v>0</v>
@@ -55610,7 +55610,7 @@
         <v>58</v>
       </c>
       <c r="Y204" t="n">
-        <v>50.434782608696</v>
+        <v>50</v>
       </c>
       <c r="Z204" t="n">
         <v>922</v>
@@ -55646,7 +55646,7 @@
         <v>12</v>
       </c>
       <c r="AK204" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL204" t="n">
         <v>1</v>
@@ -55676,7 +55676,7 @@
         <v>7</v>
       </c>
       <c r="AU204" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AV204" t="n">
         <v>5</v>
@@ -55746,7 +55746,7 @@
         <v>56</v>
       </c>
       <c r="BS204" t="n">
-        <v>51.851851851852</v>
+        <v>51.376146788991</v>
       </c>
       <c r="BT204" t="n">
         <v>0</v>
@@ -68065,19 +68065,19 @@
         <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F251" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G251" t="n">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="H251" t="n">
-        <v>87.23999999999999</v>
+        <v>85.45</v>
       </c>
       <c r="I251" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
@@ -68112,19 +68112,19 @@
       </c>
       <c r="U251" t="inlineStr"/>
       <c r="V251" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W251" t="n">
-        <v>100</v>
+        <v>90.91</v>
       </c>
       <c r="X251" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y251" t="n">
-        <v>88.89</v>
+        <v>83.33</v>
       </c>
       <c r="Z251" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="AA251" t="n">
         <v>0</v>
@@ -68139,13 +68139,13 @@
         <v>0</v>
       </c>
       <c r="AE251" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AF251" t="n">
-        <v>61.54</v>
+        <v>59.57</v>
       </c>
       <c r="AG251" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH251" t="n">
         <v>3</v>
@@ -68169,16 +68169,16 @@
         <v>0</v>
       </c>
       <c r="AO251" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AP251" t="n">
         <v>6</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR251" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS251" t="n">
         <v>0</v>
@@ -68187,17 +68187,17 @@
         <v>0</v>
       </c>
       <c r="AU251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW251" t="inlineStr"/>
       <c r="AX251" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="AY251" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ251" t="n">
         <v>0</v>
@@ -68209,10 +68209,10 @@
         <v>0</v>
       </c>
       <c r="BC251" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BD251" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="BE251" t="n">
         <v>1956890</v>
@@ -68223,10 +68223,10 @@
         </is>
       </c>
       <c r="BG251" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BH251" t="n">
-        <v>6.8583333333333</v>
+        <v>6.8923076923077</v>
       </c>
       <c r="BI251" t="inlineStr"/>
       <c r="BJ251" t="inlineStr"/>
@@ -71139,35 +71139,35 @@
         <v>7</v>
       </c>
       <c r="D262" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E262" t="n">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="F262" t="n">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G262" t="n">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="H262" t="n">
-        <v>68.27</v>
+        <v>68.59</v>
       </c>
       <c r="I262" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J262" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K262" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L262" t="n">
-        <v>81.89</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="M262" t="inlineStr"/>
       <c r="N262" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O262" t="n">
         <v>0</v>
@@ -71176,35 +71176,35 @@
         <v>0</v>
       </c>
       <c r="Q262" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R262" t="n">
-        <v>35</v>
+        <v>35.37</v>
       </c>
       <c r="S262" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="T262" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="U262" t="inlineStr"/>
       <c r="V262" t="n">
         <v>13</v>
       </c>
       <c r="W262" t="n">
-        <v>25</v>
+        <v>23.64</v>
       </c>
       <c r="X262" t="n">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="Y262" t="n">
-        <v>44.76</v>
+        <v>43.72</v>
       </c>
       <c r="Z262" t="n">
-        <v>1792</v>
+        <v>1962</v>
       </c>
       <c r="AA262" t="n">
-        <v>17.31</v>
+        <v>21.05</v>
       </c>
       <c r="AB262" t="n">
         <v>1</v>
@@ -71216,31 +71216,31 @@
         <v>2</v>
       </c>
       <c r="AE262" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF262" t="n">
-        <v>48.65</v>
+        <v>48.72</v>
       </c>
       <c r="AG262" t="n">
         <v>6</v>
       </c>
       <c r="AH262" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI262" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ262" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AK262" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL262" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM262" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN262" t="n">
         <v>2</v>
@@ -71253,23 +71253,23 @@
         <v>0</v>
       </c>
       <c r="AR262" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS262" t="n">
         <v>0</v>
       </c>
       <c r="AT262" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU262" t="n">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="AV262" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AW262" t="inlineStr"/>
       <c r="AX262" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AY262" t="n">
         <v>18</v>
@@ -71278,7 +71278,7 @@
         <v>0</v>
       </c>
       <c r="BA262" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB262" t="n">
         <v>3</v>
@@ -71287,7 +71287,7 @@
         <v>0</v>
       </c>
       <c r="BD262" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="BE262" t="n">
         <v>1519227</v>
@@ -71301,10 +71301,10 @@
         <v>26</v>
       </c>
       <c r="BH262" t="n">
-        <v>7.65</v>
+        <v>7.6807692307692</v>
       </c>
       <c r="BI262" t="n">
-        <v>149.33333333333</v>
+        <v>163.5</v>
       </c>
       <c r="BJ262" t="n">
         <v>0</v>
@@ -71375,28 +71375,28 @@
         <v>10</v>
       </c>
       <c r="E263" t="n">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="F263" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G263" t="n">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="H263" t="n">
-        <v>61.94</v>
+        <v>62.93</v>
       </c>
       <c r="I263" t="n">
         <v>24</v>
       </c>
       <c r="J263" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K263" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L263" t="n">
-        <v>82.22</v>
+        <v>81.56</v>
       </c>
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="n">
@@ -71409,35 +71409,35 @@
         <v>0</v>
       </c>
       <c r="Q263" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R263" t="n">
-        <v>29.31</v>
+        <v>30.65</v>
       </c>
       <c r="S263" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T263" t="n">
         <v>14</v>
       </c>
       <c r="U263" t="inlineStr"/>
       <c r="V263" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="W263" t="n">
-        <v>39.66</v>
+        <v>40.98</v>
       </c>
       <c r="X263" t="n">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="Y263" t="n">
-        <v>45.45</v>
+        <v>45.95</v>
       </c>
       <c r="Z263" t="n">
-        <v>1792</v>
+        <v>1882</v>
       </c>
       <c r="AA263" t="n">
-        <v>13.64</v>
+        <v>12.77</v>
       </c>
       <c r="AB263" t="n">
         <v>0</v>
@@ -71449,10 +71449,10 @@
         <v>0</v>
       </c>
       <c r="AE263" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF263" t="n">
-        <v>23.68</v>
+        <v>29.27</v>
       </c>
       <c r="AG263" t="n">
         <v>9</v>
@@ -71461,16 +71461,16 @@
         <v>4</v>
       </c>
       <c r="AI263" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AJ263" t="n">
         <v>37</v>
       </c>
       <c r="AK263" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL263" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM263" t="n">
         <v>1</v>
@@ -71486,30 +71486,30 @@
         <v>0</v>
       </c>
       <c r="AR263" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS263" t="inlineStr"/>
       <c r="AT263" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AU263" t="n">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AV263" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AW263" t="inlineStr"/>
       <c r="AX263" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AY263" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ263" t="n">
         <v>0</v>
       </c>
       <c r="BA263" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB263" t="n">
         <v>0</v>
@@ -71518,7 +71518,7 @@
         <v>0</v>
       </c>
       <c r="BD263" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BE263" t="n">
         <v>1499585</v>
@@ -71529,13 +71529,13 @@
         </is>
       </c>
       <c r="BG263" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BH263" t="n">
-        <v>7.2739130434783</v>
+        <v>7.2833333333333</v>
       </c>
       <c r="BI263" t="n">
-        <v>298.66666666667</v>
+        <v>313.66666666667</v>
       </c>
       <c r="BJ263" t="n">
         <v>0</v>
@@ -73849,19 +73849,19 @@
         <v>8</v>
       </c>
       <c r="E271" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F271" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G271" t="n">
         <v>274</v>
       </c>
       <c r="H271" t="n">
-        <v>72.262773722628</v>
+        <v>72.62773722627701</v>
       </c>
       <c r="I271" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J271" t="n">
         <v>14</v>
@@ -73885,10 +73885,10 @@
         <v>0</v>
       </c>
       <c r="Q271" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R271" t="n">
-        <v>20.634920634921</v>
+        <v>19.354838709677</v>
       </c>
       <c r="S271" t="n">
         <v>35</v>
@@ -73930,10 +73930,10 @@
         <v>22</v>
       </c>
       <c r="AF271" t="n">
-        <v>78.571428571429</v>
+        <v>81.481481481481</v>
       </c>
       <c r="AG271" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH271" t="n">
         <v>0</v>
@@ -73972,7 +73972,7 @@
         <v>0</v>
       </c>
       <c r="AT271" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU271" t="n">
         <v>61</v>
@@ -73984,7 +73984,7 @@
         <v>0</v>
       </c>
       <c r="AX271" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY271" t="n">
         <v>21</v>
@@ -74084,16 +74084,16 @@
         <v>15</v>
       </c>
       <c r="CF271" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CG271" t="n">
         <v>4</v>
       </c>
       <c r="CH271" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CI271" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CJ271" t="n">
         <v>533</v>
@@ -74159,7 +74159,7 @@
         <v>0</v>
       </c>
       <c r="DE271" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="DF271" t="n">
         <v>267</v>
@@ -83912,7 +83912,7 @@
         <v>33.333333333333</v>
       </c>
       <c r="M304" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N304" t="n">
         <v>4</v>
@@ -86556,74 +86556,184 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B312" t="inlineStr"/>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr"/>
-      <c r="E312" t="inlineStr"/>
-      <c r="F312" t="inlineStr"/>
-      <c r="G312" t="inlineStr"/>
-      <c r="H312" t="inlineStr"/>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+        <v>340</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2</v>
+      </c>
+      <c r="E312" t="n">
+        <v>217</v>
+      </c>
+      <c r="F312" t="n">
+        <v>103</v>
+      </c>
+      <c r="G312" t="n">
+        <v>320</v>
+      </c>
+      <c r="H312" t="n">
+        <v>67.81</v>
+      </c>
+      <c r="I312" t="n">
+        <v>29</v>
+      </c>
+      <c r="J312" t="n">
+        <v>7</v>
+      </c>
+      <c r="K312" t="n">
+        <v>10</v>
+      </c>
+      <c r="L312" t="n">
+        <v>83.33</v>
+      </c>
       <c r="M312" t="inlineStr"/>
-      <c r="N312" t="inlineStr"/>
-      <c r="O312" t="inlineStr"/>
-      <c r="P312" t="inlineStr"/>
-      <c r="Q312" t="inlineStr"/>
-      <c r="R312" t="inlineStr"/>
-      <c r="S312" t="inlineStr"/>
-      <c r="T312" t="inlineStr"/>
+      <c r="N312" t="n">
+        <v>4</v>
+      </c>
+      <c r="O312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>10</v>
+      </c>
+      <c r="R312" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="S312" t="n">
+        <v>12</v>
+      </c>
+      <c r="T312" t="n">
+        <v>4</v>
+      </c>
       <c r="U312" t="inlineStr"/>
-      <c r="V312" t="inlineStr"/>
-      <c r="W312" t="inlineStr"/>
-      <c r="X312" t="inlineStr"/>
-      <c r="Y312" t="inlineStr"/>
-      <c r="Z312" t="inlineStr"/>
-      <c r="AA312" t="inlineStr"/>
-      <c r="AB312" t="inlineStr"/>
-      <c r="AC312" t="inlineStr"/>
-      <c r="AD312" t="inlineStr"/>
-      <c r="AE312" t="inlineStr"/>
-      <c r="AF312" t="inlineStr"/>
-      <c r="AG312" t="inlineStr"/>
-      <c r="AH312" t="inlineStr"/>
-      <c r="AI312" t="inlineStr"/>
-      <c r="AJ312" t="inlineStr"/>
-      <c r="AK312" t="inlineStr"/>
-      <c r="AL312" t="inlineStr"/>
-      <c r="AM312" t="inlineStr"/>
-      <c r="AN312" t="inlineStr"/>
-      <c r="AO312" t="inlineStr"/>
-      <c r="AP312" t="inlineStr"/>
-      <c r="AQ312" t="inlineStr"/>
-      <c r="AR312" t="inlineStr"/>
-      <c r="AS312" t="inlineStr"/>
-      <c r="AT312" t="inlineStr"/>
-      <c r="AU312" t="inlineStr"/>
-      <c r="AV312" t="inlineStr"/>
+      <c r="V312" t="n">
+        <v>31</v>
+      </c>
+      <c r="W312" t="n">
+        <v>62</v>
+      </c>
+      <c r="X312" t="n">
+        <v>71</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>39.01</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>920</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>8.333</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>33</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>111</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>19</v>
+      </c>
       <c r="AW312" t="inlineStr"/>
-      <c r="AX312" t="inlineStr"/>
-      <c r="AY312" t="inlineStr"/>
-      <c r="AZ312" t="inlineStr"/>
-      <c r="BA312" t="inlineStr"/>
-      <c r="BB312" t="inlineStr"/>
-      <c r="BC312" t="inlineStr"/>
-      <c r="BD312" t="inlineStr"/>
+      <c r="AX312" t="n">
+        <v>56</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>87</v>
+      </c>
       <c r="BE312" t="n">
-        <v>1662189</v>
+        <v>1664879</v>
       </c>
       <c r="BF312" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="BG312" t="inlineStr"/>
-      <c r="BH312" t="inlineStr"/>
-      <c r="BI312" t="inlineStr"/>
+      <c r="BG312" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>7.025</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>920</v>
+      </c>
       <c r="BJ312" t="inlineStr"/>
       <c r="BK312" t="inlineStr"/>
       <c r="BL312" t="inlineStr"/>
@@ -86677,6 +86787,6338 @@
       <c r="DH312" t="inlineStr"/>
       <c r="DI312" t="inlineStr"/>
     </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0</v>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="inlineStr"/>
+      <c r="O313" t="inlineStr"/>
+      <c r="P313" t="inlineStr"/>
+      <c r="Q313" t="inlineStr"/>
+      <c r="R313" t="inlineStr"/>
+      <c r="S313" t="inlineStr"/>
+      <c r="T313" t="inlineStr"/>
+      <c r="U313" t="inlineStr"/>
+      <c r="V313" t="inlineStr"/>
+      <c r="W313" t="inlineStr"/>
+      <c r="X313" t="inlineStr"/>
+      <c r="Y313" t="inlineStr"/>
+      <c r="Z313" t="inlineStr"/>
+      <c r="AA313" t="inlineStr"/>
+      <c r="AB313" t="inlineStr"/>
+      <c r="AC313" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD313" t="inlineStr"/>
+      <c r="AE313" t="inlineStr"/>
+      <c r="AF313" t="inlineStr"/>
+      <c r="AG313" t="inlineStr"/>
+      <c r="AH313" t="inlineStr"/>
+      <c r="AI313" t="inlineStr"/>
+      <c r="AJ313" t="inlineStr"/>
+      <c r="AK313" t="inlineStr"/>
+      <c r="AL313" t="inlineStr"/>
+      <c r="AM313" t="inlineStr"/>
+      <c r="AN313" t="inlineStr"/>
+      <c r="AO313" t="inlineStr"/>
+      <c r="AP313" t="inlineStr"/>
+      <c r="AQ313" t="inlineStr"/>
+      <c r="AR313" t="inlineStr"/>
+      <c r="AS313" t="inlineStr"/>
+      <c r="AT313" t="inlineStr"/>
+      <c r="AU313" t="inlineStr"/>
+      <c r="AV313" t="inlineStr"/>
+      <c r="AW313" t="inlineStr"/>
+      <c r="AX313" t="inlineStr"/>
+      <c r="AY313" t="inlineStr"/>
+      <c r="AZ313" t="inlineStr"/>
+      <c r="BA313" t="inlineStr"/>
+      <c r="BB313" t="inlineStr"/>
+      <c r="BC313" t="inlineStr"/>
+      <c r="BD313" t="inlineStr"/>
+      <c r="BE313" t="n">
+        <v>2009350</v>
+      </c>
+      <c r="BF313" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG313" t="inlineStr"/>
+      <c r="BH313" t="inlineStr"/>
+      <c r="BI313" t="inlineStr"/>
+      <c r="BJ313" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK313" t="inlineStr"/>
+      <c r="BL313" t="inlineStr"/>
+      <c r="BM313" t="inlineStr"/>
+      <c r="BN313" t="inlineStr"/>
+      <c r="BO313" t="inlineStr"/>
+      <c r="BP313" t="inlineStr"/>
+      <c r="BQ313" t="inlineStr"/>
+      <c r="BR313" t="inlineStr"/>
+      <c r="BS313" t="inlineStr"/>
+      <c r="BT313" t="inlineStr"/>
+      <c r="BU313" t="inlineStr"/>
+      <c r="BV313" t="inlineStr"/>
+      <c r="BW313" t="inlineStr"/>
+      <c r="BX313" t="inlineStr"/>
+      <c r="BY313" t="inlineStr"/>
+      <c r="BZ313" t="inlineStr"/>
+      <c r="CA313" t="inlineStr"/>
+      <c r="CB313" t="inlineStr"/>
+      <c r="CC313" t="inlineStr"/>
+      <c r="CD313" t="inlineStr"/>
+      <c r="CE313" t="inlineStr"/>
+      <c r="CF313" t="inlineStr"/>
+      <c r="CG313" t="inlineStr"/>
+      <c r="CH313" t="inlineStr"/>
+      <c r="CI313" t="inlineStr"/>
+      <c r="CJ313" t="inlineStr"/>
+      <c r="CK313" t="inlineStr"/>
+      <c r="CL313" t="inlineStr"/>
+      <c r="CM313" t="inlineStr"/>
+      <c r="CN313" t="inlineStr"/>
+      <c r="CO313" t="inlineStr"/>
+      <c r="CP313" t="inlineStr"/>
+      <c r="CQ313" t="inlineStr"/>
+      <c r="CR313" t="inlineStr"/>
+      <c r="CS313" t="inlineStr"/>
+      <c r="CT313" t="inlineStr"/>
+      <c r="CU313" t="inlineStr"/>
+      <c r="CV313" t="inlineStr"/>
+      <c r="CW313" t="inlineStr"/>
+      <c r="CX313" t="inlineStr"/>
+      <c r="CY313" t="inlineStr"/>
+      <c r="CZ313" t="inlineStr"/>
+      <c r="DA313" t="inlineStr"/>
+      <c r="DB313" t="inlineStr"/>
+      <c r="DC313" t="inlineStr"/>
+      <c r="DD313" t="inlineStr"/>
+      <c r="DE313" t="inlineStr"/>
+      <c r="DF313" t="inlineStr"/>
+      <c r="DG313" t="inlineStr"/>
+      <c r="DH313" t="inlineStr"/>
+      <c r="DI313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
+      <c r="E314" t="n">
+        <v>291</v>
+      </c>
+      <c r="F314" t="n">
+        <v>57</v>
+      </c>
+      <c r="G314" t="n">
+        <v>348</v>
+      </c>
+      <c r="H314" t="n">
+        <v>83.62</v>
+      </c>
+      <c r="I314" t="n">
+        <v>13</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+      <c r="N314" t="n">
+        <v>1</v>
+      </c>
+      <c r="O314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
+      <c r="S314" t="n">
+        <v>0</v>
+      </c>
+      <c r="T314" t="n">
+        <v>0</v>
+      </c>
+      <c r="U314" t="inlineStr"/>
+      <c r="V314" t="n">
+        <v>5</v>
+      </c>
+      <c r="W314" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="X314" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>92</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW314" t="inlineStr"/>
+      <c r="AX314" t="n">
+        <v>141</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>62</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>1867527</v>
+      </c>
+      <c r="BF314" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG314" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="BI314" t="inlineStr"/>
+      <c r="BJ314" t="inlineStr"/>
+      <c r="BK314" t="inlineStr"/>
+      <c r="BL314" t="inlineStr"/>
+      <c r="BM314" t="inlineStr"/>
+      <c r="BN314" t="inlineStr"/>
+      <c r="BO314" t="inlineStr"/>
+      <c r="BP314" t="inlineStr"/>
+      <c r="BQ314" t="inlineStr"/>
+      <c r="BR314" t="inlineStr"/>
+      <c r="BS314" t="inlineStr"/>
+      <c r="BT314" t="inlineStr"/>
+      <c r="BU314" t="inlineStr"/>
+      <c r="BV314" t="inlineStr"/>
+      <c r="BW314" t="inlineStr"/>
+      <c r="BX314" t="inlineStr"/>
+      <c r="BY314" t="inlineStr"/>
+      <c r="BZ314" t="inlineStr"/>
+      <c r="CA314" t="inlineStr"/>
+      <c r="CB314" t="inlineStr"/>
+      <c r="CC314" t="inlineStr"/>
+      <c r="CD314" t="inlineStr"/>
+      <c r="CE314" t="inlineStr"/>
+      <c r="CF314" t="inlineStr"/>
+      <c r="CG314" t="inlineStr"/>
+      <c r="CH314" t="inlineStr"/>
+      <c r="CI314" t="inlineStr"/>
+      <c r="CJ314" t="inlineStr"/>
+      <c r="CK314" t="inlineStr"/>
+      <c r="CL314" t="inlineStr"/>
+      <c r="CM314" t="inlineStr"/>
+      <c r="CN314" t="inlineStr"/>
+      <c r="CO314" t="inlineStr"/>
+      <c r="CP314" t="inlineStr"/>
+      <c r="CQ314" t="inlineStr"/>
+      <c r="CR314" t="inlineStr"/>
+      <c r="CS314" t="inlineStr"/>
+      <c r="CT314" t="inlineStr"/>
+      <c r="CU314" t="inlineStr"/>
+      <c r="CV314" t="inlineStr"/>
+      <c r="CW314" t="inlineStr"/>
+      <c r="CX314" t="inlineStr"/>
+      <c r="CY314" t="inlineStr"/>
+      <c r="CZ314" t="inlineStr"/>
+      <c r="DA314" t="inlineStr"/>
+      <c r="DB314" t="inlineStr"/>
+      <c r="DC314" t="inlineStr"/>
+      <c r="DD314" t="inlineStr"/>
+      <c r="DE314" t="inlineStr"/>
+      <c r="DF314" t="inlineStr"/>
+      <c r="DG314" t="inlineStr"/>
+      <c r="DH314" t="inlineStr"/>
+      <c r="DI314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+      <c r="E315" t="n">
+        <v>16</v>
+      </c>
+      <c r="F315" t="n">
+        <v>5</v>
+      </c>
+      <c r="G315" t="n">
+        <v>21</v>
+      </c>
+      <c r="H315" t="n">
+        <v>76.19047619047601</v>
+      </c>
+      <c r="I315" t="n">
+        <v>12</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1</v>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" t="n">
+        <v>0</v>
+      </c>
+      <c r="O315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
+      <c r="S315" t="n">
+        <v>4</v>
+      </c>
+      <c r="T315" t="n">
+        <v>2</v>
+      </c>
+      <c r="U315" t="n">
+        <v>1</v>
+      </c>
+      <c r="V315" t="n">
+        <v>8</v>
+      </c>
+      <c r="W315" t="n">
+        <v>36.363636363636</v>
+      </c>
+      <c r="X315" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>38.235294117647</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>164</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA315" t="inlineStr"/>
+      <c r="BB315" t="inlineStr"/>
+      <c r="BC315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>1849082</v>
+      </c>
+      <c r="BF315" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG315" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>6.5666666666667</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="BL315" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM315" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN315" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO315" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP315" t="n">
+        <v>15</v>
+      </c>
+      <c r="BQ315" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR315" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS315" t="n">
+        <v>41.666666666667</v>
+      </c>
+      <c r="BT315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX315" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY315" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE315" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF315" t="n">
+        <v>14</v>
+      </c>
+      <c r="CG315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH315" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ315" t="n">
+        <v>44</v>
+      </c>
+      <c r="CK315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP315" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW315" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX315" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY315" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ315" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA315" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB315" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="DC315" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD315" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE315" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF315" t="n">
+        <v>20</v>
+      </c>
+      <c r="DG315" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH315" t="inlineStr"/>
+      <c r="DI315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2</v>
+      </c>
+      <c r="D316" t="n">
+        <v>4</v>
+      </c>
+      <c r="E316" t="n">
+        <v>487</v>
+      </c>
+      <c r="F316" t="n">
+        <v>115</v>
+      </c>
+      <c r="G316" t="n">
+        <v>602</v>
+      </c>
+      <c r="H316" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="I316" t="n">
+        <v>69</v>
+      </c>
+      <c r="J316" t="n">
+        <v>28</v>
+      </c>
+      <c r="K316" t="n">
+        <v>42</v>
+      </c>
+      <c r="L316" t="n">
+        <v>84</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+      <c r="N316" t="n">
+        <v>2</v>
+      </c>
+      <c r="O316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>8</v>
+      </c>
+      <c r="R316" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="S316" t="n">
+        <v>22</v>
+      </c>
+      <c r="T316" t="n">
+        <v>6</v>
+      </c>
+      <c r="U316" t="inlineStr"/>
+      <c r="V316" t="n">
+        <v>7</v>
+      </c>
+      <c r="W316" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="X316" t="n">
+        <v>128</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>44.76</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>9.090999999999999</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>59.62</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>33</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>26</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>158</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW316" t="inlineStr"/>
+      <c r="AX316" t="n">
+        <v>52</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ316" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA316" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB316" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC316" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD316" t="n">
+        <v>123</v>
+      </c>
+      <c r="BE316" t="n">
+        <v>1906874</v>
+      </c>
+      <c r="BF316" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG316" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>7.5066666666667</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>679.5</v>
+      </c>
+      <c r="BJ316" t="inlineStr"/>
+      <c r="BK316" t="inlineStr"/>
+      <c r="BL316" t="inlineStr"/>
+      <c r="BM316" t="inlineStr"/>
+      <c r="BN316" t="inlineStr"/>
+      <c r="BO316" t="inlineStr"/>
+      <c r="BP316" t="inlineStr"/>
+      <c r="BQ316" t="inlineStr"/>
+      <c r="BR316" t="inlineStr"/>
+      <c r="BS316" t="inlineStr"/>
+      <c r="BT316" t="inlineStr"/>
+      <c r="BU316" t="inlineStr"/>
+      <c r="BV316" t="inlineStr"/>
+      <c r="BW316" t="inlineStr"/>
+      <c r="BX316" t="inlineStr"/>
+      <c r="BY316" t="inlineStr"/>
+      <c r="BZ316" t="inlineStr"/>
+      <c r="CA316" t="inlineStr"/>
+      <c r="CB316" t="inlineStr"/>
+      <c r="CC316" t="inlineStr"/>
+      <c r="CD316" t="inlineStr"/>
+      <c r="CE316" t="inlineStr"/>
+      <c r="CF316" t="inlineStr"/>
+      <c r="CG316" t="inlineStr"/>
+      <c r="CH316" t="inlineStr"/>
+      <c r="CI316" t="inlineStr"/>
+      <c r="CJ316" t="inlineStr"/>
+      <c r="CK316" t="inlineStr"/>
+      <c r="CL316" t="inlineStr"/>
+      <c r="CM316" t="inlineStr"/>
+      <c r="CN316" t="inlineStr"/>
+      <c r="CO316" t="inlineStr"/>
+      <c r="CP316" t="inlineStr"/>
+      <c r="CQ316" t="inlineStr"/>
+      <c r="CR316" t="inlineStr"/>
+      <c r="CS316" t="inlineStr"/>
+      <c r="CT316" t="inlineStr"/>
+      <c r="CU316" t="inlineStr"/>
+      <c r="CV316" t="inlineStr"/>
+      <c r="CW316" t="inlineStr"/>
+      <c r="CX316" t="inlineStr"/>
+      <c r="CY316" t="inlineStr"/>
+      <c r="CZ316" t="inlineStr"/>
+      <c r="DA316" t="inlineStr"/>
+      <c r="DB316" t="inlineStr"/>
+      <c r="DC316" t="inlineStr"/>
+      <c r="DD316" t="inlineStr"/>
+      <c r="DE316" t="inlineStr"/>
+      <c r="DF316" t="inlineStr"/>
+      <c r="DG316" t="inlineStr"/>
+      <c r="DH316" t="inlineStr"/>
+      <c r="DI316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B317" t="n">
+        <v>4</v>
+      </c>
+      <c r="C317" t="n">
+        <v>3</v>
+      </c>
+      <c r="D317" t="n">
+        <v>7</v>
+      </c>
+      <c r="E317" t="n">
+        <v>391</v>
+      </c>
+      <c r="F317" t="n">
+        <v>102</v>
+      </c>
+      <c r="G317" t="n">
+        <v>493</v>
+      </c>
+      <c r="H317" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="I317" t="n">
+        <v>43</v>
+      </c>
+      <c r="J317" t="n">
+        <v>26</v>
+      </c>
+      <c r="K317" t="n">
+        <v>28</v>
+      </c>
+      <c r="L317" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="n">
+        <v>0</v>
+      </c>
+      <c r="O317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>16</v>
+      </c>
+      <c r="R317" t="n">
+        <v>41.03</v>
+      </c>
+      <c r="S317" t="n">
+        <v>26</v>
+      </c>
+      <c r="T317" t="n">
+        <v>10</v>
+      </c>
+      <c r="U317" t="inlineStr"/>
+      <c r="V317" t="n">
+        <v>4</v>
+      </c>
+      <c r="W317" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="X317" t="n">
+        <v>98</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1255</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>39</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>175</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW317" t="inlineStr"/>
+      <c r="AX317" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ317" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA317" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB317" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC317" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD317" t="n">
+        <v>83</v>
+      </c>
+      <c r="BE317" t="n">
+        <v>1930163</v>
+      </c>
+      <c r="BF317" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG317" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH317" t="n">
+        <v>7.3214285714286</v>
+      </c>
+      <c r="BI317" t="n">
+        <v>313.75</v>
+      </c>
+      <c r="BJ317" t="inlineStr"/>
+      <c r="BK317" t="inlineStr"/>
+      <c r="BL317" t="inlineStr"/>
+      <c r="BM317" t="inlineStr"/>
+      <c r="BN317" t="inlineStr"/>
+      <c r="BO317" t="inlineStr"/>
+      <c r="BP317" t="inlineStr"/>
+      <c r="BQ317" t="inlineStr"/>
+      <c r="BR317" t="inlineStr"/>
+      <c r="BS317" t="inlineStr"/>
+      <c r="BT317" t="inlineStr"/>
+      <c r="BU317" t="inlineStr"/>
+      <c r="BV317" t="inlineStr"/>
+      <c r="BW317" t="inlineStr"/>
+      <c r="BX317" t="inlineStr"/>
+      <c r="BY317" t="inlineStr"/>
+      <c r="BZ317" t="inlineStr"/>
+      <c r="CA317" t="inlineStr"/>
+      <c r="CB317" t="inlineStr"/>
+      <c r="CC317" t="inlineStr"/>
+      <c r="CD317" t="inlineStr"/>
+      <c r="CE317" t="inlineStr"/>
+      <c r="CF317" t="inlineStr"/>
+      <c r="CG317" t="inlineStr"/>
+      <c r="CH317" t="inlineStr"/>
+      <c r="CI317" t="inlineStr"/>
+      <c r="CJ317" t="inlineStr"/>
+      <c r="CK317" t="inlineStr"/>
+      <c r="CL317" t="inlineStr"/>
+      <c r="CM317" t="inlineStr"/>
+      <c r="CN317" t="inlineStr"/>
+      <c r="CO317" t="inlineStr"/>
+      <c r="CP317" t="inlineStr"/>
+      <c r="CQ317" t="inlineStr"/>
+      <c r="CR317" t="inlineStr"/>
+      <c r="CS317" t="inlineStr"/>
+      <c r="CT317" t="inlineStr"/>
+      <c r="CU317" t="inlineStr"/>
+      <c r="CV317" t="inlineStr"/>
+      <c r="CW317" t="inlineStr"/>
+      <c r="CX317" t="inlineStr"/>
+      <c r="CY317" t="inlineStr"/>
+      <c r="CZ317" t="inlineStr"/>
+      <c r="DA317" t="inlineStr"/>
+      <c r="DB317" t="inlineStr"/>
+      <c r="DC317" t="inlineStr"/>
+      <c r="DD317" t="inlineStr"/>
+      <c r="DE317" t="inlineStr"/>
+      <c r="DF317" t="inlineStr"/>
+      <c r="DG317" t="inlineStr"/>
+      <c r="DH317" t="inlineStr"/>
+      <c r="DI317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>2</v>
+      </c>
+      <c r="E318" t="n">
+        <v>422</v>
+      </c>
+      <c r="F318" t="n">
+        <v>79</v>
+      </c>
+      <c r="G318" t="n">
+        <v>501</v>
+      </c>
+      <c r="H318" t="n">
+        <v>84.23</v>
+      </c>
+      <c r="I318" t="n">
+        <v>62</v>
+      </c>
+      <c r="J318" t="n">
+        <v>11</v>
+      </c>
+      <c r="K318" t="n">
+        <v>18</v>
+      </c>
+      <c r="L318" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+      <c r="N318" t="n">
+        <v>1</v>
+      </c>
+      <c r="O318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>2</v>
+      </c>
+      <c r="R318" t="n">
+        <v>25</v>
+      </c>
+      <c r="S318" t="n">
+        <v>8</v>
+      </c>
+      <c r="T318" t="n">
+        <v>5</v>
+      </c>
+      <c r="U318" t="inlineStr"/>
+      <c r="V318" t="n">
+        <v>3</v>
+      </c>
+      <c r="W318" t="n">
+        <v>30</v>
+      </c>
+      <c r="X318" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>894</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU318" t="n">
+        <v>136</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW318" t="inlineStr"/>
+      <c r="AX318" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ318" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA318" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB318" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC318" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD318" t="n">
+        <v>64</v>
+      </c>
+      <c r="BE318" t="n">
+        <v>1930271</v>
+      </c>
+      <c r="BF318" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG318" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH318" t="n">
+        <v>7.0583333333333</v>
+      </c>
+      <c r="BI318" t="n">
+        <v>894</v>
+      </c>
+      <c r="BJ318" t="inlineStr"/>
+      <c r="BK318" t="inlineStr"/>
+      <c r="BL318" t="inlineStr"/>
+      <c r="BM318" t="inlineStr"/>
+      <c r="BN318" t="inlineStr"/>
+      <c r="BO318" t="inlineStr"/>
+      <c r="BP318" t="inlineStr"/>
+      <c r="BQ318" t="inlineStr"/>
+      <c r="BR318" t="inlineStr"/>
+      <c r="BS318" t="inlineStr"/>
+      <c r="BT318" t="inlineStr"/>
+      <c r="BU318" t="inlineStr"/>
+      <c r="BV318" t="inlineStr"/>
+      <c r="BW318" t="inlineStr"/>
+      <c r="BX318" t="inlineStr"/>
+      <c r="BY318" t="inlineStr"/>
+      <c r="BZ318" t="inlineStr"/>
+      <c r="CA318" t="inlineStr"/>
+      <c r="CB318" t="inlineStr"/>
+      <c r="CC318" t="inlineStr"/>
+      <c r="CD318" t="inlineStr"/>
+      <c r="CE318" t="inlineStr"/>
+      <c r="CF318" t="inlineStr"/>
+      <c r="CG318" t="inlineStr"/>
+      <c r="CH318" t="inlineStr"/>
+      <c r="CI318" t="inlineStr"/>
+      <c r="CJ318" t="inlineStr"/>
+      <c r="CK318" t="inlineStr"/>
+      <c r="CL318" t="inlineStr"/>
+      <c r="CM318" t="inlineStr"/>
+      <c r="CN318" t="inlineStr"/>
+      <c r="CO318" t="inlineStr"/>
+      <c r="CP318" t="inlineStr"/>
+      <c r="CQ318" t="inlineStr"/>
+      <c r="CR318" t="inlineStr"/>
+      <c r="CS318" t="inlineStr"/>
+      <c r="CT318" t="inlineStr"/>
+      <c r="CU318" t="inlineStr"/>
+      <c r="CV318" t="inlineStr"/>
+      <c r="CW318" t="inlineStr"/>
+      <c r="CX318" t="inlineStr"/>
+      <c r="CY318" t="inlineStr"/>
+      <c r="CZ318" t="inlineStr"/>
+      <c r="DA318" t="inlineStr"/>
+      <c r="DB318" t="inlineStr"/>
+      <c r="DC318" t="inlineStr"/>
+      <c r="DD318" t="inlineStr"/>
+      <c r="DE318" t="inlineStr"/>
+      <c r="DF318" t="inlineStr"/>
+      <c r="DG318" t="inlineStr"/>
+      <c r="DH318" t="inlineStr"/>
+      <c r="DI318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+      <c r="E319" t="n">
+        <v>279</v>
+      </c>
+      <c r="F319" t="n">
+        <v>56</v>
+      </c>
+      <c r="G319" t="n">
+        <v>335</v>
+      </c>
+      <c r="H319" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="I319" t="n">
+        <v>12</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+      <c r="N319" t="n">
+        <v>0</v>
+      </c>
+      <c r="O319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
+      <c r="S319" t="n">
+        <v>1</v>
+      </c>
+      <c r="T319" t="n">
+        <v>1</v>
+      </c>
+      <c r="U319" t="inlineStr"/>
+      <c r="V319" t="n">
+        <v>7</v>
+      </c>
+      <c r="W319" t="n">
+        <v>100</v>
+      </c>
+      <c r="X319" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>900</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>53.13</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>57</v>
+      </c>
+      <c r="AP319" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR319" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU319" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW319" t="inlineStr"/>
+      <c r="AX319" t="n">
+        <v>96</v>
+      </c>
+      <c r="AY319" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ319" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA319" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB319" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC319" t="n">
+        <v>42</v>
+      </c>
+      <c r="BD319" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE319" t="n">
+        <v>1954781</v>
+      </c>
+      <c r="BF319" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG319" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH319" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="BI319" t="inlineStr"/>
+      <c r="BJ319" t="inlineStr"/>
+      <c r="BK319" t="inlineStr"/>
+      <c r="BL319" t="inlineStr"/>
+      <c r="BM319" t="inlineStr"/>
+      <c r="BN319" t="inlineStr"/>
+      <c r="BO319" t="inlineStr"/>
+      <c r="BP319" t="inlineStr"/>
+      <c r="BQ319" t="inlineStr"/>
+      <c r="BR319" t="inlineStr"/>
+      <c r="BS319" t="inlineStr"/>
+      <c r="BT319" t="inlineStr"/>
+      <c r="BU319" t="inlineStr"/>
+      <c r="BV319" t="inlineStr"/>
+      <c r="BW319" t="inlineStr"/>
+      <c r="BX319" t="inlineStr"/>
+      <c r="BY319" t="inlineStr"/>
+      <c r="BZ319" t="inlineStr"/>
+      <c r="CA319" t="inlineStr"/>
+      <c r="CB319" t="inlineStr"/>
+      <c r="CC319" t="inlineStr"/>
+      <c r="CD319" t="inlineStr"/>
+      <c r="CE319" t="inlineStr"/>
+      <c r="CF319" t="inlineStr"/>
+      <c r="CG319" t="inlineStr"/>
+      <c r="CH319" t="inlineStr"/>
+      <c r="CI319" t="inlineStr"/>
+      <c r="CJ319" t="inlineStr"/>
+      <c r="CK319" t="inlineStr"/>
+      <c r="CL319" t="inlineStr"/>
+      <c r="CM319" t="inlineStr"/>
+      <c r="CN319" t="inlineStr"/>
+      <c r="CO319" t="inlineStr"/>
+      <c r="CP319" t="inlineStr"/>
+      <c r="CQ319" t="inlineStr"/>
+      <c r="CR319" t="inlineStr"/>
+      <c r="CS319" t="inlineStr"/>
+      <c r="CT319" t="inlineStr"/>
+      <c r="CU319" t="inlineStr"/>
+      <c r="CV319" t="inlineStr"/>
+      <c r="CW319" t="inlineStr"/>
+      <c r="CX319" t="inlineStr"/>
+      <c r="CY319" t="inlineStr"/>
+      <c r="CZ319" t="inlineStr"/>
+      <c r="DA319" t="inlineStr"/>
+      <c r="DB319" t="inlineStr"/>
+      <c r="DC319" t="inlineStr"/>
+      <c r="DD319" t="inlineStr"/>
+      <c r="DE319" t="inlineStr"/>
+      <c r="DF319" t="inlineStr"/>
+      <c r="DG319" t="inlineStr"/>
+      <c r="DH319" t="inlineStr"/>
+      <c r="DI319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>2</v>
+      </c>
+      <c r="E320" t="n">
+        <v>563</v>
+      </c>
+      <c r="F320" t="n">
+        <v>67</v>
+      </c>
+      <c r="G320" t="n">
+        <v>630</v>
+      </c>
+      <c r="H320" t="n">
+        <v>89.37</v>
+      </c>
+      <c r="I320" t="n">
+        <v>57</v>
+      </c>
+      <c r="J320" t="n">
+        <v>10</v>
+      </c>
+      <c r="K320" t="n">
+        <v>11</v>
+      </c>
+      <c r="L320" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+      <c r="N320" t="n">
+        <v>4</v>
+      </c>
+      <c r="O320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>4</v>
+      </c>
+      <c r="R320" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="S320" t="n">
+        <v>5</v>
+      </c>
+      <c r="T320" t="n">
+        <v>2</v>
+      </c>
+      <c r="U320" t="inlineStr"/>
+      <c r="V320" t="n">
+        <v>2</v>
+      </c>
+      <c r="W320" t="n">
+        <v>40</v>
+      </c>
+      <c r="X320" t="n">
+        <v>74</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>34.74</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>946</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>139</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW320" t="inlineStr"/>
+      <c r="AX320" t="n">
+        <v>45</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>102</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>1957180</v>
+      </c>
+      <c r="BF320" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG320" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>946</v>
+      </c>
+      <c r="BJ320" t="inlineStr"/>
+      <c r="BK320" t="inlineStr"/>
+      <c r="BL320" t="inlineStr"/>
+      <c r="BM320" t="inlineStr"/>
+      <c r="BN320" t="inlineStr"/>
+      <c r="BO320" t="inlineStr"/>
+      <c r="BP320" t="inlineStr"/>
+      <c r="BQ320" t="inlineStr"/>
+      <c r="BR320" t="inlineStr"/>
+      <c r="BS320" t="inlineStr"/>
+      <c r="BT320" t="inlineStr"/>
+      <c r="BU320" t="inlineStr"/>
+      <c r="BV320" t="inlineStr"/>
+      <c r="BW320" t="inlineStr"/>
+      <c r="BX320" t="inlineStr"/>
+      <c r="BY320" t="inlineStr"/>
+      <c r="BZ320" t="inlineStr"/>
+      <c r="CA320" t="inlineStr"/>
+      <c r="CB320" t="inlineStr"/>
+      <c r="CC320" t="inlineStr"/>
+      <c r="CD320" t="inlineStr"/>
+      <c r="CE320" t="inlineStr"/>
+      <c r="CF320" t="inlineStr"/>
+      <c r="CG320" t="inlineStr"/>
+      <c r="CH320" t="inlineStr"/>
+      <c r="CI320" t="inlineStr"/>
+      <c r="CJ320" t="inlineStr"/>
+      <c r="CK320" t="inlineStr"/>
+      <c r="CL320" t="inlineStr"/>
+      <c r="CM320" t="inlineStr"/>
+      <c r="CN320" t="inlineStr"/>
+      <c r="CO320" t="inlineStr"/>
+      <c r="CP320" t="inlineStr"/>
+      <c r="CQ320" t="inlineStr"/>
+      <c r="CR320" t="inlineStr"/>
+      <c r="CS320" t="inlineStr"/>
+      <c r="CT320" t="inlineStr"/>
+      <c r="CU320" t="inlineStr"/>
+      <c r="CV320" t="inlineStr"/>
+      <c r="CW320" t="inlineStr"/>
+      <c r="CX320" t="inlineStr"/>
+      <c r="CY320" t="inlineStr"/>
+      <c r="CZ320" t="inlineStr"/>
+      <c r="DA320" t="inlineStr"/>
+      <c r="DB320" t="inlineStr"/>
+      <c r="DC320" t="inlineStr"/>
+      <c r="DD320" t="inlineStr"/>
+      <c r="DE320" t="inlineStr"/>
+      <c r="DF320" t="inlineStr"/>
+      <c r="DG320" t="inlineStr"/>
+      <c r="DH320" t="inlineStr"/>
+      <c r="DI320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>457</v>
+      </c>
+      <c r="F321" t="n">
+        <v>68</v>
+      </c>
+      <c r="G321" t="n">
+        <v>525</v>
+      </c>
+      <c r="H321" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="I321" t="n">
+        <v>51</v>
+      </c>
+      <c r="J321" t="n">
+        <v>6</v>
+      </c>
+      <c r="K321" t="n">
+        <v>4</v>
+      </c>
+      <c r="L321" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+      <c r="N321" t="n">
+        <v>1</v>
+      </c>
+      <c r="O321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>4</v>
+      </c>
+      <c r="R321" t="n">
+        <v>40</v>
+      </c>
+      <c r="S321" t="n">
+        <v>12</v>
+      </c>
+      <c r="T321" t="n">
+        <v>3</v>
+      </c>
+      <c r="U321" t="inlineStr"/>
+      <c r="V321" t="n">
+        <v>8</v>
+      </c>
+      <c r="W321" t="n">
+        <v>47.06</v>
+      </c>
+      <c r="X321" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>810</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>127</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW321" t="inlineStr"/>
+      <c r="AX321" t="n">
+        <v>44</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ321" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA321" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB321" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC321" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD321" t="n">
+        <v>78</v>
+      </c>
+      <c r="BE321" t="n">
+        <v>1957224</v>
+      </c>
+      <c r="BF321" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG321" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>6.5666666666667</v>
+      </c>
+      <c r="BI321" t="inlineStr"/>
+      <c r="BJ321" t="inlineStr"/>
+      <c r="BK321" t="inlineStr"/>
+      <c r="BL321" t="inlineStr"/>
+      <c r="BM321" t="inlineStr"/>
+      <c r="BN321" t="inlineStr"/>
+      <c r="BO321" t="inlineStr"/>
+      <c r="BP321" t="inlineStr"/>
+      <c r="BQ321" t="inlineStr"/>
+      <c r="BR321" t="inlineStr"/>
+      <c r="BS321" t="inlineStr"/>
+      <c r="BT321" t="inlineStr"/>
+      <c r="BU321" t="inlineStr"/>
+      <c r="BV321" t="inlineStr"/>
+      <c r="BW321" t="inlineStr"/>
+      <c r="BX321" t="inlineStr"/>
+      <c r="BY321" t="inlineStr"/>
+      <c r="BZ321" t="inlineStr"/>
+      <c r="CA321" t="inlineStr"/>
+      <c r="CB321" t="inlineStr"/>
+      <c r="CC321" t="inlineStr"/>
+      <c r="CD321" t="inlineStr"/>
+      <c r="CE321" t="inlineStr"/>
+      <c r="CF321" t="inlineStr"/>
+      <c r="CG321" t="inlineStr"/>
+      <c r="CH321" t="inlineStr"/>
+      <c r="CI321" t="inlineStr"/>
+      <c r="CJ321" t="inlineStr"/>
+      <c r="CK321" t="inlineStr"/>
+      <c r="CL321" t="inlineStr"/>
+      <c r="CM321" t="inlineStr"/>
+      <c r="CN321" t="inlineStr"/>
+      <c r="CO321" t="inlineStr"/>
+      <c r="CP321" t="inlineStr"/>
+      <c r="CQ321" t="inlineStr"/>
+      <c r="CR321" t="inlineStr"/>
+      <c r="CS321" t="inlineStr"/>
+      <c r="CT321" t="inlineStr"/>
+      <c r="CU321" t="inlineStr"/>
+      <c r="CV321" t="inlineStr"/>
+      <c r="CW321" t="inlineStr"/>
+      <c r="CX321" t="inlineStr"/>
+      <c r="CY321" t="inlineStr"/>
+      <c r="CZ321" t="inlineStr"/>
+      <c r="DA321" t="inlineStr"/>
+      <c r="DB321" t="inlineStr"/>
+      <c r="DC321" t="inlineStr"/>
+      <c r="DD321" t="inlineStr"/>
+      <c r="DE321" t="inlineStr"/>
+      <c r="DF321" t="inlineStr"/>
+      <c r="DG321" t="inlineStr"/>
+      <c r="DH321" t="inlineStr"/>
+      <c r="DI321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1</v>
+      </c>
+      <c r="E322" t="n">
+        <v>385</v>
+      </c>
+      <c r="F322" t="n">
+        <v>100</v>
+      </c>
+      <c r="G322" t="n">
+        <v>485</v>
+      </c>
+      <c r="H322" t="n">
+        <v>79.38</v>
+      </c>
+      <c r="I322" t="n">
+        <v>57</v>
+      </c>
+      <c r="J322" t="n">
+        <v>8</v>
+      </c>
+      <c r="K322" t="n">
+        <v>13</v>
+      </c>
+      <c r="L322" t="n">
+        <v>52</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+      <c r="N322" t="n">
+        <v>2</v>
+      </c>
+      <c r="O322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>13</v>
+      </c>
+      <c r="R322" t="n">
+        <v>37.14</v>
+      </c>
+      <c r="S322" t="n">
+        <v>11</v>
+      </c>
+      <c r="T322" t="n">
+        <v>4</v>
+      </c>
+      <c r="U322" t="inlineStr"/>
+      <c r="V322" t="n">
+        <v>20</v>
+      </c>
+      <c r="W322" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="X322" t="n">
+        <v>77</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>33.05</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>1346</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>46.51</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>35</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>156</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW322" t="inlineStr"/>
+      <c r="AX322" t="n">
+        <v>43</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ322" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA322" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB322" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC322" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD322" t="n">
+        <v>101</v>
+      </c>
+      <c r="BE322" t="n">
+        <v>1859038</v>
+      </c>
+      <c r="BF322" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG322" t="n">
+        <v>16</v>
+      </c>
+      <c r="BH322" t="n">
+        <v>6.74375</v>
+      </c>
+      <c r="BI322" t="inlineStr"/>
+      <c r="BJ322" t="inlineStr"/>
+      <c r="BK322" t="inlineStr"/>
+      <c r="BL322" t="inlineStr"/>
+      <c r="BM322" t="inlineStr"/>
+      <c r="BN322" t="inlineStr"/>
+      <c r="BO322" t="inlineStr"/>
+      <c r="BP322" t="inlineStr"/>
+      <c r="BQ322" t="inlineStr"/>
+      <c r="BR322" t="inlineStr"/>
+      <c r="BS322" t="inlineStr"/>
+      <c r="BT322" t="inlineStr"/>
+      <c r="BU322" t="inlineStr"/>
+      <c r="BV322" t="inlineStr"/>
+      <c r="BW322" t="inlineStr"/>
+      <c r="BX322" t="inlineStr"/>
+      <c r="BY322" t="inlineStr"/>
+      <c r="BZ322" t="inlineStr"/>
+      <c r="CA322" t="inlineStr"/>
+      <c r="CB322" t="inlineStr"/>
+      <c r="CC322" t="inlineStr"/>
+      <c r="CD322" t="inlineStr"/>
+      <c r="CE322" t="inlineStr"/>
+      <c r="CF322" t="inlineStr"/>
+      <c r="CG322" t="inlineStr"/>
+      <c r="CH322" t="inlineStr"/>
+      <c r="CI322" t="inlineStr"/>
+      <c r="CJ322" t="inlineStr"/>
+      <c r="CK322" t="inlineStr"/>
+      <c r="CL322" t="inlineStr"/>
+      <c r="CM322" t="inlineStr"/>
+      <c r="CN322" t="inlineStr"/>
+      <c r="CO322" t="inlineStr"/>
+      <c r="CP322" t="inlineStr"/>
+      <c r="CQ322" t="inlineStr"/>
+      <c r="CR322" t="inlineStr"/>
+      <c r="CS322" t="inlineStr"/>
+      <c r="CT322" t="inlineStr"/>
+      <c r="CU322" t="inlineStr"/>
+      <c r="CV322" t="inlineStr"/>
+      <c r="CW322" t="inlineStr"/>
+      <c r="CX322" t="inlineStr"/>
+      <c r="CY322" t="inlineStr"/>
+      <c r="CZ322" t="inlineStr"/>
+      <c r="DA322" t="inlineStr"/>
+      <c r="DB322" t="inlineStr"/>
+      <c r="DC322" t="inlineStr"/>
+      <c r="DD322" t="inlineStr"/>
+      <c r="DE322" t="inlineStr"/>
+      <c r="DF322" t="inlineStr"/>
+      <c r="DG322" t="inlineStr"/>
+      <c r="DH322" t="inlineStr"/>
+      <c r="DI322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1</v>
+      </c>
+      <c r="E323" t="n">
+        <v>311</v>
+      </c>
+      <c r="F323" t="n">
+        <v>155</v>
+      </c>
+      <c r="G323" t="n">
+        <v>466</v>
+      </c>
+      <c r="H323" t="n">
+        <v>66.73999999999999</v>
+      </c>
+      <c r="I323" t="n">
+        <v>51</v>
+      </c>
+      <c r="J323" t="n">
+        <v>12</v>
+      </c>
+      <c r="K323" t="n">
+        <v>61</v>
+      </c>
+      <c r="L323" t="n">
+        <v>74.39</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+      <c r="N323" t="n">
+        <v>7</v>
+      </c>
+      <c r="O323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>31</v>
+      </c>
+      <c r="R323" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="S323" t="n">
+        <v>7</v>
+      </c>
+      <c r="T323" t="n">
+        <v>0</v>
+      </c>
+      <c r="U323" t="inlineStr"/>
+      <c r="V323" t="n">
+        <v>9</v>
+      </c>
+      <c r="W323" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="X323" t="n">
+        <v>152</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>1389</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>83</v>
+      </c>
+      <c r="AL323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM323" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR323" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT323" t="n">
+        <v>80</v>
+      </c>
+      <c r="AU323" t="n">
+        <v>237</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW323" t="inlineStr"/>
+      <c r="AX323" t="n">
+        <v>64</v>
+      </c>
+      <c r="AY323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ323" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA323" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB323" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC323" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD323" t="n">
+        <v>173</v>
+      </c>
+      <c r="BE323" t="n">
+        <v>1658365</v>
+      </c>
+      <c r="BF323" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG323" t="n">
+        <v>18</v>
+      </c>
+      <c r="BH323" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="BI323" t="inlineStr"/>
+      <c r="BJ323" t="inlineStr"/>
+      <c r="BK323" t="inlineStr"/>
+      <c r="BL323" t="inlineStr"/>
+      <c r="BM323" t="inlineStr"/>
+      <c r="BN323" t="inlineStr"/>
+      <c r="BO323" t="inlineStr"/>
+      <c r="BP323" t="inlineStr"/>
+      <c r="BQ323" t="inlineStr"/>
+      <c r="BR323" t="inlineStr"/>
+      <c r="BS323" t="inlineStr"/>
+      <c r="BT323" t="inlineStr"/>
+      <c r="BU323" t="inlineStr"/>
+      <c r="BV323" t="inlineStr"/>
+      <c r="BW323" t="inlineStr"/>
+      <c r="BX323" t="inlineStr"/>
+      <c r="BY323" t="inlineStr"/>
+      <c r="BZ323" t="inlineStr"/>
+      <c r="CA323" t="inlineStr"/>
+      <c r="CB323" t="inlineStr"/>
+      <c r="CC323" t="inlineStr"/>
+      <c r="CD323" t="inlineStr"/>
+      <c r="CE323" t="inlineStr"/>
+      <c r="CF323" t="inlineStr"/>
+      <c r="CG323" t="inlineStr"/>
+      <c r="CH323" t="inlineStr"/>
+      <c r="CI323" t="inlineStr"/>
+      <c r="CJ323" t="inlineStr"/>
+      <c r="CK323" t="inlineStr"/>
+      <c r="CL323" t="inlineStr"/>
+      <c r="CM323" t="inlineStr"/>
+      <c r="CN323" t="inlineStr"/>
+      <c r="CO323" t="inlineStr"/>
+      <c r="CP323" t="inlineStr"/>
+      <c r="CQ323" t="inlineStr"/>
+      <c r="CR323" t="inlineStr"/>
+      <c r="CS323" t="inlineStr"/>
+      <c r="CT323" t="inlineStr"/>
+      <c r="CU323" t="inlineStr"/>
+      <c r="CV323" t="inlineStr"/>
+      <c r="CW323" t="inlineStr"/>
+      <c r="CX323" t="inlineStr"/>
+      <c r="CY323" t="inlineStr"/>
+      <c r="CZ323" t="inlineStr"/>
+      <c r="DA323" t="inlineStr"/>
+      <c r="DB323" t="inlineStr"/>
+      <c r="DC323" t="inlineStr"/>
+      <c r="DD323" t="inlineStr"/>
+      <c r="DE323" t="inlineStr"/>
+      <c r="DF323" t="inlineStr"/>
+      <c r="DG323" t="inlineStr"/>
+      <c r="DH323" t="inlineStr"/>
+      <c r="DI323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1</v>
+      </c>
+      <c r="E324" t="n">
+        <v>118</v>
+      </c>
+      <c r="F324" t="n">
+        <v>29</v>
+      </c>
+      <c r="G324" t="n">
+        <v>147</v>
+      </c>
+      <c r="H324" t="n">
+        <v>80.272108843537</v>
+      </c>
+      <c r="I324" t="n">
+        <v>57</v>
+      </c>
+      <c r="J324" t="n">
+        <v>5</v>
+      </c>
+      <c r="K324" t="n">
+        <v>11</v>
+      </c>
+      <c r="L324" t="n">
+        <v>50</v>
+      </c>
+      <c r="M324" t="n">
+        <v>6</v>
+      </c>
+      <c r="N324" t="n">
+        <v>0</v>
+      </c>
+      <c r="O324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>1</v>
+      </c>
+      <c r="R324" t="n">
+        <v>9.090909090909101</v>
+      </c>
+      <c r="S324" t="n">
+        <v>8</v>
+      </c>
+      <c r="T324" t="n">
+        <v>3</v>
+      </c>
+      <c r="U324" t="n">
+        <v>5</v>
+      </c>
+      <c r="V324" t="n">
+        <v>1</v>
+      </c>
+      <c r="W324" t="n">
+        <v>10</v>
+      </c>
+      <c r="X324" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>497</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL324" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR324" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT324" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU324" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX324" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY324" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA324" t="inlineStr"/>
+      <c r="BB324" t="inlineStr"/>
+      <c r="BC324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD324" t="n">
+        <v>22</v>
+      </c>
+      <c r="BE324" t="n">
+        <v>1459322</v>
+      </c>
+      <c r="BF324" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG324" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH324" t="n">
+        <v>6.8666666666667</v>
+      </c>
+      <c r="BI324" t="n">
+        <v>497</v>
+      </c>
+      <c r="BJ324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK324" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="BL324" t="n">
+        <v>12</v>
+      </c>
+      <c r="BM324" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO324" t="n">
+        <v>20</v>
+      </c>
+      <c r="BP324" t="n">
+        <v>99</v>
+      </c>
+      <c r="BQ324" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR324" t="n">
+        <v>26</v>
+      </c>
+      <c r="BS324" t="n">
+        <v>59.090909090909</v>
+      </c>
+      <c r="BT324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX324" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY324" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ324" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC324" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE324" t="n">
+        <v>5</v>
+      </c>
+      <c r="CF324" t="n">
+        <v>71</v>
+      </c>
+      <c r="CG324" t="n">
+        <v>6</v>
+      </c>
+      <c r="CH324" t="n">
+        <v>4</v>
+      </c>
+      <c r="CI324" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ324" t="n">
+        <v>246</v>
+      </c>
+      <c r="CK324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP324" t="n">
+        <v>13</v>
+      </c>
+      <c r="CQ324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW324" t="n">
+        <v>5</v>
+      </c>
+      <c r="CX324" t="n">
+        <v>22</v>
+      </c>
+      <c r="CY324" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ324" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA324" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB324" t="n">
+        <v>40</v>
+      </c>
+      <c r="DC324" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD324" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE324" t="n">
+        <v>27</v>
+      </c>
+      <c r="DF324" t="n">
+        <v>131</v>
+      </c>
+      <c r="DG324" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH324" t="inlineStr"/>
+      <c r="DI324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0</v>
+      </c>
+      <c r="E325" t="n">
+        <v>82</v>
+      </c>
+      <c r="F325" t="n">
+        <v>25</v>
+      </c>
+      <c r="G325" t="n">
+        <v>107</v>
+      </c>
+      <c r="H325" t="n">
+        <v>76.63551401869201</v>
+      </c>
+      <c r="I325" t="n">
+        <v>25</v>
+      </c>
+      <c r="J325" t="n">
+        <v>3</v>
+      </c>
+      <c r="K325" t="n">
+        <v>4</v>
+      </c>
+      <c r="L325" t="n">
+        <v>44.444444444444</v>
+      </c>
+      <c r="M325" t="n">
+        <v>4</v>
+      </c>
+      <c r="N325" t="n">
+        <v>2</v>
+      </c>
+      <c r="O325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>2</v>
+      </c>
+      <c r="R325" t="n">
+        <v>20</v>
+      </c>
+      <c r="S325" t="n">
+        <v>3</v>
+      </c>
+      <c r="T325" t="n">
+        <v>2</v>
+      </c>
+      <c r="U325" t="n">
+        <v>0</v>
+      </c>
+      <c r="V325" t="n">
+        <v>1</v>
+      </c>
+      <c r="W325" t="n">
+        <v>25</v>
+      </c>
+      <c r="X325" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>315</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>14.285714285714</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM325" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP325" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR325" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT325" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU325" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX325" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY325" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA325" t="inlineStr"/>
+      <c r="BB325" t="inlineStr"/>
+      <c r="BC325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD325" t="n">
+        <v>17</v>
+      </c>
+      <c r="BE325" t="n">
+        <v>2019003</v>
+      </c>
+      <c r="BF325" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG325" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH325" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="BI325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK325" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="BL325" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO325" t="n">
+        <v>32</v>
+      </c>
+      <c r="BP325" t="n">
+        <v>52</v>
+      </c>
+      <c r="BQ325" t="n">
+        <v>8</v>
+      </c>
+      <c r="BR325" t="n">
+        <v>13</v>
+      </c>
+      <c r="BS325" t="n">
+        <v>41.935483870968</v>
+      </c>
+      <c r="BT325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ325" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE325" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF325" t="n">
+        <v>49</v>
+      </c>
+      <c r="CG325" t="n">
+        <v>5</v>
+      </c>
+      <c r="CH325" t="n">
+        <v>12</v>
+      </c>
+      <c r="CI325" t="n">
+        <v>6</v>
+      </c>
+      <c r="CJ325" t="n">
+        <v>167</v>
+      </c>
+      <c r="CK325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP325" t="n">
+        <v>5</v>
+      </c>
+      <c r="CQ325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW325" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX325" t="n">
+        <v>9</v>
+      </c>
+      <c r="CY325" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ325" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA325" t="n">
+        <v>7</v>
+      </c>
+      <c r="DB325" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="DC325" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD325" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE325" t="n">
+        <v>38</v>
+      </c>
+      <c r="DF325" t="n">
+        <v>79</v>
+      </c>
+      <c r="DG325" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH325" t="inlineStr"/>
+      <c r="DI325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+      <c r="C326" t="n">
+        <v>3</v>
+      </c>
+      <c r="D326" t="n">
+        <v>4</v>
+      </c>
+      <c r="E326" t="n">
+        <v>307</v>
+      </c>
+      <c r="F326" t="n">
+        <v>120</v>
+      </c>
+      <c r="G326" t="n">
+        <v>427</v>
+      </c>
+      <c r="H326" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="I326" t="n">
+        <v>37</v>
+      </c>
+      <c r="J326" t="n">
+        <v>11</v>
+      </c>
+      <c r="K326" t="n">
+        <v>20</v>
+      </c>
+      <c r="L326" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+      <c r="N326" t="n">
+        <v>2</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>13</v>
+      </c>
+      <c r="R326" t="n">
+        <v>41.94</v>
+      </c>
+      <c r="S326" t="n">
+        <v>5</v>
+      </c>
+      <c r="T326" t="n">
+        <v>2</v>
+      </c>
+      <c r="U326" t="inlineStr"/>
+      <c r="V326" t="n">
+        <v>29</v>
+      </c>
+      <c r="W326" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="X326" t="n">
+        <v>111</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>44.76</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>1040</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>51.02</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL326" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM326" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP326" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR326" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS326" t="inlineStr"/>
+      <c r="AT326" t="n">
+        <v>31</v>
+      </c>
+      <c r="AU326" t="n">
+        <v>137</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW326" t="inlineStr"/>
+      <c r="AX326" t="n">
+        <v>98</v>
+      </c>
+      <c r="AY326" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ326" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA326" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB326" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC326" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD326" t="n">
+        <v>125</v>
+      </c>
+      <c r="BE326" t="n">
+        <v>1659294</v>
+      </c>
+      <c r="BF326" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG326" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH326" t="n">
+        <v>6.9285714285714</v>
+      </c>
+      <c r="BI326" t="n">
+        <v>1040</v>
+      </c>
+      <c r="BJ326" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK326" t="inlineStr"/>
+      <c r="BL326" t="inlineStr"/>
+      <c r="BM326" t="inlineStr"/>
+      <c r="BN326" t="inlineStr"/>
+      <c r="BO326" t="inlineStr"/>
+      <c r="BP326" t="inlineStr"/>
+      <c r="BQ326" t="inlineStr"/>
+      <c r="BR326" t="inlineStr"/>
+      <c r="BS326" t="inlineStr"/>
+      <c r="BT326" t="inlineStr"/>
+      <c r="BU326" t="inlineStr"/>
+      <c r="BV326" t="inlineStr"/>
+      <c r="BW326" t="inlineStr"/>
+      <c r="BX326" t="inlineStr"/>
+      <c r="BY326" t="inlineStr"/>
+      <c r="BZ326" t="inlineStr"/>
+      <c r="CA326" t="inlineStr"/>
+      <c r="CB326" t="inlineStr"/>
+      <c r="CC326" t="inlineStr"/>
+      <c r="CD326" t="inlineStr"/>
+      <c r="CE326" t="inlineStr"/>
+      <c r="CF326" t="inlineStr"/>
+      <c r="CG326" t="inlineStr"/>
+      <c r="CH326" t="inlineStr"/>
+      <c r="CI326" t="inlineStr"/>
+      <c r="CJ326" t="inlineStr"/>
+      <c r="CK326" t="inlineStr"/>
+      <c r="CL326" t="inlineStr"/>
+      <c r="CM326" t="inlineStr"/>
+      <c r="CN326" t="inlineStr"/>
+      <c r="CO326" t="inlineStr"/>
+      <c r="CP326" t="inlineStr"/>
+      <c r="CQ326" t="inlineStr"/>
+      <c r="CR326" t="inlineStr"/>
+      <c r="CS326" t="inlineStr"/>
+      <c r="CT326" t="inlineStr"/>
+      <c r="CU326" t="inlineStr"/>
+      <c r="CV326" t="inlineStr"/>
+      <c r="CW326" t="inlineStr"/>
+      <c r="CX326" t="inlineStr"/>
+      <c r="CY326" t="inlineStr"/>
+      <c r="CZ326" t="inlineStr"/>
+      <c r="DA326" t="inlineStr"/>
+      <c r="DB326" t="inlineStr"/>
+      <c r="DC326" t="inlineStr"/>
+      <c r="DD326" t="inlineStr"/>
+      <c r="DE326" t="inlineStr"/>
+      <c r="DF326" t="inlineStr"/>
+      <c r="DG326" t="inlineStr"/>
+      <c r="DH326" t="inlineStr"/>
+      <c r="DI326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
+      <c r="E327" t="n">
+        <v>8</v>
+      </c>
+      <c r="F327" t="n">
+        <v>5</v>
+      </c>
+      <c r="G327" t="n">
+        <v>13</v>
+      </c>
+      <c r="H327" t="n">
+        <v>61.538461538462</v>
+      </c>
+      <c r="I327" t="n">
+        <v>1</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" t="n">
+        <v>0</v>
+      </c>
+      <c r="O327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
+      <c r="S327" t="n">
+        <v>0</v>
+      </c>
+      <c r="T327" t="n">
+        <v>0</v>
+      </c>
+      <c r="U327" t="n">
+        <v>0</v>
+      </c>
+      <c r="V327" t="n">
+        <v>0</v>
+      </c>
+      <c r="W327" t="n">
+        <v>0</v>
+      </c>
+      <c r="X327" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA327" t="inlineStr"/>
+      <c r="BB327" t="inlineStr"/>
+      <c r="BC327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD327" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE327" t="n">
+        <v>2025015</v>
+      </c>
+      <c r="BF327" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG327" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH327" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK327" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BL327" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO327" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP327" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ327" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR327" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS327" t="n">
+        <v>100</v>
+      </c>
+      <c r="BT327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF327" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH327" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ327" t="n">
+        <v>25</v>
+      </c>
+      <c r="CK327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP327" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY327" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ327" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA327" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB327" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC327" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD327" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE327" t="n">
+        <v>9</v>
+      </c>
+      <c r="DF327" t="n">
+        <v>4</v>
+      </c>
+      <c r="DG327" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH327" t="inlineStr"/>
+      <c r="DI327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+      <c r="E328" t="n">
+        <v>215</v>
+      </c>
+      <c r="F328" t="n">
+        <v>55</v>
+      </c>
+      <c r="G328" t="n">
+        <v>270</v>
+      </c>
+      <c r="H328" t="n">
+        <v>79.63</v>
+      </c>
+      <c r="I328" t="n">
+        <v>10</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+      <c r="N328" t="n">
+        <v>1</v>
+      </c>
+      <c r="O328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
+      <c r="S328" t="n">
+        <v>0</v>
+      </c>
+      <c r="T328" t="n">
+        <v>0</v>
+      </c>
+      <c r="U328" t="inlineStr"/>
+      <c r="V328" t="n">
+        <v>5</v>
+      </c>
+      <c r="W328" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="X328" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>1846</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>49</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>50.52</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP328" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ328" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR328" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS328" t="inlineStr"/>
+      <c r="AT328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU328" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW328" t="inlineStr"/>
+      <c r="AX328" t="n">
+        <v>97</v>
+      </c>
+      <c r="AY328" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ328" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA328" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB328" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC328" t="n">
+        <v>197</v>
+      </c>
+      <c r="BD328" t="n">
+        <v>98</v>
+      </c>
+      <c r="BE328" t="n">
+        <v>1659372</v>
+      </c>
+      <c r="BF328" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG328" t="n">
+        <v>21</v>
+      </c>
+      <c r="BH328" t="n">
+        <v>7.1142857142857</v>
+      </c>
+      <c r="BI328" t="inlineStr"/>
+      <c r="BJ328" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK328" t="inlineStr"/>
+      <c r="BL328" t="inlineStr"/>
+      <c r="BM328" t="inlineStr"/>
+      <c r="BN328" t="inlineStr"/>
+      <c r="BO328" t="inlineStr"/>
+      <c r="BP328" t="inlineStr"/>
+      <c r="BQ328" t="inlineStr"/>
+      <c r="BR328" t="inlineStr"/>
+      <c r="BS328" t="inlineStr"/>
+      <c r="BT328" t="inlineStr"/>
+      <c r="BU328" t="inlineStr"/>
+      <c r="BV328" t="inlineStr"/>
+      <c r="BW328" t="inlineStr"/>
+      <c r="BX328" t="inlineStr"/>
+      <c r="BY328" t="inlineStr"/>
+      <c r="BZ328" t="inlineStr"/>
+      <c r="CA328" t="inlineStr"/>
+      <c r="CB328" t="inlineStr"/>
+      <c r="CC328" t="inlineStr"/>
+      <c r="CD328" t="inlineStr"/>
+      <c r="CE328" t="inlineStr"/>
+      <c r="CF328" t="inlineStr"/>
+      <c r="CG328" t="inlineStr"/>
+      <c r="CH328" t="inlineStr"/>
+      <c r="CI328" t="inlineStr"/>
+      <c r="CJ328" t="inlineStr"/>
+      <c r="CK328" t="inlineStr"/>
+      <c r="CL328" t="inlineStr"/>
+      <c r="CM328" t="inlineStr"/>
+      <c r="CN328" t="inlineStr"/>
+      <c r="CO328" t="inlineStr"/>
+      <c r="CP328" t="inlineStr"/>
+      <c r="CQ328" t="inlineStr"/>
+      <c r="CR328" t="inlineStr"/>
+      <c r="CS328" t="inlineStr"/>
+      <c r="CT328" t="inlineStr"/>
+      <c r="CU328" t="inlineStr"/>
+      <c r="CV328" t="inlineStr"/>
+      <c r="CW328" t="inlineStr"/>
+      <c r="CX328" t="inlineStr"/>
+      <c r="CY328" t="inlineStr"/>
+      <c r="CZ328" t="inlineStr"/>
+      <c r="DA328" t="inlineStr"/>
+      <c r="DB328" t="inlineStr"/>
+      <c r="DC328" t="inlineStr"/>
+      <c r="DD328" t="inlineStr"/>
+      <c r="DE328" t="inlineStr"/>
+      <c r="DF328" t="inlineStr"/>
+      <c r="DG328" t="inlineStr"/>
+      <c r="DH328" t="inlineStr"/>
+      <c r="DI328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1</v>
+      </c>
+      <c r="E329" t="n">
+        <v>782</v>
+      </c>
+      <c r="F329" t="n">
+        <v>132</v>
+      </c>
+      <c r="G329" t="n">
+        <v>914</v>
+      </c>
+      <c r="H329" t="n">
+        <v>85.56</v>
+      </c>
+      <c r="I329" t="n">
+        <v>75</v>
+      </c>
+      <c r="J329" t="n">
+        <v>2</v>
+      </c>
+      <c r="K329" t="n">
+        <v>7</v>
+      </c>
+      <c r="L329" t="n">
+        <v>100</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+      <c r="N329" t="n">
+        <v>3</v>
+      </c>
+      <c r="O329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>1</v>
+      </c>
+      <c r="R329" t="n">
+        <v>50</v>
+      </c>
+      <c r="S329" t="n">
+        <v>7</v>
+      </c>
+      <c r="T329" t="n">
+        <v>3</v>
+      </c>
+      <c r="U329" t="inlineStr"/>
+      <c r="V329" t="n">
+        <v>49</v>
+      </c>
+      <c r="W329" t="n">
+        <v>69.01000000000001</v>
+      </c>
+      <c r="X329" t="n">
+        <v>134</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>52.14</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>1620</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>54.36</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>123</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW329" t="inlineStr"/>
+      <c r="AX329" t="n">
+        <v>149</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ329" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>226</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>1782019</v>
+      </c>
+      <c r="BF329" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG329" t="n">
+        <v>18</v>
+      </c>
+      <c r="BH329" t="n">
+        <v>6.9588235294118</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>1637</v>
+      </c>
+      <c r="BJ329" t="inlineStr"/>
+      <c r="BK329" t="inlineStr"/>
+      <c r="BL329" t="inlineStr"/>
+      <c r="BM329" t="inlineStr"/>
+      <c r="BN329" t="inlineStr"/>
+      <c r="BO329" t="inlineStr"/>
+      <c r="BP329" t="inlineStr"/>
+      <c r="BQ329" t="inlineStr"/>
+      <c r="BR329" t="inlineStr"/>
+      <c r="BS329" t="inlineStr"/>
+      <c r="BT329" t="inlineStr"/>
+      <c r="BU329" t="inlineStr"/>
+      <c r="BV329" t="inlineStr"/>
+      <c r="BW329" t="inlineStr"/>
+      <c r="BX329" t="inlineStr"/>
+      <c r="BY329" t="inlineStr"/>
+      <c r="BZ329" t="inlineStr"/>
+      <c r="CA329" t="inlineStr"/>
+      <c r="CB329" t="inlineStr"/>
+      <c r="CC329" t="inlineStr"/>
+      <c r="CD329" t="inlineStr"/>
+      <c r="CE329" t="inlineStr"/>
+      <c r="CF329" t="inlineStr"/>
+      <c r="CG329" t="inlineStr"/>
+      <c r="CH329" t="inlineStr"/>
+      <c r="CI329" t="inlineStr"/>
+      <c r="CJ329" t="inlineStr"/>
+      <c r="CK329" t="inlineStr"/>
+      <c r="CL329" t="inlineStr"/>
+      <c r="CM329" t="inlineStr"/>
+      <c r="CN329" t="inlineStr"/>
+      <c r="CO329" t="inlineStr"/>
+      <c r="CP329" t="inlineStr"/>
+      <c r="CQ329" t="inlineStr"/>
+      <c r="CR329" t="inlineStr"/>
+      <c r="CS329" t="inlineStr"/>
+      <c r="CT329" t="inlineStr"/>
+      <c r="CU329" t="inlineStr"/>
+      <c r="CV329" t="inlineStr"/>
+      <c r="CW329" t="inlineStr"/>
+      <c r="CX329" t="inlineStr"/>
+      <c r="CY329" t="inlineStr"/>
+      <c r="CZ329" t="inlineStr"/>
+      <c r="DA329" t="inlineStr"/>
+      <c r="DB329" t="inlineStr"/>
+      <c r="DC329" t="inlineStr"/>
+      <c r="DD329" t="inlineStr"/>
+      <c r="DE329" t="inlineStr"/>
+      <c r="DF329" t="inlineStr"/>
+      <c r="DG329" t="inlineStr"/>
+      <c r="DH329" t="inlineStr"/>
+      <c r="DI329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="n">
+        <v>35</v>
+      </c>
+      <c r="F330" t="n">
+        <v>8</v>
+      </c>
+      <c r="G330" t="n">
+        <v>43</v>
+      </c>
+      <c r="H330" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="I330" t="n">
+        <v>11</v>
+      </c>
+      <c r="J330" t="n">
+        <v>1</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+      <c r="N330" t="n">
+        <v>1</v>
+      </c>
+      <c r="O330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
+      <c r="S330" t="n">
+        <v>4</v>
+      </c>
+      <c r="T330" t="n">
+        <v>0</v>
+      </c>
+      <c r="U330" t="inlineStr"/>
+      <c r="V330" t="n">
+        <v>1</v>
+      </c>
+      <c r="W330" t="n">
+        <v>25</v>
+      </c>
+      <c r="X330" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>79</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW330" t="inlineStr"/>
+      <c r="AX330" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>1485740</v>
+      </c>
+      <c r="BF330" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG330" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>6.525</v>
+      </c>
+      <c r="BI330" t="inlineStr"/>
+      <c r="BJ330" t="inlineStr"/>
+      <c r="BK330" t="inlineStr"/>
+      <c r="BL330" t="inlineStr"/>
+      <c r="BM330" t="inlineStr"/>
+      <c r="BN330" t="inlineStr"/>
+      <c r="BO330" t="inlineStr"/>
+      <c r="BP330" t="inlineStr"/>
+      <c r="BQ330" t="inlineStr"/>
+      <c r="BR330" t="inlineStr"/>
+      <c r="BS330" t="inlineStr"/>
+      <c r="BT330" t="inlineStr"/>
+      <c r="BU330" t="inlineStr"/>
+      <c r="BV330" t="inlineStr"/>
+      <c r="BW330" t="inlineStr"/>
+      <c r="BX330" t="inlineStr"/>
+      <c r="BY330" t="inlineStr"/>
+      <c r="BZ330" t="inlineStr"/>
+      <c r="CA330" t="inlineStr"/>
+      <c r="CB330" t="inlineStr"/>
+      <c r="CC330" t="inlineStr"/>
+      <c r="CD330" t="inlineStr"/>
+      <c r="CE330" t="inlineStr"/>
+      <c r="CF330" t="inlineStr"/>
+      <c r="CG330" t="inlineStr"/>
+      <c r="CH330" t="inlineStr"/>
+      <c r="CI330" t="inlineStr"/>
+      <c r="CJ330" t="inlineStr"/>
+      <c r="CK330" t="inlineStr"/>
+      <c r="CL330" t="inlineStr"/>
+      <c r="CM330" t="inlineStr"/>
+      <c r="CN330" t="inlineStr"/>
+      <c r="CO330" t="inlineStr"/>
+      <c r="CP330" t="inlineStr"/>
+      <c r="CQ330" t="inlineStr"/>
+      <c r="CR330" t="inlineStr"/>
+      <c r="CS330" t="inlineStr"/>
+      <c r="CT330" t="inlineStr"/>
+      <c r="CU330" t="inlineStr"/>
+      <c r="CV330" t="inlineStr"/>
+      <c r="CW330" t="inlineStr"/>
+      <c r="CX330" t="inlineStr"/>
+      <c r="CY330" t="inlineStr"/>
+      <c r="CZ330" t="inlineStr"/>
+      <c r="DA330" t="inlineStr"/>
+      <c r="DB330" t="inlineStr"/>
+      <c r="DC330" t="inlineStr"/>
+      <c r="DD330" t="inlineStr"/>
+      <c r="DE330" t="inlineStr"/>
+      <c r="DF330" t="inlineStr"/>
+      <c r="DG330" t="inlineStr"/>
+      <c r="DH330" t="inlineStr"/>
+      <c r="DI330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B331" t="n">
+        <v>6</v>
+      </c>
+      <c r="C331" t="n">
+        <v>4</v>
+      </c>
+      <c r="D331" t="n">
+        <v>10</v>
+      </c>
+      <c r="E331" t="n">
+        <v>758</v>
+      </c>
+      <c r="F331" t="n">
+        <v>303</v>
+      </c>
+      <c r="G331" t="n">
+        <v>1061</v>
+      </c>
+      <c r="H331" t="n">
+        <v>71.44</v>
+      </c>
+      <c r="I331" t="n">
+        <v>134</v>
+      </c>
+      <c r="J331" t="n">
+        <v>29</v>
+      </c>
+      <c r="K331" t="n">
+        <v>12</v>
+      </c>
+      <c r="L331" t="n">
+        <v>52.17</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+      <c r="N331" t="n">
+        <v>6</v>
+      </c>
+      <c r="O331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>14</v>
+      </c>
+      <c r="R331" t="n">
+        <v>40</v>
+      </c>
+      <c r="S331" t="n">
+        <v>18</v>
+      </c>
+      <c r="T331" t="n">
+        <v>13</v>
+      </c>
+      <c r="U331" t="inlineStr"/>
+      <c r="V331" t="n">
+        <v>32</v>
+      </c>
+      <c r="W331" t="n">
+        <v>50.79</v>
+      </c>
+      <c r="X331" t="n">
+        <v>176</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>2353</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>111</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>44.22</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>78</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP331" t="inlineStr"/>
+      <c r="AQ331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>35</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>321</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>31</v>
+      </c>
+      <c r="AW331" t="inlineStr"/>
+      <c r="AX331" t="n">
+        <v>251</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>301</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>1499698</v>
+      </c>
+      <c r="BF331" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG331" t="n">
+        <v>28</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>7.2678571428571</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>392.16666666667</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK331" t="inlineStr"/>
+      <c r="BL331" t="inlineStr"/>
+      <c r="BM331" t="inlineStr"/>
+      <c r="BN331" t="inlineStr"/>
+      <c r="BO331" t="inlineStr"/>
+      <c r="BP331" t="inlineStr"/>
+      <c r="BQ331" t="inlineStr"/>
+      <c r="BR331" t="inlineStr"/>
+      <c r="BS331" t="inlineStr"/>
+      <c r="BT331" t="inlineStr"/>
+      <c r="BU331" t="inlineStr"/>
+      <c r="BV331" t="inlineStr"/>
+      <c r="BW331" t="inlineStr"/>
+      <c r="BX331" t="inlineStr"/>
+      <c r="BY331" t="inlineStr"/>
+      <c r="BZ331" t="inlineStr"/>
+      <c r="CA331" t="inlineStr"/>
+      <c r="CB331" t="inlineStr"/>
+      <c r="CC331" t="inlineStr"/>
+      <c r="CD331" t="inlineStr"/>
+      <c r="CE331" t="inlineStr"/>
+      <c r="CF331" t="inlineStr"/>
+      <c r="CG331" t="inlineStr"/>
+      <c r="CH331" t="inlineStr"/>
+      <c r="CI331" t="inlineStr"/>
+      <c r="CJ331" t="inlineStr"/>
+      <c r="CK331" t="inlineStr"/>
+      <c r="CL331" t="inlineStr"/>
+      <c r="CM331" t="inlineStr"/>
+      <c r="CN331" t="inlineStr"/>
+      <c r="CO331" t="inlineStr"/>
+      <c r="CP331" t="inlineStr"/>
+      <c r="CQ331" t="inlineStr"/>
+      <c r="CR331" t="inlineStr"/>
+      <c r="CS331" t="inlineStr"/>
+      <c r="CT331" t="inlineStr"/>
+      <c r="CU331" t="inlineStr"/>
+      <c r="CV331" t="inlineStr"/>
+      <c r="CW331" t="inlineStr"/>
+      <c r="CX331" t="inlineStr"/>
+      <c r="CY331" t="inlineStr"/>
+      <c r="CZ331" t="inlineStr"/>
+      <c r="DA331" t="inlineStr"/>
+      <c r="DB331" t="inlineStr"/>
+      <c r="DC331" t="inlineStr"/>
+      <c r="DD331" t="inlineStr"/>
+      <c r="DE331" t="inlineStr"/>
+      <c r="DF331" t="inlineStr"/>
+      <c r="DG331" t="inlineStr"/>
+      <c r="DH331" t="inlineStr"/>
+      <c r="DI331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+      <c r="E332" t="n">
+        <v>648</v>
+      </c>
+      <c r="F332" t="n">
+        <v>112</v>
+      </c>
+      <c r="G332" t="n">
+        <v>760</v>
+      </c>
+      <c r="H332" t="n">
+        <v>85.26000000000001</v>
+      </c>
+      <c r="I332" t="n">
+        <v>69</v>
+      </c>
+      <c r="J332" t="n">
+        <v>6</v>
+      </c>
+      <c r="K332" t="n">
+        <v>3</v>
+      </c>
+      <c r="L332" t="n">
+        <v>50</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+      <c r="N332" t="n">
+        <v>3</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>2</v>
+      </c>
+      <c r="R332" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="S332" t="n">
+        <v>5</v>
+      </c>
+      <c r="T332" t="n">
+        <v>2</v>
+      </c>
+      <c r="U332" t="inlineStr"/>
+      <c r="V332" t="n">
+        <v>48</v>
+      </c>
+      <c r="W332" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="X332" t="n">
+        <v>108</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>1136</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS332" t="inlineStr"/>
+      <c r="AT332" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>125</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>33</v>
+      </c>
+      <c r="AW332" t="inlineStr"/>
+      <c r="AX332" t="n">
+        <v>80</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>154</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>1496421</v>
+      </c>
+      <c r="BF332" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG332" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>7.0461538461538</v>
+      </c>
+      <c r="BI332" t="inlineStr"/>
+      <c r="BJ332" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK332" t="inlineStr"/>
+      <c r="BL332" t="inlineStr"/>
+      <c r="BM332" t="inlineStr"/>
+      <c r="BN332" t="inlineStr"/>
+      <c r="BO332" t="inlineStr"/>
+      <c r="BP332" t="inlineStr"/>
+      <c r="BQ332" t="inlineStr"/>
+      <c r="BR332" t="inlineStr"/>
+      <c r="BS332" t="inlineStr"/>
+      <c r="BT332" t="inlineStr"/>
+      <c r="BU332" t="inlineStr"/>
+      <c r="BV332" t="inlineStr"/>
+      <c r="BW332" t="inlineStr"/>
+      <c r="BX332" t="inlineStr"/>
+      <c r="BY332" t="inlineStr"/>
+      <c r="BZ332" t="inlineStr"/>
+      <c r="CA332" t="inlineStr"/>
+      <c r="CB332" t="inlineStr"/>
+      <c r="CC332" t="inlineStr"/>
+      <c r="CD332" t="inlineStr"/>
+      <c r="CE332" t="inlineStr"/>
+      <c r="CF332" t="inlineStr"/>
+      <c r="CG332" t="inlineStr"/>
+      <c r="CH332" t="inlineStr"/>
+      <c r="CI332" t="inlineStr"/>
+      <c r="CJ332" t="inlineStr"/>
+      <c r="CK332" t="inlineStr"/>
+      <c r="CL332" t="inlineStr"/>
+      <c r="CM332" t="inlineStr"/>
+      <c r="CN332" t="inlineStr"/>
+      <c r="CO332" t="inlineStr"/>
+      <c r="CP332" t="inlineStr"/>
+      <c r="CQ332" t="inlineStr"/>
+      <c r="CR332" t="inlineStr"/>
+      <c r="CS332" t="inlineStr"/>
+      <c r="CT332" t="inlineStr"/>
+      <c r="CU332" t="inlineStr"/>
+      <c r="CV332" t="inlineStr"/>
+      <c r="CW332" t="inlineStr"/>
+      <c r="CX332" t="inlineStr"/>
+      <c r="CY332" t="inlineStr"/>
+      <c r="CZ332" t="inlineStr"/>
+      <c r="DA332" t="inlineStr"/>
+      <c r="DB332" t="inlineStr"/>
+      <c r="DC332" t="inlineStr"/>
+      <c r="DD332" t="inlineStr"/>
+      <c r="DE332" t="inlineStr"/>
+      <c r="DF332" t="inlineStr"/>
+      <c r="DG332" t="inlineStr"/>
+      <c r="DH332" t="inlineStr"/>
+      <c r="DI332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
+      <c r="E333" t="n">
+        <v>304</v>
+      </c>
+      <c r="F333" t="n">
+        <v>37</v>
+      </c>
+      <c r="G333" t="n">
+        <v>341</v>
+      </c>
+      <c r="H333" t="n">
+        <v>89.15000000000001</v>
+      </c>
+      <c r="I333" t="n">
+        <v>9</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="n">
+        <v>2</v>
+      </c>
+      <c r="L333" t="n">
+        <v>100</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+      <c r="N333" t="n">
+        <v>2</v>
+      </c>
+      <c r="O333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
+      <c r="S333" t="n">
+        <v>0</v>
+      </c>
+      <c r="T333" t="n">
+        <v>0</v>
+      </c>
+      <c r="U333" t="inlineStr"/>
+      <c r="V333" t="n">
+        <v>5</v>
+      </c>
+      <c r="W333" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="X333" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>1260</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>43</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS333" t="inlineStr"/>
+      <c r="AT333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW333" t="inlineStr"/>
+      <c r="AX333" t="n">
+        <v>110</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>41</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>84</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>1624407</v>
+      </c>
+      <c r="BF333" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG333" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>7.3642857142857</v>
+      </c>
+      <c r="BI333" t="inlineStr"/>
+      <c r="BJ333" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK333" t="inlineStr"/>
+      <c r="BL333" t="inlineStr"/>
+      <c r="BM333" t="inlineStr"/>
+      <c r="BN333" t="inlineStr"/>
+      <c r="BO333" t="inlineStr"/>
+      <c r="BP333" t="inlineStr"/>
+      <c r="BQ333" t="inlineStr"/>
+      <c r="BR333" t="inlineStr"/>
+      <c r="BS333" t="inlineStr"/>
+      <c r="BT333" t="inlineStr"/>
+      <c r="BU333" t="inlineStr"/>
+      <c r="BV333" t="inlineStr"/>
+      <c r="BW333" t="inlineStr"/>
+      <c r="BX333" t="inlineStr"/>
+      <c r="BY333" t="inlineStr"/>
+      <c r="BZ333" t="inlineStr"/>
+      <c r="CA333" t="inlineStr"/>
+      <c r="CB333" t="inlineStr"/>
+      <c r="CC333" t="inlineStr"/>
+      <c r="CD333" t="inlineStr"/>
+      <c r="CE333" t="inlineStr"/>
+      <c r="CF333" t="inlineStr"/>
+      <c r="CG333" t="inlineStr"/>
+      <c r="CH333" t="inlineStr"/>
+      <c r="CI333" t="inlineStr"/>
+      <c r="CJ333" t="inlineStr"/>
+      <c r="CK333" t="inlineStr"/>
+      <c r="CL333" t="inlineStr"/>
+      <c r="CM333" t="inlineStr"/>
+      <c r="CN333" t="inlineStr"/>
+      <c r="CO333" t="inlineStr"/>
+      <c r="CP333" t="inlineStr"/>
+      <c r="CQ333" t="inlineStr"/>
+      <c r="CR333" t="inlineStr"/>
+      <c r="CS333" t="inlineStr"/>
+      <c r="CT333" t="inlineStr"/>
+      <c r="CU333" t="inlineStr"/>
+      <c r="CV333" t="inlineStr"/>
+      <c r="CW333" t="inlineStr"/>
+      <c r="CX333" t="inlineStr"/>
+      <c r="CY333" t="inlineStr"/>
+      <c r="CZ333" t="inlineStr"/>
+      <c r="DA333" t="inlineStr"/>
+      <c r="DB333" t="inlineStr"/>
+      <c r="DC333" t="inlineStr"/>
+      <c r="DD333" t="inlineStr"/>
+      <c r="DE333" t="inlineStr"/>
+      <c r="DF333" t="inlineStr"/>
+      <c r="DG333" t="inlineStr"/>
+      <c r="DH333" t="inlineStr"/>
+      <c r="DI333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>2</v>
+      </c>
+      <c r="E334" t="n">
+        <v>815</v>
+      </c>
+      <c r="F334" t="n">
+        <v>98</v>
+      </c>
+      <c r="G334" t="n">
+        <v>913</v>
+      </c>
+      <c r="H334" t="n">
+        <v>89.266155531216</v>
+      </c>
+      <c r="I334" t="n">
+        <v>127</v>
+      </c>
+      <c r="J334" t="n">
+        <v>9</v>
+      </c>
+      <c r="K334" t="n">
+        <v>12</v>
+      </c>
+      <c r="L334" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="M334" t="n">
+        <v>18</v>
+      </c>
+      <c r="N334" t="n">
+        <v>6</v>
+      </c>
+      <c r="O334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>1</v>
+      </c>
+      <c r="R334" t="n">
+        <v>16.666666666667</v>
+      </c>
+      <c r="S334" t="n">
+        <v>10</v>
+      </c>
+      <c r="T334" t="n">
+        <v>3</v>
+      </c>
+      <c r="U334" t="n">
+        <v>5</v>
+      </c>
+      <c r="V334" t="n">
+        <v>13</v>
+      </c>
+      <c r="W334" t="n">
+        <v>65</v>
+      </c>
+      <c r="X334" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>66.433566433566</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>990</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>58.536585365854</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>48</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>82</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA334" t="inlineStr"/>
+      <c r="BB334" t="inlineStr"/>
+      <c r="BC334" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>83</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>1904840</v>
+      </c>
+      <c r="BF334" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG334" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>7.7363636363636</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>990</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK334" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="BL334" t="n">
+        <v>11</v>
+      </c>
+      <c r="BM334" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN334" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO334" t="n">
+        <v>453</v>
+      </c>
+      <c r="BP334" t="n">
+        <v>363</v>
+      </c>
+      <c r="BQ334" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR334" t="n">
+        <v>82</v>
+      </c>
+      <c r="BS334" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BT334" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU334" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV334" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW334" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX334" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY334" t="n">
+        <v>6</v>
+      </c>
+      <c r="BZ334" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA334" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB334" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC334" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD334" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE334" t="n">
+        <v>8</v>
+      </c>
+      <c r="CF334" t="n">
+        <v>130</v>
+      </c>
+      <c r="CG334" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH334" t="n">
+        <v>62</v>
+      </c>
+      <c r="CI334" t="n">
+        <v>39</v>
+      </c>
+      <c r="CJ334" t="n">
+        <v>1161</v>
+      </c>
+      <c r="CK334" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL334" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM334" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN334" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO334" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP334" t="n">
+        <v>16</v>
+      </c>
+      <c r="CQ334" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR334" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS334" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT334" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU334" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV334" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW334" t="n">
+        <v>9</v>
+      </c>
+      <c r="CX334" t="n">
+        <v>18</v>
+      </c>
+      <c r="CY334" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ334" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA334" t="n">
+        <v>23</v>
+      </c>
+      <c r="DB334" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="DC334" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD334" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE334" t="n">
+        <v>491</v>
+      </c>
+      <c r="DF334" t="n">
+        <v>428</v>
+      </c>
+      <c r="DG334" t="n">
+        <v>4</v>
+      </c>
+      <c r="DH334" t="inlineStr"/>
+      <c r="DI334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B335" t="n">
+        <v>6</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>6</v>
+      </c>
+      <c r="E335" t="n">
+        <v>136</v>
+      </c>
+      <c r="F335" t="n">
+        <v>40</v>
+      </c>
+      <c r="G335" t="n">
+        <v>176</v>
+      </c>
+      <c r="H335" t="n">
+        <v>77.27</v>
+      </c>
+      <c r="I335" t="n">
+        <v>6</v>
+      </c>
+      <c r="J335" t="n">
+        <v>13</v>
+      </c>
+      <c r="K335" t="n">
+        <v>11</v>
+      </c>
+      <c r="L335" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+      <c r="N335" t="n">
+        <v>2</v>
+      </c>
+      <c r="O335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>1</v>
+      </c>
+      <c r="R335" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="S335" t="n">
+        <v>40</v>
+      </c>
+      <c r="T335" t="n">
+        <v>14</v>
+      </c>
+      <c r="U335" t="inlineStr"/>
+      <c r="V335" t="n">
+        <v>30</v>
+      </c>
+      <c r="W335" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="X335" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1069</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>216</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>61</v>
+      </c>
+      <c r="AW335" t="inlineStr"/>
+      <c r="AX335" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>24</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>1947554</v>
+      </c>
+      <c r="BF335" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG335" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>7.125</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>178.16666666667</v>
+      </c>
+      <c r="BJ335" t="inlineStr"/>
+      <c r="BK335" t="inlineStr"/>
+      <c r="BL335" t="inlineStr"/>
+      <c r="BM335" t="inlineStr"/>
+      <c r="BN335" t="inlineStr"/>
+      <c r="BO335" t="inlineStr"/>
+      <c r="BP335" t="inlineStr"/>
+      <c r="BQ335" t="inlineStr"/>
+      <c r="BR335" t="inlineStr"/>
+      <c r="BS335" t="inlineStr"/>
+      <c r="BT335" t="inlineStr"/>
+      <c r="BU335" t="inlineStr"/>
+      <c r="BV335" t="inlineStr"/>
+      <c r="BW335" t="inlineStr"/>
+      <c r="BX335" t="inlineStr"/>
+      <c r="BY335" t="inlineStr"/>
+      <c r="BZ335" t="inlineStr"/>
+      <c r="CA335" t="inlineStr"/>
+      <c r="CB335" t="inlineStr"/>
+      <c r="CC335" t="inlineStr"/>
+      <c r="CD335" t="inlineStr"/>
+      <c r="CE335" t="inlineStr"/>
+      <c r="CF335" t="inlineStr"/>
+      <c r="CG335" t="inlineStr"/>
+      <c r="CH335" t="inlineStr"/>
+      <c r="CI335" t="inlineStr"/>
+      <c r="CJ335" t="inlineStr"/>
+      <c r="CK335" t="inlineStr"/>
+      <c r="CL335" t="inlineStr"/>
+      <c r="CM335" t="inlineStr"/>
+      <c r="CN335" t="inlineStr"/>
+      <c r="CO335" t="inlineStr"/>
+      <c r="CP335" t="inlineStr"/>
+      <c r="CQ335" t="inlineStr"/>
+      <c r="CR335" t="inlineStr"/>
+      <c r="CS335" t="inlineStr"/>
+      <c r="CT335" t="inlineStr"/>
+      <c r="CU335" t="inlineStr"/>
+      <c r="CV335" t="inlineStr"/>
+      <c r="CW335" t="inlineStr"/>
+      <c r="CX335" t="inlineStr"/>
+      <c r="CY335" t="inlineStr"/>
+      <c r="CZ335" t="inlineStr"/>
+      <c r="DA335" t="inlineStr"/>
+      <c r="DB335" t="inlineStr"/>
+      <c r="DC335" t="inlineStr"/>
+      <c r="DD335" t="inlineStr"/>
+      <c r="DE335" t="inlineStr"/>
+      <c r="DF335" t="inlineStr"/>
+      <c r="DG335" t="inlineStr"/>
+      <c r="DH335" t="inlineStr"/>
+      <c r="DI335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2</v>
+      </c>
+      <c r="D336" t="n">
+        <v>2</v>
+      </c>
+      <c r="E336" t="n">
+        <v>853</v>
+      </c>
+      <c r="F336" t="n">
+        <v>70</v>
+      </c>
+      <c r="G336" t="n">
+        <v>923</v>
+      </c>
+      <c r="H336" t="n">
+        <v>92.42</v>
+      </c>
+      <c r="I336" t="n">
+        <v>115</v>
+      </c>
+      <c r="J336" t="n">
+        <v>5</v>
+      </c>
+      <c r="K336" t="n">
+        <v>9</v>
+      </c>
+      <c r="L336" t="n">
+        <v>75</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+      <c r="N336" t="n">
+        <v>6</v>
+      </c>
+      <c r="O336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>2</v>
+      </c>
+      <c r="R336" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="S336" t="n">
+        <v>6</v>
+      </c>
+      <c r="T336" t="n">
+        <v>2</v>
+      </c>
+      <c r="U336" t="inlineStr"/>
+      <c r="V336" t="n">
+        <v>14</v>
+      </c>
+      <c r="W336" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="X336" t="n">
+        <v>73</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>34.27</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>1170</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>53.13</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>140</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW336" t="inlineStr"/>
+      <c r="AX336" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>121</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>1909289</v>
+      </c>
+      <c r="BF336" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG336" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>6.8846153846154</v>
+      </c>
+      <c r="BI336" t="inlineStr"/>
+      <c r="BJ336" t="inlineStr"/>
+      <c r="BK336" t="inlineStr"/>
+      <c r="BL336" t="inlineStr"/>
+      <c r="BM336" t="inlineStr"/>
+      <c r="BN336" t="inlineStr"/>
+      <c r="BO336" t="inlineStr"/>
+      <c r="BP336" t="inlineStr"/>
+      <c r="BQ336" t="inlineStr"/>
+      <c r="BR336" t="inlineStr"/>
+      <c r="BS336" t="inlineStr"/>
+      <c r="BT336" t="inlineStr"/>
+      <c r="BU336" t="inlineStr"/>
+      <c r="BV336" t="inlineStr"/>
+      <c r="BW336" t="inlineStr"/>
+      <c r="BX336" t="inlineStr"/>
+      <c r="BY336" t="inlineStr"/>
+      <c r="BZ336" t="inlineStr"/>
+      <c r="CA336" t="inlineStr"/>
+      <c r="CB336" t="inlineStr"/>
+      <c r="CC336" t="inlineStr"/>
+      <c r="CD336" t="inlineStr"/>
+      <c r="CE336" t="inlineStr"/>
+      <c r="CF336" t="inlineStr"/>
+      <c r="CG336" t="inlineStr"/>
+      <c r="CH336" t="inlineStr"/>
+      <c r="CI336" t="inlineStr"/>
+      <c r="CJ336" t="inlineStr"/>
+      <c r="CK336" t="inlineStr"/>
+      <c r="CL336" t="inlineStr"/>
+      <c r="CM336" t="inlineStr"/>
+      <c r="CN336" t="inlineStr"/>
+      <c r="CO336" t="inlineStr"/>
+      <c r="CP336" t="inlineStr"/>
+      <c r="CQ336" t="inlineStr"/>
+      <c r="CR336" t="inlineStr"/>
+      <c r="CS336" t="inlineStr"/>
+      <c r="CT336" t="inlineStr"/>
+      <c r="CU336" t="inlineStr"/>
+      <c r="CV336" t="inlineStr"/>
+      <c r="CW336" t="inlineStr"/>
+      <c r="CX336" t="inlineStr"/>
+      <c r="CY336" t="inlineStr"/>
+      <c r="CZ336" t="inlineStr"/>
+      <c r="DA336" t="inlineStr"/>
+      <c r="DB336" t="inlineStr"/>
+      <c r="DC336" t="inlineStr"/>
+      <c r="DD336" t="inlineStr"/>
+      <c r="DE336" t="inlineStr"/>
+      <c r="DF336" t="inlineStr"/>
+      <c r="DG336" t="inlineStr"/>
+      <c r="DH336" t="inlineStr"/>
+      <c r="DI336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
+      <c r="E337" t="n">
+        <v>210</v>
+      </c>
+      <c r="F337" t="n">
+        <v>36</v>
+      </c>
+      <c r="G337" t="n">
+        <v>246</v>
+      </c>
+      <c r="H337" t="n">
+        <v>85.37</v>
+      </c>
+      <c r="I337" t="n">
+        <v>12</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+      <c r="N337" t="n">
+        <v>0</v>
+      </c>
+      <c r="O337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>1</v>
+      </c>
+      <c r="R337" t="n">
+        <v>100</v>
+      </c>
+      <c r="S337" t="n">
+        <v>0</v>
+      </c>
+      <c r="T337" t="n">
+        <v>0</v>
+      </c>
+      <c r="U337" t="inlineStr"/>
+      <c r="V337" t="n">
+        <v>4</v>
+      </c>
+      <c r="W337" t="n">
+        <v>100</v>
+      </c>
+      <c r="X337" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>990</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>68</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>68.69</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW337" t="inlineStr"/>
+      <c r="AX337" t="n">
+        <v>99</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>78</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>52</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>1844508</v>
+      </c>
+      <c r="BF337" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG337" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>7.3636363636364</v>
+      </c>
+      <c r="BI337" t="inlineStr"/>
+      <c r="BJ337" t="inlineStr"/>
+      <c r="BK337" t="inlineStr"/>
+      <c r="BL337" t="inlineStr"/>
+      <c r="BM337" t="inlineStr"/>
+      <c r="BN337" t="inlineStr"/>
+      <c r="BO337" t="inlineStr"/>
+      <c r="BP337" t="inlineStr"/>
+      <c r="BQ337" t="inlineStr"/>
+      <c r="BR337" t="inlineStr"/>
+      <c r="BS337" t="inlineStr"/>
+      <c r="BT337" t="inlineStr"/>
+      <c r="BU337" t="inlineStr"/>
+      <c r="BV337" t="inlineStr"/>
+      <c r="BW337" t="inlineStr"/>
+      <c r="BX337" t="inlineStr"/>
+      <c r="BY337" t="inlineStr"/>
+      <c r="BZ337" t="inlineStr"/>
+      <c r="CA337" t="inlineStr"/>
+      <c r="CB337" t="inlineStr"/>
+      <c r="CC337" t="inlineStr"/>
+      <c r="CD337" t="inlineStr"/>
+      <c r="CE337" t="inlineStr"/>
+      <c r="CF337" t="inlineStr"/>
+      <c r="CG337" t="inlineStr"/>
+      <c r="CH337" t="inlineStr"/>
+      <c r="CI337" t="inlineStr"/>
+      <c r="CJ337" t="inlineStr"/>
+      <c r="CK337" t="inlineStr"/>
+      <c r="CL337" t="inlineStr"/>
+      <c r="CM337" t="inlineStr"/>
+      <c r="CN337" t="inlineStr"/>
+      <c r="CO337" t="inlineStr"/>
+      <c r="CP337" t="inlineStr"/>
+      <c r="CQ337" t="inlineStr"/>
+      <c r="CR337" t="inlineStr"/>
+      <c r="CS337" t="inlineStr"/>
+      <c r="CT337" t="inlineStr"/>
+      <c r="CU337" t="inlineStr"/>
+      <c r="CV337" t="inlineStr"/>
+      <c r="CW337" t="inlineStr"/>
+      <c r="CX337" t="inlineStr"/>
+      <c r="CY337" t="inlineStr"/>
+      <c r="CZ337" t="inlineStr"/>
+      <c r="DA337" t="inlineStr"/>
+      <c r="DB337" t="inlineStr"/>
+      <c r="DC337" t="inlineStr"/>
+      <c r="DD337" t="inlineStr"/>
+      <c r="DE337" t="inlineStr"/>
+      <c r="DF337" t="inlineStr"/>
+      <c r="DG337" t="inlineStr"/>
+      <c r="DH337" t="inlineStr"/>
+      <c r="DI337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
+      <c r="M338" t="inlineStr"/>
+      <c r="N338" t="inlineStr"/>
+      <c r="O338" t="inlineStr"/>
+      <c r="P338" t="inlineStr"/>
+      <c r="Q338" t="inlineStr"/>
+      <c r="R338" t="inlineStr"/>
+      <c r="S338" t="inlineStr"/>
+      <c r="T338" t="inlineStr"/>
+      <c r="U338" t="inlineStr"/>
+      <c r="V338" t="inlineStr"/>
+      <c r="W338" t="inlineStr"/>
+      <c r="X338" t="inlineStr"/>
+      <c r="Y338" t="inlineStr"/>
+      <c r="Z338" t="inlineStr"/>
+      <c r="AA338" t="inlineStr"/>
+      <c r="AB338" t="inlineStr"/>
+      <c r="AC338" t="inlineStr"/>
+      <c r="AD338" t="inlineStr"/>
+      <c r="AE338" t="inlineStr"/>
+      <c r="AF338" t="inlineStr"/>
+      <c r="AG338" t="inlineStr"/>
+      <c r="AH338" t="inlineStr"/>
+      <c r="AI338" t="inlineStr"/>
+      <c r="AJ338" t="inlineStr"/>
+      <c r="AK338" t="inlineStr"/>
+      <c r="AL338" t="inlineStr"/>
+      <c r="AM338" t="inlineStr"/>
+      <c r="AN338" t="inlineStr"/>
+      <c r="AO338" t="inlineStr"/>
+      <c r="AP338" t="inlineStr"/>
+      <c r="AQ338" t="inlineStr"/>
+      <c r="AR338" t="inlineStr"/>
+      <c r="AS338" t="inlineStr"/>
+      <c r="AT338" t="inlineStr"/>
+      <c r="AU338" t="inlineStr"/>
+      <c r="AV338" t="inlineStr"/>
+      <c r="AW338" t="inlineStr"/>
+      <c r="AX338" t="inlineStr"/>
+      <c r="AY338" t="inlineStr"/>
+      <c r="AZ338" t="inlineStr"/>
+      <c r="BA338" t="inlineStr"/>
+      <c r="BB338" t="inlineStr"/>
+      <c r="BC338" t="inlineStr"/>
+      <c r="BD338" t="inlineStr"/>
+      <c r="BE338" t="n">
+        <v>1662189</v>
+      </c>
+      <c r="BF338" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="BG338" t="inlineStr"/>
+      <c r="BH338" t="inlineStr"/>
+      <c r="BI338" t="inlineStr"/>
+      <c r="BJ338" t="inlineStr"/>
+      <c r="BK338" t="inlineStr"/>
+      <c r="BL338" t="inlineStr"/>
+      <c r="BM338" t="inlineStr"/>
+      <c r="BN338" t="inlineStr"/>
+      <c r="BO338" t="inlineStr"/>
+      <c r="BP338" t="inlineStr"/>
+      <c r="BQ338" t="inlineStr"/>
+      <c r="BR338" t="inlineStr"/>
+      <c r="BS338" t="inlineStr"/>
+      <c r="BT338" t="inlineStr"/>
+      <c r="BU338" t="inlineStr"/>
+      <c r="BV338" t="inlineStr"/>
+      <c r="BW338" t="inlineStr"/>
+      <c r="BX338" t="inlineStr"/>
+      <c r="BY338" t="inlineStr"/>
+      <c r="BZ338" t="inlineStr"/>
+      <c r="CA338" t="inlineStr"/>
+      <c r="CB338" t="inlineStr"/>
+      <c r="CC338" t="inlineStr"/>
+      <c r="CD338" t="inlineStr"/>
+      <c r="CE338" t="inlineStr"/>
+      <c r="CF338" t="inlineStr"/>
+      <c r="CG338" t="inlineStr"/>
+      <c r="CH338" t="inlineStr"/>
+      <c r="CI338" t="inlineStr"/>
+      <c r="CJ338" t="inlineStr"/>
+      <c r="CK338" t="inlineStr"/>
+      <c r="CL338" t="inlineStr"/>
+      <c r="CM338" t="inlineStr"/>
+      <c r="CN338" t="inlineStr"/>
+      <c r="CO338" t="inlineStr"/>
+      <c r="CP338" t="inlineStr"/>
+      <c r="CQ338" t="inlineStr"/>
+      <c r="CR338" t="inlineStr"/>
+      <c r="CS338" t="inlineStr"/>
+      <c r="CT338" t="inlineStr"/>
+      <c r="CU338" t="inlineStr"/>
+      <c r="CV338" t="inlineStr"/>
+      <c r="CW338" t="inlineStr"/>
+      <c r="CX338" t="inlineStr"/>
+      <c r="CY338" t="inlineStr"/>
+      <c r="CZ338" t="inlineStr"/>
+      <c r="DA338" t="inlineStr"/>
+      <c r="DB338" t="inlineStr"/>
+      <c r="DC338" t="inlineStr"/>
+      <c r="DD338" t="inlineStr"/>
+      <c r="DE338" t="inlineStr"/>
+      <c r="DF338" t="inlineStr"/>
+      <c r="DG338" t="inlineStr"/>
+      <c r="DH338" t="inlineStr"/>
+      <c r="DI338" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/players_stats.xlsx
+++ b/players_stats.xlsx
@@ -14609,28 +14609,28 @@
         <v>9</v>
       </c>
       <c r="E58" t="n">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="F58" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G58" t="n">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="H58" t="n">
-        <v>82.31999999999999</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="I58" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J58" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L58" t="n">
-        <v>75</v>
+        <v>77.78</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
@@ -14646,13 +14646,13 @@
         <v>10</v>
       </c>
       <c r="R58" t="n">
-        <v>45.45</v>
+        <v>43.48</v>
       </c>
       <c r="S58" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T58" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="n">
@@ -14662,16 +14662,16 @@
         <v>42.86</v>
       </c>
       <c r="X58" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y58" t="n">
-        <v>33.06</v>
+        <v>33.08</v>
       </c>
       <c r="Z58" t="n">
-        <v>1170</v>
+        <v>1260</v>
       </c>
       <c r="AA58" t="n">
-        <v>20.69</v>
+        <v>18.75</v>
       </c>
       <c r="AB58" t="n">
         <v>3</v>
@@ -14683,25 +14683,25 @@
         <v>2</v>
       </c>
       <c r="AE58" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF58" t="n">
-        <v>46.67</v>
+        <v>48.57</v>
       </c>
       <c r="AG58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH58" t="n">
         <v>4</v>
       </c>
       <c r="AI58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ58" t="n">
         <v>8</v>
       </c>
       <c r="AK58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL58" t="n">
         <v>1</v>
@@ -14722,23 +14722,23 @@
         <v>0</v>
       </c>
       <c r="AR58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS58" t="n">
         <v>100</v>
       </c>
       <c r="AT58" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU58" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AV58" t="n">
         <v>4</v>
       </c>
       <c r="AW58" t="inlineStr"/>
       <c r="AX58" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AY58" t="n">
         <v>0</v>
@@ -14756,7 +14756,7 @@
         <v>0</v>
       </c>
       <c r="BD58" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BE58" t="inlineStr">
         <is>
@@ -14764,13 +14764,13 @@
         </is>
       </c>
       <c r="BF58" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BG58" t="n">
-        <v>7.4692307692308</v>
+        <v>7.4571428571429</v>
       </c>
       <c r="BH58" t="n">
-        <v>197.5</v>
+        <v>213.83333333333</v>
       </c>
       <c r="BI58" t="inlineStr"/>
       <c r="BJ58" t="inlineStr"/>
@@ -15639,16 +15639,16 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="F63" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G63" t="n">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="H63" t="n">
-        <v>87.87</v>
+        <v>87.09</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -15689,89 +15689,89 @@
         <v>6</v>
       </c>
       <c r="W63" t="n">
-        <v>100</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="X63" t="n">
         <v>6</v>
       </c>
       <c r="Y63" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>990</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="n">
         <v>66.67</v>
       </c>
-      <c r="Z63" t="n">
-        <v>900</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>69</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>66.34999999999999</v>
-      </c>
       <c r="AG63" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU63" t="n">
         <v>4</v>
       </c>
-      <c r="AH63" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>3</v>
-      </c>
       <c r="AV63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW63" t="inlineStr"/>
       <c r="AX63" t="n">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="AY63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ63" t="n">
         <v>0</v>
@@ -15783,10 +15783,10 @@
         <v>0</v>
       </c>
       <c r="BC63" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BD63" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="BE63" t="inlineStr">
         <is>
@@ -15794,10 +15794,10 @@
         </is>
       </c>
       <c r="BF63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BG63" t="n">
-        <v>7.18</v>
+        <v>7.1363636363636</v>
       </c>
       <c r="BH63" t="n">
         <v>0</v>
@@ -15969,7 +15969,7 @@
         <v>1</v>
       </c>
       <c r="AM64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN64" t="n">
         <v>0</v>
@@ -16018,7 +16018,7 @@
         <v>0</v>
       </c>
       <c r="BD64" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE64" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         <v>11</v>
       </c>
       <c r="BG64" t="n">
-        <v>6.36</v>
+        <v>6.4181818181818</v>
       </c>
       <c r="BH64" t="n">
         <v>332</v>
@@ -16567,16 +16567,16 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G67" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H67" t="n">
-        <v>76.19</v>
+        <v>75</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -16588,7 +16588,7 @@
         <v>5</v>
       </c>
       <c r="L67" t="n">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
@@ -16617,16 +16617,16 @@
         <v>2</v>
       </c>
       <c r="W67" t="n">
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="X67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y67" t="n">
-        <v>40</v>
+        <v>37.93</v>
       </c>
       <c r="Z67" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="AA67" t="n">
         <v>50</v>
@@ -16689,10 +16689,10 @@
         <v>1</v>
       </c>
       <c r="AU67" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AV67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="n">
@@ -16708,13 +16708,13 @@
         <v>0</v>
       </c>
       <c r="BB67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC67" t="n">
         <v>0</v>
       </c>
       <c r="BD67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE67" t="inlineStr">
         <is>
@@ -16722,13 +16722,13 @@
         </is>
       </c>
       <c r="BF67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG67" t="n">
-        <v>6.775</v>
+        <v>6.72</v>
       </c>
       <c r="BH67" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="BI67" t="inlineStr"/>
       <c r="BJ67" t="inlineStr"/>
@@ -21018,40 +21018,40 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="F82" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G82" t="n">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="H82" t="n">
-        <v>85.614035087719</v>
+        <v>85.36585365853701</v>
       </c>
       <c r="I82" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J82" t="n">
         <v>6</v>
       </c>
       <c r="K82" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L82" t="n">
-        <v>44.444444444444</v>
+        <v>46.153846153846</v>
       </c>
       <c r="M82" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N82" t="n">
         <v>1</v>
@@ -21066,34 +21066,34 @@
         <v>4</v>
       </c>
       <c r="R82" t="n">
-        <v>22.222222222222</v>
+        <v>17.391304347826</v>
       </c>
       <c r="S82" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T82" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U82" t="n">
         <v>2</v>
       </c>
       <c r="V82" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W82" t="n">
-        <v>14.285714285714</v>
+        <v>41.666666666667</v>
       </c>
       <c r="X82" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Y82" t="n">
-        <v>45.454545454545</v>
+        <v>47.560975609756</v>
       </c>
       <c r="Z82" t="n">
-        <v>448</v>
+        <v>538</v>
       </c>
       <c r="AA82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB82" t="n">
         <v>0</v>
@@ -21108,10 +21108,10 @@
         <v>10</v>
       </c>
       <c r="AF82" t="n">
-        <v>47.619047619048</v>
+        <v>45.454545454545</v>
       </c>
       <c r="AG82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH82" t="n">
         <v>0</v>
@@ -21120,7 +21120,7 @@
         <v>9</v>
       </c>
       <c r="AJ82" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK82" t="n">
         <v>8</v>
@@ -21129,7 +21129,7 @@
         <v>0</v>
       </c>
       <c r="AM82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN82" t="n">
         <v>0</v>
@@ -21144,28 +21144,28 @@
         <v>0</v>
       </c>
       <c r="AR82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS82" t="n">
         <v>0</v>
       </c>
       <c r="AT82" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AU82" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AV82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY82" t="n">
         <v>6</v>
-      </c>
-      <c r="AW82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX82" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY82" t="n">
-        <v>5</v>
       </c>
       <c r="AZ82" t="n">
         <v>0</v>
@@ -21176,7 +21176,7 @@
         <v>0</v>
       </c>
       <c r="BD82" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BE82" t="inlineStr">
         <is>
@@ -21184,94 +21184,94 @@
         </is>
       </c>
       <c r="BF82" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>6.9083333333333</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>538</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>12</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>108</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>176</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>19</v>
+      </c>
+      <c r="BQ82" t="n">
+        <v>34</v>
+      </c>
+      <c r="BR82" t="n">
+        <v>48.571428571429</v>
+      </c>
+      <c r="BS82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV82" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BY82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BZ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB82" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD82" t="n">
         <v>11</v>
       </c>
-      <c r="BG82" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BH82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ82" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="BK82" t="n">
-        <v>11</v>
-      </c>
-      <c r="BL82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN82" t="n">
-        <v>97</v>
-      </c>
-      <c r="BO82" t="n">
-        <v>151</v>
-      </c>
-      <c r="BP82" t="n">
-        <v>16</v>
-      </c>
-      <c r="BQ82" t="n">
-        <v>29</v>
-      </c>
-      <c r="BR82" t="n">
-        <v>49.152542372881</v>
-      </c>
-      <c r="BS82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX82" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY82" t="n">
-        <v>5</v>
-      </c>
-      <c r="BZ82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD82" t="n">
-        <v>9</v>
-      </c>
       <c r="CE82" t="n">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="CF82" t="n">
         <v>4</v>
       </c>
       <c r="CG82" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CH82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CI82" t="n">
-        <v>407</v>
+        <v>483</v>
       </c>
       <c r="CJ82" t="n">
         <v>0</v>
@@ -21289,7 +21289,7 @@
         <v>0</v>
       </c>
       <c r="CO82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP82" t="n">
         <v>1</v>
@@ -21313,7 +21313,7 @@
         <v>6</v>
       </c>
       <c r="CW82" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="CX82" t="n">
         <v>0</v>
@@ -21322,10 +21322,10 @@
         <v>0</v>
       </c>
       <c r="CZ82" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DA82" t="n">
-        <v>68.75</v>
+        <v>68.421052631579</v>
       </c>
       <c r="DB82" t="n">
         <v>0</v>
@@ -21334,13 +21334,13 @@
         <v>0</v>
       </c>
       <c r="DD82" t="n">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="DE82" t="n">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="DF82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG82" t="inlineStr"/>
       <c r="DH82" t="inlineStr"/>
@@ -24941,19 +24941,19 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F97" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G97" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H97" t="n">
-        <v>75.36231884058</v>
+        <v>75.949367088608</v>
       </c>
       <c r="I97" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -24983,28 +24983,28 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U97" t="n">
         <v>4</v>
       </c>
       <c r="V97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W97" t="n">
-        <v>35.714285714286</v>
+        <v>31.428571428571</v>
       </c>
       <c r="X97" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y97" t="n">
-        <v>32.075471698113</v>
+        <v>28.571428571429</v>
       </c>
       <c r="Z97" t="n">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="AA97" t="n">
         <v>0</v>
@@ -25019,10 +25019,10 @@
         <v>0</v>
       </c>
       <c r="AE97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF97" t="n">
-        <v>66.666666666667</v>
+        <v>75</v>
       </c>
       <c r="AG97" t="n">
         <v>3</v>
@@ -25034,7 +25034,7 @@
         <v>5</v>
       </c>
       <c r="AJ97" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK97" t="n">
         <v>3</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="AR97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS97" t="n">
         <v>0</v>
@@ -25067,16 +25067,16 @@
         <v>0</v>
       </c>
       <c r="AU97" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AV97" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AW97" t="n">
         <v>0</v>
       </c>
       <c r="AX97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY97" t="n">
         <v>9</v>
@@ -25098,10 +25098,10 @@
         </is>
       </c>
       <c r="BF97" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG97" t="n">
-        <v>6.5555555555556</v>
+        <v>6.57</v>
       </c>
       <c r="BH97" t="n">
         <v>0</v>
@@ -25110,10 +25110,10 @@
         <v>0</v>
       </c>
       <c r="BJ97" t="n">
-        <v>59</v>
+        <v>65.7</v>
       </c>
       <c r="BK97" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BL97" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>1</v>
       </c>
       <c r="BN97" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BO97" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="BP97" t="n">
         <v>2</v>
@@ -25134,7 +25134,7 @@
         <v>7</v>
       </c>
       <c r="BR97" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BS97" t="n">
         <v>0</v>
@@ -25152,40 +25152,40 @@
         <v>0</v>
       </c>
       <c r="BX97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BY97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC97" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD97" t="n">
         <v>4</v>
       </c>
-      <c r="BY97" t="n">
-        <v>2</v>
-      </c>
-      <c r="BZ97" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA97" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB97" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC97" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD97" t="n">
-        <v>3</v>
-      </c>
       <c r="CE97" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="CF97" t="n">
         <v>0</v>
       </c>
       <c r="CG97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI97" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="CJ97" t="n">
         <v>1</v>
@@ -25248,10 +25248,10 @@
         <v>0</v>
       </c>
       <c r="DD97" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="DE97" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="DF97" t="n">
         <v>0</v>
@@ -27885,16 +27885,16 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G109" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H109" t="n">
-        <v>93.333333333333</v>
+        <v>91.891891891892</v>
       </c>
       <c r="I109" t="n">
         <v>9</v>
@@ -27942,10 +27942,10 @@
         <v>75</v>
       </c>
       <c r="X109" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y109" t="n">
-        <v>66.666666666667</v>
+        <v>68.421052631579</v>
       </c>
       <c r="Z109" t="n">
         <v>210</v>
@@ -27963,10 +27963,10 @@
         <v>0</v>
       </c>
       <c r="AE109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF109" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AG109" t="n">
         <v>8</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="AU109" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV109" t="n">
         <v>2</v>
@@ -28066,19 +28066,19 @@
         <v>0</v>
       </c>
       <c r="BN109" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BO109" t="n">
         <v>32</v>
       </c>
       <c r="BP109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BQ109" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR109" t="n">
-        <v>61.538461538462</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BS109" t="n">
         <v>0</v>
@@ -28114,10 +28114,10 @@
         <v>0</v>
       </c>
       <c r="CD109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CE109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CF109" t="n">
         <v>0</v>
@@ -28129,7 +28129,7 @@
         <v>3</v>
       </c>
       <c r="CI109" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CJ109" t="n">
         <v>0</v>
@@ -28180,10 +28180,10 @@
         <v>0</v>
       </c>
       <c r="CZ109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DA109" t="n">
-        <v>66.666666666667</v>
+        <v>60</v>
       </c>
       <c r="DB109" t="n">
         <v>0</v>
@@ -28192,10 +28192,10 @@
         <v>0</v>
       </c>
       <c r="DD109" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="DE109" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="DF109" t="n">
         <v>0</v>
@@ -28606,10 +28606,10 @@
         <v>11.111111111111</v>
       </c>
       <c r="X111" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y111" t="n">
-        <v>27.272727272727</v>
+        <v>30.434782608696</v>
       </c>
       <c r="Z111" t="n">
         <v>372</v>
@@ -28698,7 +28698,7 @@
         <v>0</v>
       </c>
       <c r="BD111" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BE111" t="inlineStr">
         <is>
@@ -28730,19 +28730,19 @@
         <v>0</v>
       </c>
       <c r="BN111" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BO111" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BP111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ111" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR111" t="n">
-        <v>38.461538461538</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BS111" t="n">
         <v>0</v>
@@ -28793,7 +28793,7 @@
         <v>0</v>
       </c>
       <c r="CI111" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="CJ111" t="n">
         <v>0</v>
@@ -28844,10 +28844,10 @@
         <v>0</v>
       </c>
       <c r="CZ111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA111" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DB111" t="n">
         <v>0</v>
@@ -28856,10 +28856,10 @@
         <v>0</v>
       </c>
       <c r="DD111" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="DE111" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="DF111" t="n">
         <v>0</v>
@@ -28881,19 +28881,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F112" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G112" t="n">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="H112" t="n">
-        <v>54.335260115607</v>
+        <v>54.891304347826</v>
       </c>
       <c r="I112" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -28938,13 +28938,13 @@
         <v>92.30769230769199</v>
       </c>
       <c r="X112" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y112" t="n">
-        <v>88.888888888889</v>
+        <v>85</v>
       </c>
       <c r="Z112" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="AA112" t="n">
         <v>0</v>
@@ -28959,19 +28959,19 @@
         <v>0</v>
       </c>
       <c r="AE112" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF112" t="n">
-        <v>29.545454545455</v>
+        <v>28.82096069869</v>
       </c>
       <c r="AG112" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH112" t="n">
         <v>0</v>
       </c>
       <c r="AI112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ112" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="AO112" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AP112" t="n">
         <v>3</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="AR112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS112" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="AU112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV112" t="n">
         <v>1</v>
@@ -29016,10 +29016,10 @@
         <v>0</v>
       </c>
       <c r="AX112" t="n">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AY112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ112" t="n">
         <v>0</v>
@@ -29027,10 +29027,10 @@
       <c r="BA112" t="inlineStr"/>
       <c r="BB112" t="inlineStr"/>
       <c r="BC112" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="BD112" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="BE112" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="BF112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG112" t="n">
-        <v>7.0454545454545</v>
+        <v>6.9916666666667</v>
       </c>
       <c r="BH112" t="n">
         <v>0</v>
@@ -29050,10 +29050,10 @@
         <v>0</v>
       </c>
       <c r="BJ112" t="n">
-        <v>77.5</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="BK112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BL112" t="n">
         <v>0</v>
@@ -29062,19 +29062,19 @@
         <v>0</v>
       </c>
       <c r="BN112" t="n">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="BO112" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BP112" t="n">
         <v>2</v>
       </c>
       <c r="BQ112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BR112" t="n">
-        <v>80</v>
+        <v>71.428571428571</v>
       </c>
       <c r="BS112" t="n">
         <v>0</v>
@@ -29107,25 +29107,25 @@
         <v>0</v>
       </c>
       <c r="CC112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE112" t="n">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="CF112" t="n">
         <v>0</v>
       </c>
       <c r="CG112" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CH112" t="n">
         <v>14</v>
       </c>
       <c r="CI112" t="n">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="CJ112" t="n">
         <v>0</v>
@@ -29137,25 +29137,25 @@
         <v>0</v>
       </c>
       <c r="CM112" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CN112" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CO112" t="n">
         <v>9</v>
       </c>
       <c r="CP112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CQ112" t="n">
         <v>6</v>
       </c>
       <c r="CR112" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CS112" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CT112" t="n">
         <v>15</v>
@@ -29188,10 +29188,10 @@
         <v>1</v>
       </c>
       <c r="DD112" t="n">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="DE112" t="n">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="DF112" t="n">
         <v>2</v>
@@ -29545,19 +29545,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="F114" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G114" t="n">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="H114" t="n">
-        <v>80.769230769231</v>
+        <v>81.46964856229999</v>
       </c>
       <c r="I114" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J114" t="n">
         <v>4</v>
@@ -29596,19 +29596,19 @@
         <v>4</v>
       </c>
       <c r="V114" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W114" t="n">
-        <v>37.5</v>
+        <v>42.105263157895</v>
       </c>
       <c r="X114" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y114" t="n">
-        <v>52.941176470588</v>
+        <v>56.410256410256</v>
       </c>
       <c r="Z114" t="n">
-        <v>666</v>
+        <v>756</v>
       </c>
       <c r="AA114" t="n">
         <v>0</v>
@@ -29623,13 +29623,13 @@
         <v>0</v>
       </c>
       <c r="AE114" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF114" t="n">
-        <v>47.058823529412</v>
+        <v>47.297297297297</v>
       </c>
       <c r="AG114" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AH114" t="n">
         <v>0</v>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
       <c r="AR114" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS114" t="n">
         <v>0</v>
@@ -29671,19 +29671,19 @@
         <v>3</v>
       </c>
       <c r="AU114" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW114" t="n">
         <v>0</v>
       </c>
       <c r="AX114" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AY114" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ114" t="n">
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>0</v>
       </c>
       <c r="BD114" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BE114" t="inlineStr">
         <is>
@@ -29702,22 +29702,22 @@
         </is>
       </c>
       <c r="BF114" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG114" t="n">
-        <v>6.9125</v>
+        <v>6.8777777777778</v>
       </c>
       <c r="BH114" t="n">
         <v>0</v>
       </c>
       <c r="BI114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ114" t="n">
-        <v>55.3</v>
+        <v>61.9</v>
       </c>
       <c r="BK114" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BL114" t="n">
         <v>1</v>
@@ -29726,19 +29726,19 @@
         <v>2</v>
       </c>
       <c r="BN114" t="n">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="BO114" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="BP114" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BQ114" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BR114" t="n">
-        <v>66.666666666667</v>
+        <v>70</v>
       </c>
       <c r="BS114" t="n">
         <v>1</v>
@@ -29777,19 +29777,19 @@
         <v>1</v>
       </c>
       <c r="CE114" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="CF114" t="n">
         <v>0</v>
       </c>
       <c r="CG114" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CH114" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CI114" t="n">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="CJ114" t="n">
         <v>2</v>
@@ -29807,7 +29807,7 @@
         <v>0</v>
       </c>
       <c r="CO114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CP114" t="n">
         <v>1</v>
@@ -29840,10 +29840,10 @@
         <v>0</v>
       </c>
       <c r="CZ114" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DA114" t="n">
-        <v>66.666666666667</v>
+        <v>72.727272727273</v>
       </c>
       <c r="DB114" t="n">
         <v>0</v>
@@ -29852,10 +29852,10 @@
         <v>0</v>
       </c>
       <c r="DD114" t="n">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="DE114" t="n">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="DF114" t="n">
         <v>0</v>
@@ -44731,19 +44731,19 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F179" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G179" t="n">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="H179" t="n">
-        <v>59.44</v>
+        <v>59.21</v>
       </c>
       <c r="I179" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J179" t="n">
         <v>8</v>
@@ -44768,7 +44768,7 @@
         <v>4</v>
       </c>
       <c r="R179" t="n">
-        <v>23.53</v>
+        <v>20</v>
       </c>
       <c r="S179" t="n">
         <v>5</v>
@@ -44778,19 +44778,19 @@
       </c>
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W179" t="n">
-        <v>56.34</v>
+        <v>56.76</v>
       </c>
       <c r="X179" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y179" t="n">
-        <v>40.66</v>
+        <v>40.19</v>
       </c>
       <c r="Z179" t="n">
-        <v>1200</v>
+        <v>1246</v>
       </c>
       <c r="AA179" t="n">
         <v>0</v>
@@ -44808,7 +44808,7 @@
         <v>19</v>
       </c>
       <c r="AF179" t="n">
-        <v>33.33</v>
+        <v>32.76</v>
       </c>
       <c r="AG179" t="n">
         <v>66</v>
@@ -44820,10 +44820,10 @@
         <v>32</v>
       </c>
       <c r="AJ179" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK179" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL179" t="n">
         <v>0</v>
@@ -44844,21 +44844,21 @@
         <v>0</v>
       </c>
       <c r="AR179" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS179" t="inlineStr"/>
       <c r="AT179" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU179" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AV179" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AW179" t="inlineStr"/>
       <c r="AX179" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY179" t="n">
         <v>11</v>
@@ -44876,7 +44876,7 @@
         <v>0</v>
       </c>
       <c r="BD179" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="BE179" t="inlineStr">
         <is>
@@ -44887,7 +44887,7 @@
         <v>17</v>
       </c>
       <c r="BG179" t="n">
-        <v>6.84375</v>
+        <v>6.8117647058824</v>
       </c>
       <c r="BH179" t="inlineStr"/>
       <c r="BI179" t="n">
@@ -45706,7 +45706,7 @@
         <v>36.84</v>
       </c>
       <c r="Z183" t="n">
-        <v>797</v>
+        <v>875</v>
       </c>
       <c r="AA183" t="n">
         <v>12.5</v>
@@ -45760,7 +45760,7 @@
         <v>0</v>
       </c>
       <c r="AR183" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS183" t="inlineStr"/>
       <c r="AT183" t="n">
@@ -45806,7 +45806,7 @@
         <v>6.9454545454545</v>
       </c>
       <c r="BH183" t="n">
-        <v>797</v>
+        <v>875</v>
       </c>
       <c r="BI183" t="n">
         <v>0</v>
@@ -49352,37 +49352,37 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E197" t="n">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="F197" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G197" t="n">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="H197" t="n">
-        <v>79.31</v>
+        <v>79.38</v>
       </c>
       <c r="I197" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J197" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K197" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L197" t="n">
-        <v>64.70999999999999</v>
+        <v>65.22</v>
       </c>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="n">
@@ -49395,16 +49395,16 @@
         <v>0</v>
       </c>
       <c r="Q197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R197" t="n">
-        <v>14.29</v>
+        <v>25</v>
       </c>
       <c r="S197" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="T197" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="n">
@@ -49414,16 +49414,16 @@
         <v>25</v>
       </c>
       <c r="X197" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Y197" t="n">
-        <v>39.39</v>
+        <v>39.47</v>
       </c>
       <c r="Z197" t="n">
-        <v>630</v>
+        <v>812</v>
       </c>
       <c r="AA197" t="n">
-        <v>16.67</v>
+        <v>15.38</v>
       </c>
       <c r="AB197" t="n">
         <v>0</v>
@@ -49444,17 +49444,17 @@
         <v>2</v>
       </c>
       <c r="AH197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK197" t="n">
         <v>7</v>
       </c>
-      <c r="AJ197" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK197" t="n">
-        <v>6</v>
-      </c>
       <c r="AL197" t="n">
         <v>2</v>
       </c>
@@ -49474,16 +49474,16 @@
         <v>0</v>
       </c>
       <c r="AR197" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS197" t="n">
         <v>0</v>
       </c>
       <c r="AT197" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU197" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AV197" t="n">
         <v>12</v>
@@ -49499,7 +49499,7 @@
         <v>0</v>
       </c>
       <c r="BA197" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB197" t="n">
         <v>5</v>
@@ -49508,7 +49508,7 @@
         <v>0</v>
       </c>
       <c r="BD197" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="BE197" t="inlineStr">
         <is>
@@ -49516,13 +49516,13 @@
         </is>
       </c>
       <c r="BF197" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BG197" t="n">
-        <v>7.01</v>
+        <v>7.1416666666667</v>
       </c>
       <c r="BH197" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="BI197" t="inlineStr"/>
       <c r="BJ197" t="inlineStr"/>
@@ -55101,22 +55101,22 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="F218" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G218" t="n">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="H218" t="n">
-        <v>79.72602739726</v>
+        <v>80.09708737864101</v>
       </c>
       <c r="I218" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J218" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K218" t="n">
         <v>12</v>
@@ -55128,7 +55128,7 @@
         <v>6</v>
       </c>
       <c r="N218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O218" t="n">
         <v>0</v>
@@ -55137,13 +55137,13 @@
         <v>0</v>
       </c>
       <c r="Q218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R218" t="n">
-        <v>11.764705882353</v>
+        <v>15</v>
       </c>
       <c r="S218" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T218" t="n">
         <v>2</v>
@@ -55152,19 +55152,19 @@
         <v>2</v>
       </c>
       <c r="V218" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W218" t="n">
-        <v>73.333333333333</v>
+        <v>75</v>
       </c>
       <c r="X218" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Y218" t="n">
-        <v>64.935064935065</v>
+        <v>64.28571428571399</v>
       </c>
       <c r="Z218" t="n">
-        <v>671</v>
+        <v>757</v>
       </c>
       <c r="AA218" t="n">
         <v>0</v>
@@ -55179,22 +55179,22 @@
         <v>0</v>
       </c>
       <c r="AE218" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>39.473684210526</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI218" t="n">
         <v>12</v>
       </c>
-      <c r="AF218" t="n">
-        <v>36.363636363636</v>
-      </c>
-      <c r="AG218" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI218" t="n">
+      <c r="AJ218" t="n">
         <v>10</v>
-      </c>
-      <c r="AJ218" t="n">
-        <v>8</v>
       </c>
       <c r="AK218" t="n">
         <v>9</v>
@@ -55203,7 +55203,7 @@
         <v>0</v>
       </c>
       <c r="AM218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN218" t="n">
         <v>1</v>
@@ -55218,16 +55218,16 @@
         <v>0</v>
       </c>
       <c r="AR218" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS218" t="n">
         <v>0</v>
       </c>
       <c r="AT218" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU218" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AV218" t="n">
         <v>4</v>
@@ -55236,10 +55236,10 @@
         <v>0</v>
       </c>
       <c r="AX218" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AY218" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ218" t="n">
         <v>0</v>
@@ -55250,7 +55250,7 @@
         <v>0</v>
       </c>
       <c r="BD218" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BE218" t="inlineStr">
         <is>
@@ -55258,94 +55258,94 @@
         </is>
       </c>
       <c r="BF218" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>6.9909090909091</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>11</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>154</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>179</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>18</v>
+      </c>
+      <c r="BQ218" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR218" t="n">
+        <v>61.764705882353</v>
+      </c>
+      <c r="BS218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BZ218" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB218" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC218" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD218" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE218" t="n">
+        <v>128</v>
+      </c>
+      <c r="CF218" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG218" t="n">
+        <v>25</v>
+      </c>
+      <c r="CH218" t="n">
         <v>10</v>
       </c>
-      <c r="BG218" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="BH218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ218" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="BK218" t="n">
-        <v>10</v>
-      </c>
-      <c r="BL218" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN218" t="n">
-        <v>136</v>
-      </c>
-      <c r="BO218" t="n">
-        <v>157</v>
-      </c>
-      <c r="BP218" t="n">
-        <v>17</v>
-      </c>
-      <c r="BQ218" t="n">
-        <v>39</v>
-      </c>
-      <c r="BR218" t="n">
-        <v>62.903225806452</v>
-      </c>
-      <c r="BS218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX218" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY218" t="n">
-        <v>4</v>
-      </c>
-      <c r="BZ218" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA218" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB218" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC218" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD218" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE218" t="n">
-        <v>114</v>
-      </c>
-      <c r="CF218" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG218" t="n">
-        <v>20</v>
-      </c>
-      <c r="CH218" t="n">
-        <v>7</v>
-      </c>
       <c r="CI218" t="n">
-        <v>577</v>
+        <v>644</v>
       </c>
       <c r="CJ218" t="n">
         <v>1</v>
@@ -55366,7 +55366,7 @@
         <v>8</v>
       </c>
       <c r="CP218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CQ218" t="n">
         <v>0</v>
@@ -55384,7 +55384,7 @@
         <v>0</v>
       </c>
       <c r="CV218" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CW218" t="n">
         <v>17</v>
@@ -55396,10 +55396,10 @@
         <v>0</v>
       </c>
       <c r="CZ218" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DA218" t="n">
-        <v>76.470588235294</v>
+        <v>77.777777777778</v>
       </c>
       <c r="DB218" t="n">
         <v>0</v>
@@ -55408,10 +55408,10 @@
         <v>0</v>
       </c>
       <c r="DD218" t="n">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="DE218" t="n">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="DF218" t="n">
         <v>1</v>
@@ -55433,19 +55433,19 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F219" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G219" t="n">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="H219" t="n">
-        <v>87.817258883249</v>
+        <v>87.92270531401</v>
       </c>
       <c r="I219" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J219" t="n">
         <v>2</v>
@@ -55454,7 +55454,7 @@
         <v>8</v>
       </c>
       <c r="L219" t="n">
-        <v>66.666666666667</v>
+        <v>61.538461538462</v>
       </c>
       <c r="M219" t="n">
         <v>3</v>
@@ -55487,16 +55487,16 @@
         <v>3</v>
       </c>
       <c r="W219" t="n">
-        <v>27.272727272727</v>
+        <v>25</v>
       </c>
       <c r="X219" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y219" t="n">
-        <v>42.028985507246</v>
+        <v>41.666666666667</v>
       </c>
       <c r="Z219" t="n">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="AA219" t="n">
         <v>0</v>
@@ -55559,10 +55559,10 @@
         <v>3</v>
       </c>
       <c r="AU219" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AV219" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW219" t="n">
         <v>0</v>
@@ -55582,7 +55582,7 @@
         <v>0</v>
       </c>
       <c r="BD219" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BE219" t="inlineStr">
         <is>
@@ -55590,10 +55590,10 @@
         </is>
       </c>
       <c r="BF219" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG219" t="n">
-        <v>6.6666666666667</v>
+        <v>6.65</v>
       </c>
       <c r="BH219" t="n">
         <v>0</v>
@@ -55602,10 +55602,10 @@
         <v>0</v>
       </c>
       <c r="BJ219" t="n">
-        <v>60</v>
+        <v>66.5</v>
       </c>
       <c r="BK219" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BL219" t="n">
         <v>0</v>
@@ -55614,19 +55614,19 @@
         <v>0</v>
       </c>
       <c r="BN219" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="BO219" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="BP219" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BQ219" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BR219" t="n">
-        <v>44.827586206897</v>
+        <v>45</v>
       </c>
       <c r="BS219" t="n">
         <v>0</v>
@@ -55665,7 +55665,7 @@
         <v>10</v>
       </c>
       <c r="CE219" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="CF219" t="n">
         <v>5</v>
@@ -55677,7 +55677,7 @@
         <v>1</v>
       </c>
       <c r="CI219" t="n">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="CJ219" t="n">
         <v>0</v>
@@ -55719,7 +55719,7 @@
         <v>2</v>
       </c>
       <c r="CW219" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CX219" t="n">
         <v>0</v>
@@ -55728,10 +55728,10 @@
         <v>0</v>
       </c>
       <c r="CZ219" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DA219" t="n">
-        <v>86.666666666667</v>
+        <v>87.5</v>
       </c>
       <c r="DB219" t="n">
         <v>0</v>
@@ -55740,10 +55740,10 @@
         <v>0</v>
       </c>
       <c r="DD219" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="DE219" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="DF219" t="n">
         <v>0</v>
@@ -55765,19 +55765,19 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="F220" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G220" t="n">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="H220" t="n">
-        <v>85.05942275042401</v>
+        <v>84.11669367909199</v>
       </c>
       <c r="I220" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J220" t="n">
         <v>2</v>
@@ -55789,7 +55789,7 @@
         <v>100</v>
       </c>
       <c r="M220" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N220" t="n">
         <v>1</v>
@@ -55816,19 +55816,19 @@
         <v>4</v>
       </c>
       <c r="V220" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W220" t="n">
-        <v>68.75</v>
+        <v>68.571428571429</v>
       </c>
       <c r="X220" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y220" t="n">
-        <v>76.229508196721</v>
+        <v>75.78125</v>
       </c>
       <c r="Z220" t="n">
-        <v>1166</v>
+        <v>1256</v>
       </c>
       <c r="AA220" t="n">
         <v>12.5</v>
@@ -55843,19 +55843,19 @@
         <v>0</v>
       </c>
       <c r="AE220" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>47.674418604651</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI220" t="n">
         <v>35</v>
-      </c>
-      <c r="AF220" t="n">
-        <v>47.945205479452</v>
-      </c>
-      <c r="AG220" t="n">
-        <v>61</v>
-      </c>
-      <c r="AH220" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI220" t="n">
-        <v>34</v>
       </c>
       <c r="AJ220" t="n">
         <v>10</v>
@@ -55876,13 +55876,13 @@
         <v>0</v>
       </c>
       <c r="AP220" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ220" t="n">
         <v>0</v>
       </c>
       <c r="AR220" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS220" t="n">
         <v>0</v>
@@ -55891,16 +55891,16 @@
         <v>3</v>
       </c>
       <c r="AU220" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AV220" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW220" t="n">
         <v>0</v>
       </c>
       <c r="AX220" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AY220" t="n">
         <v>27</v>
@@ -55914,7 +55914,7 @@
         <v>0</v>
       </c>
       <c r="BD220" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="BE220" t="inlineStr">
         <is>
@@ -55922,22 +55922,22 @@
         </is>
       </c>
       <c r="BF220" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BG220" t="n">
-        <v>7.0384615384615</v>
+        <v>7.0642857142857</v>
       </c>
       <c r="BH220" t="n">
-        <v>1166</v>
+        <v>1256</v>
       </c>
       <c r="BI220" t="n">
         <v>1</v>
       </c>
       <c r="BJ220" t="n">
-        <v>91.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="BK220" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BL220" t="n">
         <v>0</v>
@@ -55946,19 +55946,19 @@
         <v>1</v>
       </c>
       <c r="BN220" t="n">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="BO220" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="BP220" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BQ220" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BR220" t="n">
-        <v>78.888888888889</v>
+        <v>78.494623655914</v>
       </c>
       <c r="BS220" t="n">
         <v>0</v>
@@ -55994,22 +55994,22 @@
         <v>0</v>
       </c>
       <c r="CD220" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE220" t="n">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="CF220" t="n">
         <v>2</v>
       </c>
       <c r="CG220" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="CH220" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CI220" t="n">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="CJ220" t="n">
         <v>0</v>
@@ -56060,10 +56060,10 @@
         <v>0</v>
       </c>
       <c r="CZ220" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DA220" t="n">
-        <v>67.64705882352899</v>
+        <v>68.571428571429</v>
       </c>
       <c r="DB220" t="n">
         <v>0</v>
@@ -56072,10 +56072,10 @@
         <v>0</v>
       </c>
       <c r="DD220" t="n">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="DE220" t="n">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="DF220" t="n">
         <v>1</v>
@@ -56824,31 +56824,31 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E225" t="n">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F225" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G225" t="n">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="H225" t="n">
-        <v>74.24242424242399</v>
+        <v>73.41772151898699</v>
       </c>
       <c r="I225" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J225" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K225" t="n">
         <v>7</v>
@@ -56857,7 +56857,7 @@
         <v>46.666666666667</v>
       </c>
       <c r="M225" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N225" t="n">
         <v>1</v>
@@ -56869,16 +56869,16 @@
         <v>0</v>
       </c>
       <c r="Q225" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R225" t="n">
-        <v>22.727272727273</v>
+        <v>24</v>
       </c>
       <c r="S225" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T225" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U225" t="n">
         <v>5</v>
@@ -56893,13 +56893,13 @@
         <v>19</v>
       </c>
       <c r="Y225" t="n">
-        <v>33.928571428571</v>
+        <v>33.333333333333</v>
       </c>
       <c r="Z225" t="n">
-        <v>507</v>
+        <v>594</v>
       </c>
       <c r="AA225" t="n">
-        <v>18.75</v>
+        <v>23.529411764706</v>
       </c>
       <c r="AB225" t="n">
         <v>1</v>
@@ -56914,10 +56914,10 @@
         <v>2</v>
       </c>
       <c r="AF225" t="n">
-        <v>25</v>
+        <v>22.222222222222</v>
       </c>
       <c r="AG225" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH225" t="n">
         <v>0</v>
@@ -56950,16 +56950,16 @@
         <v>0</v>
       </c>
       <c r="AR225" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS225" t="n">
         <v>100</v>
       </c>
       <c r="AT225" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AU225" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AV225" t="n">
         <v>12</v>
@@ -56968,10 +56968,10 @@
         <v>0</v>
       </c>
       <c r="AX225" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY225" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ225" t="n">
         <v>0</v>
@@ -56982,7 +56982,7 @@
         <v>0</v>
       </c>
       <c r="BD225" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BE225" t="inlineStr">
         <is>
@@ -56990,22 +56990,22 @@
         </is>
       </c>
       <c r="BF225" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG225" t="n">
-        <v>6.875</v>
+        <v>6.8888888888889</v>
       </c>
       <c r="BH225" t="n">
-        <v>169</v>
+        <v>148.5</v>
       </c>
       <c r="BI225" t="n">
         <v>0</v>
       </c>
       <c r="BJ225" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="BK225" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BL225" t="n">
         <v>2</v>
@@ -57014,10 +57014,10 @@
         <v>0</v>
       </c>
       <c r="BN225" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BO225" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="BP225" t="n">
         <v>5</v>
@@ -57026,7 +57026,7 @@
         <v>16</v>
       </c>
       <c r="BR225" t="n">
-        <v>39.024390243902</v>
+        <v>38.095238095238</v>
       </c>
       <c r="BS225" t="n">
         <v>0</v>
@@ -57041,13 +57041,13 @@
         <v>3</v>
       </c>
       <c r="BW225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX225" t="n">
         <v>10</v>
       </c>
       <c r="BY225" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BZ225" t="n">
         <v>0</v>
@@ -57056,19 +57056,19 @@
         <v>0</v>
       </c>
       <c r="CB225" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC225" t="n">
         <v>0</v>
       </c>
       <c r="CD225" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CE225" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="CF225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG225" t="n">
         <v>8</v>
@@ -57077,7 +57077,7 @@
         <v>1</v>
       </c>
       <c r="CI225" t="n">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="CJ225" t="n">
         <v>0</v>
@@ -57095,10 +57095,10 @@
         <v>0</v>
       </c>
       <c r="CO225" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CP225" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CQ225" t="n">
         <v>0</v>
@@ -57116,7 +57116,7 @@
         <v>0</v>
       </c>
       <c r="CV225" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW225" t="n">
         <v>15</v>
@@ -57140,10 +57140,10 @@
         <v>0</v>
       </c>
       <c r="DD225" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="DE225" t="n">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="DF225" t="n">
         <v>0</v>
@@ -57846,25 +57846,25 @@
         <v>360</v>
       </c>
       <c r="F229" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G229" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H229" t="n">
-        <v>77.753779697624</v>
+        <v>77.586206896552</v>
       </c>
       <c r="I229" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J229" t="n">
         <v>19</v>
       </c>
       <c r="K229" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L229" t="n">
-        <v>56</v>
+        <v>54.166666666667</v>
       </c>
       <c r="M229" t="n">
         <v>5</v>
@@ -57879,10 +57879,10 @@
         <v>0</v>
       </c>
       <c r="Q229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R229" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="S229" t="n">
         <v>17</v>
@@ -57900,10 +57900,10 @@
         <v>28.571428571429</v>
       </c>
       <c r="X229" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y229" t="n">
-        <v>52.41935483871</v>
+        <v>52.032520325203</v>
       </c>
       <c r="Z229" t="n">
         <v>1012</v>
@@ -57921,10 +57921,10 @@
         <v>0</v>
       </c>
       <c r="AE229" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF229" t="n">
-        <v>47.5</v>
+        <v>43.589743589744</v>
       </c>
       <c r="AG229" t="n">
         <v>7</v>
@@ -57966,7 +57966,7 @@
         <v>0</v>
       </c>
       <c r="AT229" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU229" t="n">
         <v>59</v>
@@ -57978,7 +57978,7 @@
         <v>0</v>
       </c>
       <c r="AX229" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AY229" t="n">
         <v>18</v>
@@ -58027,16 +58027,16 @@
         <v>92</v>
       </c>
       <c r="BO229" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BP229" t="n">
         <v>26</v>
       </c>
       <c r="BQ229" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BR229" t="n">
-        <v>53.846153846154</v>
+        <v>53.448275862069</v>
       </c>
       <c r="BS229" t="n">
         <v>1</v>
@@ -58075,7 +58075,7 @@
         <v>17</v>
       </c>
       <c r="CE229" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="CF229" t="n">
         <v>6</v>
@@ -58087,7 +58087,7 @@
         <v>11</v>
       </c>
       <c r="CI229" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="CJ229" t="n">
         <v>0</v>
@@ -58129,7 +58129,7 @@
         <v>19</v>
       </c>
       <c r="CW229" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CX229" t="n">
         <v>0</v>
@@ -58153,10 +58153,10 @@
         <v>114</v>
       </c>
       <c r="DE229" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="DF229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG229" t="inlineStr"/>
       <c r="DH229" t="inlineStr"/>
@@ -58577,19 +58577,19 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F233" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G233" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H233" t="n">
-        <v>75</v>
+        <v>72.972972972973</v>
       </c>
       <c r="I233" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -58604,7 +58604,7 @@
         <v>1</v>
       </c>
       <c r="N233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O233" t="n">
         <v>0</v>
@@ -58619,13 +58619,13 @@
         <v>0</v>
       </c>
       <c r="S233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T233" t="n">
         <v>0</v>
       </c>
       <c r="U233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V233" t="n">
         <v>1</v>
@@ -58637,10 +58637,10 @@
         <v>5</v>
       </c>
       <c r="Y233" t="n">
-        <v>33.333333333333</v>
+        <v>29.411764705882</v>
       </c>
       <c r="Z233" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AA233" t="n">
         <v>0</v>
@@ -58658,7 +58658,7 @@
         <v>2</v>
       </c>
       <c r="AF233" t="n">
-        <v>66.666666666667</v>
+        <v>50</v>
       </c>
       <c r="AG233" t="n">
         <v>0</v>
@@ -58670,7 +58670,7 @@
         <v>0</v>
       </c>
       <c r="AJ233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK233" t="n">
         <v>0</v>
@@ -58703,7 +58703,7 @@
         <v>0</v>
       </c>
       <c r="AU233" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV233" t="n">
         <v>3</v>
@@ -58712,7 +58712,7 @@
         <v>0</v>
       </c>
       <c r="AX233" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY233" t="n">
         <v>1</v>
@@ -58726,7 +58726,7 @@
         <v>0</v>
       </c>
       <c r="BD233" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE233" t="inlineStr">
         <is>
@@ -58734,23 +58734,23 @@
         </is>
       </c>
       <c r="BF233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="BK233" t="n">
         <v>5</v>
       </c>
-      <c r="BG233" t="n">
-        <v>6.475</v>
-      </c>
-      <c r="BH233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI233" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ233" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="BK233" t="n">
-        <v>4</v>
-      </c>
       <c r="BL233" t="n">
         <v>0</v>
       </c>
@@ -58758,10 +58758,10 @@
         <v>0</v>
       </c>
       <c r="BN233" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BO233" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP233" t="n">
         <v>4</v>
@@ -58770,7 +58770,7 @@
         <v>4</v>
       </c>
       <c r="BR233" t="n">
-        <v>36.363636363636</v>
+        <v>30.769230769231</v>
       </c>
       <c r="BS233" t="n">
         <v>0</v>
@@ -58791,7 +58791,7 @@
         <v>0</v>
       </c>
       <c r="BY233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ233" t="n">
         <v>0</v>
@@ -58806,10 +58806,10 @@
         <v>0</v>
       </c>
       <c r="CD233" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE233" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CF233" t="n">
         <v>0</v>
@@ -58821,7 +58821,7 @@
         <v>0</v>
       </c>
       <c r="CI233" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="CJ233" t="n">
         <v>0</v>
@@ -58884,10 +58884,10 @@
         <v>0</v>
       </c>
       <c r="DD233" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="DE233" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="DF233" t="n">
         <v>0</v>
@@ -59804,13 +59804,13 @@
         <v>514</v>
       </c>
       <c r="F237" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G237" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H237" t="n">
-        <v>85.953177257525</v>
+        <v>86.097152428811</v>
       </c>
       <c r="I237" t="n">
         <v>214</v>
@@ -59950,7 +59950,7 @@
         <v>0</v>
       </c>
       <c r="BD237" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BE237" t="inlineStr">
         <is>
@@ -60045,7 +60045,7 @@
         <v>19</v>
       </c>
       <c r="CI237" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CJ237" t="n">
         <v>0</v>
@@ -60111,7 +60111,7 @@
         <v>199</v>
       </c>
       <c r="DE237" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="DF237" t="n">
         <v>3</v>
@@ -60705,19 +60705,19 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F241" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G241" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H241" t="n">
-        <v>83.116883116883</v>
+        <v>82.71604938271599</v>
       </c>
       <c r="I241" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
@@ -60726,7 +60726,7 @@
         <v>4</v>
       </c>
       <c r="L241" t="n">
-        <v>30.769230769231</v>
+        <v>26.666666666667</v>
       </c>
       <c r="M241" t="n">
         <v>3</v>
@@ -60747,13 +60747,13 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T241" t="n">
         <v>4</v>
       </c>
       <c r="U241" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V241" t="n">
         <v>1</v>
@@ -60762,16 +60762,16 @@
         <v>14.285714285714</v>
       </c>
       <c r="X241" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y241" t="n">
-        <v>31.25</v>
+        <v>32.075471698113</v>
       </c>
       <c r="Z241" t="n">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="AA241" t="n">
-        <v>11.111111111111</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="AB241" t="n">
         <v>0</v>
@@ -60795,19 +60795,19 @@
         <v>0</v>
       </c>
       <c r="AI241" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ241" t="n">
         <v>5</v>
       </c>
       <c r="AK241" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL241" t="n">
         <v>0</v>
       </c>
       <c r="AM241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN241" t="n">
         <v>0</v>
@@ -60822,7 +60822,7 @@
         <v>0</v>
       </c>
       <c r="AR241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS241" t="n">
         <v>0</v>
@@ -60831,7 +60831,7 @@
         <v>10</v>
       </c>
       <c r="AU241" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AV241" t="n">
         <v>6</v>
@@ -60854,7 +60854,7 @@
         <v>0</v>
       </c>
       <c r="BD241" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE241" t="inlineStr">
         <is>
@@ -60862,22 +60862,22 @@
         </is>
       </c>
       <c r="BF241" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BG241" t="n">
-        <v>6.5384615384615</v>
+        <v>6.5428571428571</v>
       </c>
       <c r="BH241" t="n">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="BI241" t="n">
         <v>0</v>
       </c>
       <c r="BJ241" t="n">
-        <v>85</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="BK241" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BL241" t="n">
         <v>0</v>
@@ -60889,16 +60889,16 @@
         <v>18</v>
       </c>
       <c r="BO241" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="BP241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BQ241" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BR241" t="n">
-        <v>34.146341463415</v>
+        <v>34.782608695652</v>
       </c>
       <c r="BS241" t="n">
         <v>0</v>
@@ -60916,7 +60916,7 @@
         <v>0</v>
       </c>
       <c r="BX241" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BY241" t="n">
         <v>4</v>
@@ -60937,7 +60937,7 @@
         <v>8</v>
       </c>
       <c r="CE241" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="CF241" t="n">
         <v>2</v>
@@ -60949,7 +60949,7 @@
         <v>0</v>
       </c>
       <c r="CI241" t="n">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="CJ241" t="n">
         <v>1</v>
@@ -60991,7 +60991,7 @@
         <v>0</v>
       </c>
       <c r="CW241" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CX241" t="n">
         <v>0</v>
@@ -61003,7 +61003,7 @@
         <v>2</v>
       </c>
       <c r="DA241" t="n">
-        <v>100</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DB241" t="n">
         <v>0</v>
@@ -61015,7 +61015,7 @@
         <v>23</v>
       </c>
       <c r="DE241" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="DF241" t="n">
         <v>0</v>
@@ -64811,19 +64811,19 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F258" t="n">
         <v>29</v>
       </c>
       <c r="G258" t="n">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="H258" t="n">
-        <v>87.659574468085</v>
+        <v>88.671875</v>
       </c>
       <c r="I258" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="J258" t="n">
         <v>3</v>
@@ -64853,7 +64853,7 @@
         <v>9.090909090909101</v>
       </c>
       <c r="S258" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T258" t="n">
         <v>1</v>
@@ -64871,13 +64871,13 @@
         <v>15</v>
       </c>
       <c r="Y258" t="n">
-        <v>37.5</v>
+        <v>36.585365853659</v>
       </c>
       <c r="Z258" t="n">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="AA258" t="n">
-        <v>50</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AB258" t="n">
         <v>0</v>
@@ -64904,7 +64904,7 @@
         <v>5</v>
       </c>
       <c r="AJ258" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK258" t="n">
         <v>4</v>
@@ -64913,7 +64913,7 @@
         <v>1</v>
       </c>
       <c r="AM258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN258" t="n">
         <v>0</v>
@@ -64937,7 +64937,7 @@
         <v>11</v>
       </c>
       <c r="AU258" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV258" t="n">
         <v>3</v>
@@ -64960,7 +64960,7 @@
         <v>0</v>
       </c>
       <c r="BD258" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BE258" t="inlineStr">
         <is>
@@ -64968,22 +64968,22 @@
         </is>
       </c>
       <c r="BF258" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BG258" t="n">
-        <v>6.6125</v>
+        <v>6.6222222222222</v>
       </c>
       <c r="BH258" t="n">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="BI258" t="n">
         <v>0</v>
       </c>
       <c r="BJ258" t="n">
-        <v>52.9</v>
+        <v>59.6</v>
       </c>
       <c r="BK258" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BL258" t="n">
         <v>0</v>
@@ -64992,10 +64992,10 @@
         <v>0</v>
       </c>
       <c r="BN258" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BO258" t="n">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="BP258" t="n">
         <v>1</v>
@@ -65004,7 +65004,7 @@
         <v>10</v>
       </c>
       <c r="BR258" t="n">
-        <v>31.25</v>
+        <v>30.30303030303</v>
       </c>
       <c r="BS258" t="n">
         <v>0</v>
@@ -65025,7 +65025,7 @@
         <v>1</v>
       </c>
       <c r="BY258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ258" t="n">
         <v>0</v>
@@ -65043,10 +65043,10 @@
         <v>4</v>
       </c>
       <c r="CE258" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CF258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG258" t="n">
         <v>7</v>
@@ -65055,7 +65055,7 @@
         <v>3</v>
       </c>
       <c r="CI258" t="n">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="CJ258" t="n">
         <v>0</v>
@@ -65118,19 +65118,19 @@
         <v>0</v>
       </c>
       <c r="DD258" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="DE258" t="n">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="DF258" t="n">
         <v>0</v>
       </c>
       <c r="DG258" t="n">
-        <v>0.30610609</v>
+        <v>0.34794109</v>
       </c>
       <c r="DH258" t="n">
-        <v>0.1629</v>
+        <v>0.1812</v>
       </c>
     </row>
     <row r="259">
@@ -70349,19 +70349,19 @@
         <v>0</v>
       </c>
       <c r="E279" t="n">
-        <v>649</v>
+        <v>691</v>
       </c>
       <c r="F279" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G279" t="n">
-        <v>741</v>
+        <v>787</v>
       </c>
       <c r="H279" t="n">
-        <v>87.584345479082</v>
+        <v>87.801778907243</v>
       </c>
       <c r="I279" t="n">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="J279" t="n">
         <v>9</v>
@@ -70373,7 +70373,7 @@
         <v>50</v>
       </c>
       <c r="M279" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N279" t="n">
         <v>1</v>
@@ -70406,13 +70406,13 @@
         <v>42.857142857143</v>
       </c>
       <c r="X279" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y279" t="n">
-        <v>65.346534653465</v>
+        <v>66.01941747572801</v>
       </c>
       <c r="Z279" t="n">
-        <v>1106</v>
+        <v>1180</v>
       </c>
       <c r="AA279" t="n">
         <v>0</v>
@@ -70427,19 +70427,19 @@
         <v>0</v>
       </c>
       <c r="AE279" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF279" t="n">
-        <v>57.142857142857</v>
+        <v>56.451612903226</v>
       </c>
       <c r="AG279" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH279" t="n">
         <v>0</v>
       </c>
       <c r="AI279" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ279" t="n">
         <v>8</v>
@@ -70466,7 +70466,7 @@
         <v>0</v>
       </c>
       <c r="AR279" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS279" t="n">
         <v>0</v>
@@ -70484,10 +70484,10 @@
         <v>0</v>
       </c>
       <c r="AX279" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AY279" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ279" t="n">
         <v>0</v>
@@ -70498,7 +70498,7 @@
         <v>0</v>
       </c>
       <c r="BD279" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="BE279" t="inlineStr">
         <is>
@@ -70506,10 +70506,10 @@
         </is>
       </c>
       <c r="BF279" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BG279" t="n">
-        <v>7.1307692307692</v>
+        <v>7.1214285714286</v>
       </c>
       <c r="BH279" t="n">
         <v>0</v>
@@ -70518,10 +70518,10 @@
         <v>0</v>
       </c>
       <c r="BJ279" t="n">
-        <v>92.7</v>
+        <v>99.7</v>
       </c>
       <c r="BK279" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BL279" t="n">
         <v>3</v>
@@ -70530,19 +70530,19 @@
         <v>1</v>
       </c>
       <c r="BN279" t="n">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="BO279" t="n">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="BP279" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BQ279" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BR279" t="n">
-        <v>71.25</v>
+        <v>71.951219512195</v>
       </c>
       <c r="BS279" t="n">
         <v>0</v>
@@ -70581,19 +70581,19 @@
         <v>4</v>
       </c>
       <c r="CE279" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="CF279" t="n">
         <v>7</v>
       </c>
       <c r="CG279" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="CH279" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CI279" t="n">
-        <v>914</v>
+        <v>970</v>
       </c>
       <c r="CJ279" t="n">
         <v>1</v>
@@ -70614,7 +70614,7 @@
         <v>12</v>
       </c>
       <c r="CP279" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CQ279" t="n">
         <v>0</v>
@@ -70647,7 +70647,7 @@
         <v>21</v>
       </c>
       <c r="DA279" t="n">
-        <v>65.625</v>
+        <v>63.636363636364</v>
       </c>
       <c r="DB279" t="n">
         <v>0</v>
@@ -70656,10 +70656,10 @@
         <v>0</v>
       </c>
       <c r="DD279" t="n">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="DE279" t="n">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="DF279" t="n">
         <v>0</v>
@@ -70681,16 +70681,16 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="F280" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G280" t="n">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="H280" t="n">
-        <v>85.45</v>
+        <v>86.97</v>
       </c>
       <c r="I280" t="n">
         <v>6</v>
@@ -70740,7 +70740,7 @@
         <v>83.33</v>
       </c>
       <c r="Z280" t="n">
-        <v>1170</v>
+        <v>1260</v>
       </c>
       <c r="AA280" t="n">
         <v>0</v>
@@ -70755,10 +70755,10 @@
         <v>0</v>
       </c>
       <c r="AE280" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AF280" t="n">
-        <v>59.57</v>
+        <v>61.39</v>
       </c>
       <c r="AG280" t="n">
         <v>6</v>
@@ -70785,16 +70785,16 @@
         <v>0</v>
       </c>
       <c r="AO280" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP280" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ280" t="n">
         <v>1</v>
       </c>
       <c r="AR280" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS280" t="n">
         <v>0</v>
@@ -70810,7 +70810,7 @@
       </c>
       <c r="AW280" t="inlineStr"/>
       <c r="AX280" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AY280" t="n">
         <v>13</v>
@@ -70825,7 +70825,7 @@
         <v>0</v>
       </c>
       <c r="BC280" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD280" t="n">
         <v>48</v>
@@ -70836,10 +70836,10 @@
         </is>
       </c>
       <c r="BF280" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BG280" t="n">
-        <v>6.8923076923077</v>
+        <v>6.9</v>
       </c>
       <c r="BH280" t="inlineStr"/>
       <c r="BI280" t="inlineStr"/>
@@ -73958,13 +73958,13 @@
         <v>292</v>
       </c>
       <c r="F292" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G292" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H292" t="n">
-        <v>62.93</v>
+        <v>62.8</v>
       </c>
       <c r="I292" t="n">
         <v>24</v>
@@ -74011,7 +74011,7 @@
         <v>244</v>
       </c>
       <c r="Y292" t="n">
-        <v>45.95</v>
+        <v>46.04</v>
       </c>
       <c r="Z292" t="n">
         <v>1882</v>
@@ -74038,7 +74038,7 @@
         <v>9</v>
       </c>
       <c r="AH292" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI292" t="n">
         <v>49</v>
@@ -74073,7 +74073,7 @@
         <v>62</v>
       </c>
       <c r="AU292" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AV292" t="n">
         <v>36</v>
@@ -74413,16 +74413,16 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F294" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G294" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H294" t="n">
-        <v>81.369863013699</v>
+        <v>81.693989071038</v>
       </c>
       <c r="I294" t="n">
         <v>49</v>
@@ -74455,13 +74455,13 @@
         <v>66.666666666667</v>
       </c>
       <c r="S294" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T294" t="n">
         <v>1</v>
       </c>
       <c r="U294" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V294" t="n">
         <v>22</v>
@@ -74494,7 +74494,7 @@
         <v>15</v>
       </c>
       <c r="AF294" t="n">
-        <v>29.411764705882</v>
+        <v>30</v>
       </c>
       <c r="AG294" t="n">
         <v>43</v>
@@ -74548,7 +74548,7 @@
         <v>0</v>
       </c>
       <c r="AX294" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AY294" t="n">
         <v>7</v>
@@ -74591,13 +74591,13 @@
         <v>0</v>
       </c>
       <c r="BM294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN294" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BO294" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BP294" t="n">
         <v>13</v>
@@ -74624,7 +74624,7 @@
         <v>0</v>
       </c>
       <c r="BX294" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY294" t="n">
         <v>0</v>
@@ -74645,7 +74645,7 @@
         <v>3</v>
       </c>
       <c r="CE294" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CF294" t="n">
         <v>1</v>
@@ -74657,7 +74657,7 @@
         <v>9</v>
       </c>
       <c r="CI294" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="CJ294" t="n">
         <v>0</v>
@@ -74720,7 +74720,7 @@
         <v>0</v>
       </c>
       <c r="DD294" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="DE294" t="n">
         <v>165</v>
@@ -74745,28 +74745,28 @@
         <v>2</v>
       </c>
       <c r="E295" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F295" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G295" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H295" t="n">
-        <v>74.79674796748</v>
+        <v>74.62686567164199</v>
       </c>
       <c r="I295" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J295" t="n">
         <v>5</v>
       </c>
       <c r="K295" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L295" t="n">
-        <v>36.585365853659</v>
+        <v>38.095238095238</v>
       </c>
       <c r="M295" t="n">
         <v>6</v>
@@ -74787,13 +74787,13 @@
         <v>0</v>
       </c>
       <c r="S295" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T295" t="n">
         <v>5</v>
       </c>
       <c r="U295" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V295" t="n">
         <v>0</v>
@@ -74802,16 +74802,16 @@
         <v>0</v>
       </c>
       <c r="X295" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y295" t="n">
-        <v>28.301886792453</v>
+        <v>29.357798165138</v>
       </c>
       <c r="Z295" t="n">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="AA295" t="n">
-        <v>11.111111111111</v>
+        <v>10</v>
       </c>
       <c r="AB295" t="n">
         <v>0</v>
@@ -74835,10 +74835,10 @@
         <v>0</v>
       </c>
       <c r="AI295" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ295" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK295" t="n">
         <v>11</v>
@@ -74847,7 +74847,7 @@
         <v>3</v>
       </c>
       <c r="AM295" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN295" t="n">
         <v>0</v>
@@ -74871,7 +74871,7 @@
         <v>16</v>
       </c>
       <c r="AU295" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AV295" t="n">
         <v>7</v>
@@ -74883,7 +74883,7 @@
         <v>6</v>
       </c>
       <c r="AY295" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ295" t="n">
         <v>0</v>
@@ -74902,22 +74902,22 @@
         </is>
       </c>
       <c r="BF295" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG295" t="n">
-        <v>6.6090909090909</v>
+        <v>6.6</v>
       </c>
       <c r="BH295" t="n">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="BI295" t="n">
         <v>0</v>
       </c>
       <c r="BJ295" t="n">
-        <v>72.7</v>
+        <v>79.2</v>
       </c>
       <c r="BK295" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BL295" t="n">
         <v>0</v>
@@ -74926,19 +74926,19 @@
         <v>2</v>
       </c>
       <c r="BN295" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BO295" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="BP295" t="n">
         <v>10</v>
       </c>
       <c r="BQ295" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BR295" t="n">
-        <v>30.30303030303</v>
+        <v>31.372549019608</v>
       </c>
       <c r="BS295" t="n">
         <v>0</v>
@@ -74956,10 +74956,10 @@
         <v>0</v>
       </c>
       <c r="BX295" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BY295" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BZ295" t="n">
         <v>0</v>
@@ -74977,7 +74977,7 @@
         <v>20</v>
       </c>
       <c r="CE295" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="CF295" t="n">
         <v>0</v>
@@ -74989,7 +74989,7 @@
         <v>4</v>
       </c>
       <c r="CI295" t="n">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="CJ295" t="n">
         <v>0</v>
@@ -75007,7 +75007,7 @@
         <v>0</v>
       </c>
       <c r="CO295" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CP295" t="n">
         <v>1</v>
@@ -75031,7 +75031,7 @@
         <v>5</v>
       </c>
       <c r="CW295" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CX295" t="n">
         <v>0</v>
@@ -75052,10 +75052,10 @@
         <v>0</v>
       </c>
       <c r="DD295" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="DE295" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="DF295" t="n">
         <v>0</v>
@@ -76408,13 +76408,13 @@
         <v>212</v>
       </c>
       <c r="F300" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G300" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H300" t="n">
-        <v>72.35494880546101</v>
+        <v>72.602739726027</v>
       </c>
       <c r="I300" t="n">
         <v>89</v>
@@ -76483,10 +76483,10 @@
         <v>0</v>
       </c>
       <c r="AE300" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF300" t="n">
-        <v>82.142857142857</v>
+        <v>82.758620689655</v>
       </c>
       <c r="AG300" t="n">
         <v>8</v>
@@ -76540,7 +76540,7 @@
         <v>0</v>
       </c>
       <c r="AX300" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY300" t="n">
         <v>22</v>
@@ -76715,7 +76715,7 @@
         <v>76</v>
       </c>
       <c r="DE300" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="DF300" t="n">
         <v>3</v>
@@ -76737,28 +76737,28 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>274</v>
+        <v>362</v>
       </c>
       <c r="F301" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G301" t="n">
-        <v>336</v>
+        <v>433</v>
       </c>
       <c r="H301" t="n">
-        <v>81.54761904761899</v>
+        <v>83.60277136258701</v>
       </c>
       <c r="I301" t="n">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="J301" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K301" t="n">
         <v>3</v>
       </c>
       <c r="L301" t="n">
-        <v>50</v>
+        <v>42.857142857143</v>
       </c>
       <c r="M301" t="n">
         <v>8</v>
@@ -76773,34 +76773,34 @@
         <v>1</v>
       </c>
       <c r="Q301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R301" t="n">
-        <v>0</v>
+        <v>66.666666666667</v>
       </c>
       <c r="S301" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U301" t="n">
         <v>4</v>
       </c>
       <c r="V301" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="W301" t="n">
-        <v>52.631578947368</v>
+        <v>58.333333333333</v>
       </c>
       <c r="X301" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Y301" t="n">
-        <v>48.421052631579</v>
+        <v>48.076923076923</v>
       </c>
       <c r="Z301" t="n">
-        <v>678</v>
+        <v>768</v>
       </c>
       <c r="AA301" t="n">
         <v>0</v>
@@ -76815,10 +76815,10 @@
         <v>0</v>
       </c>
       <c r="AE301" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AF301" t="n">
-        <v>51.612903225806</v>
+        <v>59.459459459459</v>
       </c>
       <c r="AG301" t="n">
         <v>10</v>
@@ -76830,7 +76830,7 @@
         <v>11</v>
       </c>
       <c r="AJ301" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK301" t="n">
         <v>14</v>
@@ -76839,7 +76839,7 @@
         <v>0</v>
       </c>
       <c r="AM301" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN301" t="n">
         <v>0</v>
@@ -76854,28 +76854,28 @@
         <v>0</v>
       </c>
       <c r="AR301" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS301" t="n">
         <v>0</v>
       </c>
       <c r="AT301" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU301" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AV301" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW301" t="n">
         <v>0</v>
       </c>
       <c r="AX301" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AY301" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ301" t="n">
         <v>0</v>
@@ -76886,7 +76886,7 @@
         <v>2</v>
       </c>
       <c r="BD301" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BE301" t="inlineStr">
         <is>
@@ -76894,10 +76894,10 @@
         </is>
       </c>
       <c r="BF301" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG301" t="n">
-        <v>6.4333333333333</v>
+        <v>6.57</v>
       </c>
       <c r="BH301" t="n">
         <v>0</v>
@@ -76906,22 +76906,22 @@
         <v>0</v>
       </c>
       <c r="BJ301" t="n">
-        <v>57.9</v>
+        <v>65.7</v>
       </c>
       <c r="BK301" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BL301" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM301" t="n">
         <v>0</v>
       </c>
       <c r="BN301" t="n">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="BO301" t="n">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="BP301" t="n">
         <v>22</v>
@@ -76930,7 +76930,7 @@
         <v>36</v>
       </c>
       <c r="BR301" t="n">
-        <v>47.368421052632</v>
+        <v>45</v>
       </c>
       <c r="BS301" t="n">
         <v>0</v>
@@ -76951,7 +76951,7 @@
         <v>2</v>
       </c>
       <c r="BY301" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BZ301" t="n">
         <v>0</v>
@@ -76966,64 +76966,64 @@
         <v>0</v>
       </c>
       <c r="CD301" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE301" t="n">
+        <v>97</v>
+      </c>
+      <c r="CF301" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG301" t="n">
+        <v>28</v>
+      </c>
+      <c r="CH301" t="n">
+        <v>19</v>
+      </c>
+      <c r="CI301" t="n">
+        <v>562</v>
+      </c>
+      <c r="CJ301" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK301" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL301" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM301" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN301" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO301" t="n">
+        <v>11</v>
+      </c>
+      <c r="CP301" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ301" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR301" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS301" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT301" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU301" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV301" t="n">
         <v>7</v>
       </c>
-      <c r="CE301" t="n">
-        <v>84</v>
-      </c>
-      <c r="CF301" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG301" t="n">
-        <v>21</v>
-      </c>
-      <c r="CH301" t="n">
-        <v>12</v>
-      </c>
-      <c r="CI301" t="n">
-        <v>446</v>
-      </c>
-      <c r="CJ301" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK301" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL301" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM301" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN301" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO301" t="n">
-        <v>10</v>
-      </c>
-      <c r="CP301" t="n">
-        <v>2</v>
-      </c>
-      <c r="CQ301" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR301" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS301" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT301" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU301" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV301" t="n">
-        <v>5</v>
-      </c>
       <c r="CW301" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CX301" t="n">
         <v>0</v>
@@ -77044,10 +77044,10 @@
         <v>0</v>
       </c>
       <c r="DD301" t="n">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="DE301" t="n">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="DF301" t="n">
         <v>0</v>
@@ -77069,28 +77069,28 @@
         <v>6</v>
       </c>
       <c r="E302" t="n">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="F302" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G302" t="n">
-        <v>670</v>
+        <v>709</v>
       </c>
       <c r="H302" t="n">
-        <v>80.59999999999999</v>
+        <v>80.39</v>
       </c>
       <c r="I302" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J302" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K302" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L302" t="n">
-        <v>69.44</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="M302" t="inlineStr"/>
       <c r="N302" t="n">
@@ -77106,10 +77106,10 @@
         <v>11</v>
       </c>
       <c r="R302" t="n">
-        <v>39.29</v>
+        <v>35.48</v>
       </c>
       <c r="S302" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T302" t="n">
         <v>14</v>
@@ -77119,19 +77119,19 @@
         <v>3</v>
       </c>
       <c r="W302" t="n">
-        <v>17.65</v>
+        <v>15.79</v>
       </c>
       <c r="X302" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Y302" t="n">
-        <v>37.56</v>
+        <v>36.02</v>
       </c>
       <c r="Z302" t="n">
-        <v>1170</v>
+        <v>1260</v>
       </c>
       <c r="AA302" t="n">
-        <v>9.677</v>
+        <v>9.375</v>
       </c>
       <c r="AB302" t="n">
         <v>1</v>
@@ -77143,28 +77143,28 @@
         <v>2</v>
       </c>
       <c r="AE302" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF302" t="n">
-        <v>48.48</v>
+        <v>50</v>
       </c>
       <c r="AG302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH302" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI302" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ302" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK302" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM302" t="n">
         <v>2</v>
@@ -77182,23 +77182,23 @@
         <v>0</v>
       </c>
       <c r="AR302" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS302" t="n">
         <v>0</v>
       </c>
       <c r="AT302" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AU302" t="n">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="AV302" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW302" t="inlineStr"/>
       <c r="AX302" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AY302" t="n">
         <v>0</v>
@@ -77216,7 +77216,7 @@
         <v>0</v>
       </c>
       <c r="BD302" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="BE302" t="inlineStr">
         <is>
@@ -77224,13 +77224,13 @@
         </is>
       </c>
       <c r="BF302" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BG302" t="n">
-        <v>7.5538461538462</v>
+        <v>7.4928571428571</v>
       </c>
       <c r="BH302" t="n">
-        <v>409.66666666667</v>
+        <v>441.66666666667</v>
       </c>
       <c r="BI302" t="inlineStr"/>
       <c r="BJ302" t="inlineStr"/>
@@ -77859,19 +77859,19 @@
         <v>0</v>
       </c>
       <c r="E305" t="n">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="F305" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G305" t="n">
-        <v>608</v>
+        <v>684</v>
       </c>
       <c r="H305" t="n">
-        <v>87.335526315789</v>
+        <v>87.57309941520499</v>
       </c>
       <c r="I305" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J305" t="n">
         <v>2</v>
@@ -77880,13 +77880,13 @@
         <v>1</v>
       </c>
       <c r="L305" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M305" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N305" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O305" t="n">
         <v>0</v>
@@ -77901,28 +77901,28 @@
         <v>0</v>
       </c>
       <c r="S305" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U305" t="n">
         <v>4</v>
       </c>
       <c r="V305" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W305" t="n">
-        <v>66.666666666667</v>
+        <v>70</v>
       </c>
       <c r="X305" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Y305" t="n">
-        <v>64.556962025316</v>
+        <v>64.94845360824699</v>
       </c>
       <c r="Z305" t="n">
-        <v>949</v>
+        <v>1039</v>
       </c>
       <c r="AA305" t="n">
         <v>0</v>
@@ -77937,22 +77937,22 @@
         <v>0</v>
       </c>
       <c r="AE305" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AF305" t="n">
-        <v>38.271604938272</v>
+        <v>38.636363636364</v>
       </c>
       <c r="AG305" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH305" t="n">
         <v>1</v>
       </c>
       <c r="AI305" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ305" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK305" t="n">
         <v>5</v>
@@ -77961,7 +77961,7 @@
         <v>0</v>
       </c>
       <c r="AM305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN305" t="n">
         <v>0</v>
@@ -77976,7 +77976,7 @@
         <v>0</v>
       </c>
       <c r="AR305" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS305" t="n">
         <v>0</v>
@@ -77985,7 +77985,7 @@
         <v>1</v>
       </c>
       <c r="AU305" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AV305" t="n">
         <v>9</v>
@@ -77994,10 +77994,10 @@
         <v>0</v>
       </c>
       <c r="AX305" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AY305" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ305" t="n">
         <v>0</v>
@@ -78008,7 +78008,7 @@
         <v>36</v>
       </c>
       <c r="BD305" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BE305" t="inlineStr">
         <is>
@@ -78016,10 +78016,10 @@
         </is>
       </c>
       <c r="BF305" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BG305" t="n">
-        <v>6.9666666666667</v>
+        <v>7.0076923076923</v>
       </c>
       <c r="BH305" t="n">
         <v>0</v>
@@ -78028,10 +78028,10 @@
         <v>0</v>
       </c>
       <c r="BJ305" t="n">
-        <v>83.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="BK305" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BL305" t="n">
         <v>0</v>
@@ -78040,19 +78040,19 @@
         <v>0</v>
       </c>
       <c r="BN305" t="n">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="BO305" t="n">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="BP305" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BQ305" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="BR305" t="n">
-        <v>63.461538461538</v>
+        <v>62.686567164179</v>
       </c>
       <c r="BS305" t="n">
         <v>0</v>
@@ -78070,7 +78070,7 @@
         <v>0</v>
       </c>
       <c r="BX305" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BY305" t="n">
         <v>2</v>
@@ -78088,22 +78088,22 @@
         <v>0</v>
       </c>
       <c r="CD305" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CE305" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="CF305" t="n">
         <v>0</v>
       </c>
       <c r="CG305" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CH305" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CI305" t="n">
-        <v>817</v>
+        <v>922</v>
       </c>
       <c r="CJ305" t="n">
         <v>1</v>
@@ -78124,7 +78124,7 @@
         <v>13</v>
       </c>
       <c r="CP305" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CQ305" t="n">
         <v>0</v>
@@ -78145,7 +78145,7 @@
         <v>2</v>
       </c>
       <c r="CW305" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CX305" t="n">
         <v>0</v>
@@ -78154,10 +78154,10 @@
         <v>0</v>
       </c>
       <c r="CZ305" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="DA305" t="n">
-        <v>81.25</v>
+        <v>71.428571428571</v>
       </c>
       <c r="DB305" t="n">
         <v>0</v>
@@ -78166,10 +78166,10 @@
         <v>0</v>
       </c>
       <c r="DD305" t="n">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="DE305" t="n">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="DF305" t="n">
         <v>0</v>
@@ -83511,31 +83511,31 @@
         <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="F322" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G322" t="n">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="H322" t="n">
-        <v>79.23875432526</v>
+        <v>79.179810725552</v>
       </c>
       <c r="I322" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J322" t="n">
+        <v>22</v>
+      </c>
+      <c r="K322" t="n">
         <v>21</v>
       </c>
-      <c r="K322" t="n">
-        <v>20</v>
-      </c>
       <c r="L322" t="n">
-        <v>51.282051282051</v>
+        <v>48.837209302326</v>
       </c>
       <c r="M322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N322" t="n">
         <v>1</v>
@@ -83547,10 +83547,10 @@
         <v>0</v>
       </c>
       <c r="Q322" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R322" t="n">
-        <v>19.444444444444</v>
+        <v>20.512820512821</v>
       </c>
       <c r="S322" t="n">
         <v>19</v>
@@ -83562,19 +83562,19 @@
         <v>8</v>
       </c>
       <c r="V322" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W322" t="n">
-        <v>53.571428571429</v>
+        <v>53.333333333333</v>
       </c>
       <c r="X322" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Y322" t="n">
-        <v>48.951048951049</v>
+        <v>49.677419354839</v>
       </c>
       <c r="Z322" t="n">
-        <v>1048</v>
+        <v>1138</v>
       </c>
       <c r="AA322" t="n">
         <v>10.526315789474</v>
@@ -83592,16 +83592,16 @@
         <v>11</v>
       </c>
       <c r="AF322" t="n">
-        <v>50</v>
+        <v>45.833333333333</v>
       </c>
       <c r="AG322" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH322" t="n">
         <v>0</v>
       </c>
       <c r="AI322" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ322" t="n">
         <v>15</v>
@@ -83628,28 +83628,28 @@
         <v>0</v>
       </c>
       <c r="AR322" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS322" t="n">
         <v>0</v>
       </c>
       <c r="AT322" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AU322" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AV322" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW322" t="n">
         <v>0</v>
       </c>
       <c r="AX322" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY322" t="n">
         <v>22</v>
-      </c>
-      <c r="AY322" t="n">
-        <v>21</v>
       </c>
       <c r="AZ322" t="n">
         <v>0</v>
@@ -83660,7 +83660,7 @@
         <v>0</v>
       </c>
       <c r="BD322" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="BE322" t="inlineStr">
         <is>
@@ -83668,22 +83668,22 @@
         </is>
       </c>
       <c r="BF322" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BG322" t="n">
-        <v>7.1384615384615</v>
+        <v>7.1214285714286</v>
       </c>
       <c r="BH322" t="n">
-        <v>524</v>
+        <v>569</v>
       </c>
       <c r="BI322" t="n">
         <v>0</v>
       </c>
       <c r="BJ322" t="n">
-        <v>92.8</v>
+        <v>99.7</v>
       </c>
       <c r="BK322" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BL322" t="n">
         <v>6</v>
@@ -83692,19 +83692,19 @@
         <v>4</v>
       </c>
       <c r="BN322" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="BO322" t="n">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="BP322" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BQ322" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="BR322" t="n">
-        <v>47.826086956522</v>
+        <v>48.8</v>
       </c>
       <c r="BS322" t="n">
         <v>0</v>
@@ -83740,13 +83740,13 @@
         <v>0</v>
       </c>
       <c r="CD322" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CE322" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="CF322" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CG322" t="n">
         <v>14</v>
@@ -83755,7 +83755,7 @@
         <v>6</v>
       </c>
       <c r="CI322" t="n">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="CJ322" t="n">
         <v>1</v>
@@ -83776,7 +83776,7 @@
         <v>13</v>
       </c>
       <c r="CP322" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CQ322" t="n">
         <v>0</v>
@@ -83794,10 +83794,10 @@
         <v>0</v>
       </c>
       <c r="CV322" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CW322" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CX322" t="n">
         <v>0</v>
@@ -83809,7 +83809,7 @@
         <v>9</v>
       </c>
       <c r="DA322" t="n">
-        <v>56.25</v>
+        <v>52.941176470588</v>
       </c>
       <c r="DB322" t="n">
         <v>0</v>
@@ -83818,10 +83818,10 @@
         <v>0</v>
       </c>
       <c r="DD322" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="DE322" t="n">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="DF322" t="n">
         <v>1</v>
@@ -86345,19 +86345,19 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="F333" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G333" t="n">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="H333" t="n">
-        <v>80.708661417323</v>
+        <v>81.135531135531</v>
       </c>
       <c r="I333" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J333" t="n">
         <v>3</v>
@@ -86396,19 +86396,19 @@
         <v>4</v>
       </c>
       <c r="V333" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="W333" t="n">
-        <v>64.864864864865</v>
+        <v>68.292682926829</v>
       </c>
       <c r="X333" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Y333" t="n">
-        <v>68.041237113402</v>
+        <v>69.158878504673</v>
       </c>
       <c r="Z333" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="AA333" t="n">
         <v>12.5</v>
@@ -86423,25 +86423,25 @@
         <v>0</v>
       </c>
       <c r="AE333" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AF333" t="n">
-        <v>56.521739130435</v>
+        <v>57.142857142857</v>
       </c>
       <c r="AG333" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH333" t="n">
         <v>1</v>
       </c>
       <c r="AI333" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ333" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK333" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL333" t="n">
         <v>0</v>
@@ -86462,7 +86462,7 @@
         <v>0</v>
       </c>
       <c r="AR333" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS333" t="n">
         <v>0</v>
@@ -86471,7 +86471,7 @@
         <v>6</v>
       </c>
       <c r="AU333" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AV333" t="n">
         <v>13</v>
@@ -86480,10 +86480,10 @@
         <v>0</v>
       </c>
       <c r="AX333" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AY333" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AZ333" t="n">
         <v>0</v>
@@ -86494,7 +86494,7 @@
         <v>3</v>
       </c>
       <c r="BD333" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BE333" t="inlineStr">
         <is>
@@ -86502,22 +86502,22 @@
         </is>
       </c>
       <c r="BF333" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG333" t="n">
-        <v>7.2181818181818</v>
+        <v>7.1666666666667</v>
       </c>
       <c r="BH333" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="BI333" t="n">
         <v>0</v>
       </c>
       <c r="BJ333" t="n">
-        <v>79.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="BK333" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BL333" t="n">
         <v>1</v>
@@ -86526,19 +86526,19 @@
         <v>0</v>
       </c>
       <c r="BN333" t="n">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="BO333" t="n">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="BP333" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BQ333" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="BR333" t="n">
-        <v>70</v>
+        <v>69.69696969697</v>
       </c>
       <c r="BS333" t="n">
         <v>0</v>
@@ -86577,19 +86577,19 @@
         <v>3</v>
       </c>
       <c r="CE333" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="CF333" t="n">
         <v>1</v>
       </c>
       <c r="CG333" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="CH333" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="CI333" t="n">
-        <v>748</v>
+        <v>804</v>
       </c>
       <c r="CJ333" t="n">
         <v>0</v>
@@ -86607,10 +86607,10 @@
         <v>0</v>
       </c>
       <c r="CO333" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CP333" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CQ333" t="n">
         <v>0</v>
@@ -86640,10 +86640,10 @@
         <v>0</v>
       </c>
       <c r="CZ333" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DA333" t="n">
-        <v>34.782608695652</v>
+        <v>36</v>
       </c>
       <c r="DB333" t="n">
         <v>0</v>
@@ -86652,10 +86652,10 @@
         <v>0</v>
       </c>
       <c r="DD333" t="n">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="DE333" t="n">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="DF333" t="n">
         <v>3</v>
@@ -90607,19 +90607,19 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="F348" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G348" t="n">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="H348" t="n">
-        <v>83.28</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="I348" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J348" t="n">
         <v>0</v>
@@ -90654,19 +90654,19 @@
       </c>
       <c r="U348" t="inlineStr"/>
       <c r="V348" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W348" t="n">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="X348" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y348" t="n">
-        <v>68.75</v>
+        <v>65</v>
       </c>
       <c r="Z348" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="AA348" t="n">
         <v>0</v>
@@ -90681,16 +90681,16 @@
         <v>0</v>
       </c>
       <c r="AE348" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AF348" t="n">
-        <v>53.13</v>
+        <v>54.21</v>
       </c>
       <c r="AG348" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH348" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI348" t="n">
         <v>3</v>
@@ -90711,16 +90711,16 @@
         <v>0</v>
       </c>
       <c r="AO348" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AP348" t="n">
         <v>2</v>
       </c>
       <c r="AQ348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR348" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS348" t="n">
         <v>0</v>
@@ -90729,17 +90729,17 @@
         <v>0</v>
       </c>
       <c r="AU348" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW348" t="inlineStr"/>
       <c r="AX348" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AY348" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ348" t="n">
         <v>0</v>
@@ -90751,10 +90751,10 @@
         <v>0</v>
       </c>
       <c r="BC348" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BD348" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="BE348" t="inlineStr">
         <is>
@@ -90762,10 +90762,10 @@
         </is>
       </c>
       <c r="BF348" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BG348" t="n">
-        <v>7.71</v>
+        <v>7.7181818181818</v>
       </c>
       <c r="BH348" t="inlineStr"/>
       <c r="BI348" t="inlineStr"/>
@@ -90835,28 +90835,28 @@
         <v>2</v>
       </c>
       <c r="E349" t="n">
-        <v>563</v>
+        <v>615</v>
       </c>
       <c r="F349" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G349" t="n">
-        <v>630</v>
+        <v>686</v>
       </c>
       <c r="H349" t="n">
-        <v>89.37</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="I349" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J349" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K349" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L349" t="n">
-        <v>78.56999999999999</v>
+        <v>80</v>
       </c>
       <c r="M349" t="inlineStr"/>
       <c r="N349" t="n">
@@ -90875,29 +90875,29 @@
         <v>66.67</v>
       </c>
       <c r="S349" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T349" t="n">
         <v>2</v>
       </c>
       <c r="U349" t="inlineStr"/>
       <c r="V349" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W349" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="X349" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="Y349" t="n">
-        <v>34.74</v>
+        <v>35.47</v>
       </c>
       <c r="Z349" t="n">
-        <v>946</v>
+        <v>1045</v>
       </c>
       <c r="AA349" t="n">
-        <v>20</v>
+        <v>14.29</v>
       </c>
       <c r="AB349" t="n">
         <v>0</v>
@@ -90909,31 +90909,31 @@
         <v>0</v>
       </c>
       <c r="AE349" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AF349" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AG349" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH349" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI349" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ349" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK349" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL349" t="n">
         <v>1</v>
       </c>
       <c r="AM349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN349" t="n">
         <v>1</v>
@@ -90948,7 +90948,7 @@
         <v>0</v>
       </c>
       <c r="AR349" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS349" t="n">
         <v>0</v>
@@ -90957,14 +90957,14 @@
         <v>6</v>
       </c>
       <c r="AU349" t="n">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AV349" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW349" t="inlineStr"/>
       <c r="AX349" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AY349" t="n">
         <v>0</v>
@@ -90982,7 +90982,7 @@
         <v>0</v>
       </c>
       <c r="BD349" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="BE349" t="inlineStr">
         <is>
@@ -90990,13 +90990,13 @@
         </is>
       </c>
       <c r="BF349" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BG349" t="n">
-        <v>6.8</v>
+        <v>6.8538461538462</v>
       </c>
       <c r="BH349" t="n">
-        <v>946</v>
+        <v>1045</v>
       </c>
       <c r="BI349" t="inlineStr"/>
       <c r="BJ349" t="inlineStr"/>
@@ -91059,34 +91059,34 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="F350" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G350" t="n">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="H350" t="n">
-        <v>87.05</v>
+        <v>86.56</v>
       </c>
       <c r="I350" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J350" t="n">
         <v>6</v>
       </c>
       <c r="K350" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L350" t="n">
-        <v>44.44</v>
+        <v>45.45</v>
       </c>
       <c r="M350" t="inlineStr"/>
       <c r="N350" t="n">
@@ -91102,29 +91102,29 @@
         <v>4</v>
       </c>
       <c r="R350" t="n">
-        <v>40</v>
+        <v>36.36</v>
       </c>
       <c r="S350" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T350" t="n">
         <v>3</v>
       </c>
       <c r="U350" t="inlineStr"/>
       <c r="V350" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W350" t="n">
-        <v>47.06</v>
+        <v>52.63</v>
       </c>
       <c r="X350" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Y350" t="n">
-        <v>30.22</v>
+        <v>30.35</v>
       </c>
       <c r="Z350" t="n">
-        <v>810</v>
+        <v>908</v>
       </c>
       <c r="AA350" t="n">
         <v>0</v>
@@ -91139,7 +91139,7 @@
         <v>0</v>
       </c>
       <c r="AE350" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF350" t="n">
         <v>50</v>
@@ -91154,10 +91154,10 @@
         <v>7</v>
       </c>
       <c r="AJ350" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AK350" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AL350" t="n">
         <v>0</v>
@@ -91178,23 +91178,23 @@
         <v>0</v>
       </c>
       <c r="AR350" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS350" t="n">
         <v>0</v>
       </c>
       <c r="AT350" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU350" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AV350" t="n">
         <v>9</v>
       </c>
       <c r="AW350" t="inlineStr"/>
       <c r="AX350" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AY350" t="n">
         <v>0</v>
@@ -91203,16 +91203,16 @@
         <v>0</v>
       </c>
       <c r="BA350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC350" t="n">
         <v>0</v>
       </c>
       <c r="BD350" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="BE350" t="inlineStr">
         <is>
@@ -91220,10 +91220,10 @@
         </is>
       </c>
       <c r="BF350" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BG350" t="n">
-        <v>6.5666666666667</v>
+        <v>6.5181818181818</v>
       </c>
       <c r="BH350" t="inlineStr"/>
       <c r="BI350" t="inlineStr"/>
@@ -93206,13 +93206,13 @@
         <v>782</v>
       </c>
       <c r="F358" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G358" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H358" t="n">
-        <v>85.56</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="I358" t="n">
         <v>75</v>
@@ -93256,10 +93256,10 @@
         <v>69.01000000000001</v>
       </c>
       <c r="X358" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y358" t="n">
-        <v>52.14</v>
+        <v>51.75</v>
       </c>
       <c r="Z358" t="n">
         <v>1620</v>
@@ -93295,7 +93295,7 @@
         <v>20</v>
       </c>
       <c r="AK358" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL358" t="n">
         <v>0</v>
@@ -93325,7 +93325,7 @@
         <v>2</v>
       </c>
       <c r="AU358" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AV358" t="n">
         <v>22</v>
@@ -93350,7 +93350,7 @@
         <v>10</v>
       </c>
       <c r="BD358" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BE358" t="inlineStr">
         <is>
@@ -93720,7 +93720,7 @@
         <v>35.41</v>
       </c>
       <c r="Z360" t="n">
-        <v>2353</v>
+        <v>2441</v>
       </c>
       <c r="AA360" t="n">
         <v>33.33</v>
@@ -93772,7 +93772,7 @@
         <v>0</v>
       </c>
       <c r="AR360" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS360" t="n">
         <v>100</v>
@@ -93820,7 +93820,7 @@
         <v>7.2678571428571</v>
       </c>
       <c r="BH360" t="n">
-        <v>392.16666666667</v>
+        <v>406.83333333333</v>
       </c>
       <c r="BI360" t="n">
         <v>0</v>
@@ -93891,16 +93891,16 @@
         <v>0</v>
       </c>
       <c r="E361" t="n">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="F361" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G361" t="n">
-        <v>760</v>
+        <v>795</v>
       </c>
       <c r="H361" t="n">
-        <v>85.26000000000001</v>
+        <v>84.53</v>
       </c>
       <c r="I361" t="n">
         <v>69</v>
@@ -93938,19 +93938,19 @@
       </c>
       <c r="U361" t="inlineStr"/>
       <c r="V361" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="W361" t="n">
-        <v>59.26</v>
+        <v>60.92</v>
       </c>
       <c r="X361" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Y361" t="n">
-        <v>46.35</v>
+        <v>46.88</v>
       </c>
       <c r="Z361" t="n">
-        <v>1136</v>
+        <v>1226</v>
       </c>
       <c r="AA361" t="n">
         <v>0</v>
@@ -93965,31 +93965,31 @@
         <v>0</v>
       </c>
       <c r="AE361" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AF361" t="n">
-        <v>46.25</v>
+        <v>47.73</v>
       </c>
       <c r="AG361" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AH361" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI361" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ361" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK361" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL361" t="n">
         <v>1</v>
       </c>
       <c r="AM361" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN361" t="n">
         <v>0</v>
@@ -94004,24 +94004,24 @@
         <v>0</v>
       </c>
       <c r="AR361" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS361" t="inlineStr"/>
       <c r="AT361" t="n">
         <v>7</v>
       </c>
       <c r="AU361" t="n">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AV361" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AW361" t="inlineStr"/>
       <c r="AX361" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AY361" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ361" t="n">
         <v>0</v>
@@ -94036,7 +94036,7 @@
         <v>1</v>
       </c>
       <c r="BD361" t="n">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="BE361" t="inlineStr">
         <is>
@@ -94044,10 +94044,10 @@
         </is>
       </c>
       <c r="BF361" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BG361" t="n">
-        <v>7.0461538461538</v>
+        <v>7.0428571428571</v>
       </c>
       <c r="BH361" t="inlineStr"/>
       <c r="BI361" t="n">
@@ -94119,19 +94119,19 @@
         <v>0</v>
       </c>
       <c r="E362" t="n">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="F362" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G362" t="n">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="H362" t="n">
-        <v>89.15000000000001</v>
+        <v>88.83</v>
       </c>
       <c r="I362" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J362" t="n">
         <v>0</v>
@@ -94178,7 +94178,7 @@
         <v>66.67</v>
       </c>
       <c r="Z362" t="n">
-        <v>1260</v>
+        <v>1350</v>
       </c>
       <c r="AA362" t="n">
         <v>0</v>
@@ -94193,10 +94193,10 @@
         <v>0</v>
       </c>
       <c r="AE362" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AF362" t="n">
-        <v>71.81999999999999</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="AG362" t="n">
         <v>6</v>
@@ -94223,7 +94223,7 @@
         <v>0</v>
       </c>
       <c r="AO362" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AP362" t="n">
         <v>7</v>
@@ -94232,7 +94232,7 @@
         <v>1</v>
       </c>
       <c r="AR362" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS362" t="inlineStr"/>
       <c r="AT362" t="n">
@@ -94246,10 +94246,10 @@
       </c>
       <c r="AW362" t="inlineStr"/>
       <c r="AX362" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AY362" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ362" t="n">
         <v>0</v>
@@ -94261,10 +94261,10 @@
         <v>0</v>
       </c>
       <c r="BC362" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="BD362" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="BE362" t="inlineStr">
         <is>
@@ -94272,10 +94272,10 @@
         </is>
       </c>
       <c r="BF362" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BG362" t="n">
-        <v>7.3642857142857</v>
+        <v>7.3333333333333</v>
       </c>
       <c r="BH362" t="inlineStr"/>
       <c r="BI362" t="n">
@@ -94347,16 +94347,16 @@
         <v>2</v>
       </c>
       <c r="E363" t="n">
-        <v>815</v>
+        <v>855</v>
       </c>
       <c r="F363" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G363" t="n">
-        <v>913</v>
+        <v>967</v>
       </c>
       <c r="H363" t="n">
-        <v>89.266155531216</v>
+        <v>88.41778697001</v>
       </c>
       <c r="I363" t="n">
         <v>127</v>
@@ -94365,10 +94365,10 @@
         <v>9</v>
       </c>
       <c r="K363" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L363" t="n">
-        <v>66.666666666667</v>
+        <v>65</v>
       </c>
       <c r="M363" t="n">
         <v>18</v>
@@ -94386,7 +94386,7 @@
         <v>1</v>
       </c>
       <c r="R363" t="n">
-        <v>16.666666666667</v>
+        <v>14.285714285714</v>
       </c>
       <c r="S363" t="n">
         <v>10</v>
@@ -94398,19 +94398,19 @@
         <v>5</v>
       </c>
       <c r="V363" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W363" t="n">
-        <v>65</v>
+        <v>68.181818181818</v>
       </c>
       <c r="X363" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y363" t="n">
-        <v>66.433566433566</v>
+        <v>66.447368421053</v>
       </c>
       <c r="Z363" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="AA363" t="n">
         <v>10</v>
@@ -94425,22 +94425,22 @@
         <v>1</v>
       </c>
       <c r="AE363" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF363" t="n">
-        <v>58.536585365854</v>
+        <v>56.179775280899</v>
       </c>
       <c r="AG363" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AH363" t="n">
         <v>0</v>
       </c>
       <c r="AI363" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ363" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK363" t="n">
         <v>10</v>
@@ -94458,22 +94458,22 @@
         <v>0</v>
       </c>
       <c r="AP363" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ363" t="n">
         <v>0</v>
       </c>
       <c r="AR363" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS363" t="n">
         <v>0</v>
       </c>
       <c r="AT363" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU363" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AV363" t="n">
         <v>7</v>
@@ -94482,7 +94482,7 @@
         <v>0</v>
       </c>
       <c r="AX363" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AY363" t="n">
         <v>19</v>
@@ -94493,10 +94493,10 @@
       <c r="BA363" t="inlineStr"/>
       <c r="BB363" t="inlineStr"/>
       <c r="BC363" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD363" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BE363" t="inlineStr">
         <is>
@@ -94504,22 +94504,22 @@
         </is>
       </c>
       <c r="BF363" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG363" t="n">
-        <v>7.7363636363636</v>
+        <v>7.7333333333333</v>
       </c>
       <c r="BH363" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="BI363" t="n">
         <v>0</v>
       </c>
       <c r="BJ363" t="n">
-        <v>85.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="BK363" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BL363" t="n">
         <v>1</v>
@@ -94528,19 +94528,19 @@
         <v>1</v>
       </c>
       <c r="BN363" t="n">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="BO363" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="BP363" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BQ363" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BR363" t="n">
-        <v>66.666666666667</v>
+        <v>66.153846153846</v>
       </c>
       <c r="BS363" t="n">
         <v>0</v>
@@ -94579,19 +94579,19 @@
         <v>8</v>
       </c>
       <c r="CE363" t="n">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="CF363" t="n">
         <v>4</v>
       </c>
       <c r="CG363" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="CH363" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CI363" t="n">
-        <v>1161</v>
+        <v>1238</v>
       </c>
       <c r="CJ363" t="n">
         <v>1</v>
@@ -94633,7 +94633,7 @@
         <v>9</v>
       </c>
       <c r="CW363" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CX363" t="n">
         <v>0</v>
@@ -94642,10 +94642,10 @@
         <v>0</v>
       </c>
       <c r="CZ363" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DA363" t="n">
-        <v>57.5</v>
+        <v>58.536585365854</v>
       </c>
       <c r="DB363" t="n">
         <v>0</v>
@@ -94654,10 +94654,10 @@
         <v>0</v>
       </c>
       <c r="DD363" t="n">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="DE363" t="n">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="DF363" t="n">
         <v>4</v>

--- a/players_stats.xlsx
+++ b/players_stats.xlsx
@@ -3336,7 +3336,7 @@
         <v>22</v>
       </c>
       <c r="J13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K13" t="n">
         <v>49</v>
@@ -4630,15 +4630,9 @@
         <v>101</v>
       </c>
       <c r="BF18" t="inlineStr"/>
-      <c r="BG18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="inlineStr"/>
       <c r="BL18" t="inlineStr"/>
@@ -9229,28 +9223,28 @@
         <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F38" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G38" t="n">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="H38" t="n">
-        <v>75.98</v>
+        <v>76</v>
       </c>
       <c r="I38" t="n">
         <v>14</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K38" t="n">
         <v>17</v>
       </c>
       <c r="L38" t="n">
-        <v>89.47</v>
+        <v>85</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -9280,13 +9274,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W38" t="n">
-        <v>41.84</v>
+        <v>40.78</v>
       </c>
       <c r="X38" t="n">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="Y38" t="n">
         <v>14.29</v>
@@ -9301,10 +9295,10 @@
         <v>2</v>
       </c>
       <c r="AC38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD38" t="n">
-        <v>50</v>
+        <v>46.67</v>
       </c>
       <c r="AE38" t="n">
         <v>0</v>
@@ -9313,7 +9307,7 @@
         <v>2</v>
       </c>
       <c r="AG38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH38" t="n">
         <v>2</v>
@@ -9340,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ38" t="n">
         <v>0</v>
@@ -9349,13 +9343,13 @@
         <v>6</v>
       </c>
       <c r="AS38" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AT38" t="n">
         <v>2</v>
       </c>
       <c r="AU38" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AV38" t="n">
         <v>0</v>
@@ -9364,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="AX38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY38" t="n">
         <v>5</v>
@@ -9373,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="BA38" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB38" t="inlineStr">
         <is>
@@ -9381,13 +9375,13 @@
         </is>
       </c>
       <c r="BC38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD38" t="n">
-        <v>6.9666666666667</v>
+        <v>6.9461538461538</v>
       </c>
       <c r="BE38" t="n">
-        <v>254.5</v>
+        <v>286.5</v>
       </c>
       <c r="BF38" t="inlineStr"/>
       <c r="BG38" t="inlineStr"/>
@@ -15459,10 +15453,10 @@
         <v>26</v>
       </c>
       <c r="W62" t="n">
-        <v>38.24</v>
+        <v>37.68</v>
       </c>
       <c r="X62" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="Y62" t="n">
         <v>0</v>
@@ -15492,10 +15486,10 @@
         <v>3</v>
       </c>
       <c r="AH62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ62" t="n">
         <v>1</v>
@@ -15525,7 +15519,7 @@
         <v>7</v>
       </c>
       <c r="AS62" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AT62" t="n">
         <v>8</v>
@@ -15543,7 +15537,7 @@
         <v>5</v>
       </c>
       <c r="AY62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ62" t="n">
         <v>0</v>
@@ -15557,7 +15551,7 @@
         </is>
       </c>
       <c r="BC62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD62" t="n">
         <v>6.5333333333333</v>
@@ -15633,16 +15627,16 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="F63" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G63" t="n">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="H63" t="n">
-        <v>86.29000000000001</v>
+        <v>86.75</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -15678,19 +15672,19 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U63" t="n">
-        <v>87.5</v>
+        <v>88.89</v>
       </c>
       <c r="V63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W63" t="n">
-        <v>58.33</v>
+        <v>57.14</v>
       </c>
       <c r="X63" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="Y63" t="n">
         <v>0</v>
@@ -15705,10 +15699,10 @@
         <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AD63" t="n">
-        <v>65.70999999999999</v>
+        <v>66.88</v>
       </c>
       <c r="AE63" t="n">
         <v>7</v>
@@ -15717,7 +15711,7 @@
         <v>3</v>
       </c>
       <c r="AG63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH63" t="n">
         <v>0</v>
@@ -15735,7 +15729,7 @@
         <v>0</v>
       </c>
       <c r="AM63" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AN63" t="n">
         <v>0</v>
@@ -15744,7 +15738,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ63" t="n">
         <v>0</v>
@@ -15753,16 +15747,16 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT63" t="n">
         <v>1</v>
       </c>
       <c r="AU63" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="AV63" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AW63" t="n">
         <v>0</v>
@@ -15774,10 +15768,10 @@
         <v>0</v>
       </c>
       <c r="AZ63" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BA63" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="BB63" t="inlineStr">
         <is>
@@ -15785,10 +15779,10 @@
         </is>
       </c>
       <c r="BC63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD63" t="n">
-        <v>7.2</v>
+        <v>7.1615384615385</v>
       </c>
       <c r="BE63" t="n">
         <v>0</v>
@@ -15859,34 +15853,34 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F64" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G64" t="n">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="H64" t="n">
-        <v>71.73</v>
+        <v>71.8</v>
       </c>
       <c r="I64" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L64" t="n">
-        <v>72.73</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -15901,10 +15895,10 @@
         <v>8</v>
       </c>
       <c r="Q64" t="n">
-        <v>30.77</v>
+        <v>29.63</v>
       </c>
       <c r="R64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -15913,16 +15907,16 @@
         <v>14</v>
       </c>
       <c r="U64" t="n">
-        <v>56</v>
+        <v>51.85</v>
       </c>
       <c r="V64" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="W64" t="n">
-        <v>34.46</v>
+        <v>34.76</v>
       </c>
       <c r="X64" t="n">
-        <v>941</v>
+        <v>1031</v>
       </c>
       <c r="Y64" t="n">
         <v>0</v>
@@ -15937,16 +15931,16 @@
         <v>0</v>
       </c>
       <c r="AC64" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD64" t="n">
-        <v>25</v>
+        <v>30.3</v>
       </c>
       <c r="AE64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG64" t="n">
         <v>16</v>
@@ -15955,46 +15949,46 @@
         <v>18</v>
       </c>
       <c r="AI64" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>122</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU64" t="n">
         <v>33</v>
       </c>
-      <c r="AJ64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>116</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>28</v>
-      </c>
       <c r="AV64" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AW64" t="n">
         <v>0</v>
@@ -16009,7 +16003,7 @@
         <v>0</v>
       </c>
       <c r="BA64" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="BB64" t="inlineStr">
         <is>
@@ -16017,10 +16011,10 @@
         </is>
       </c>
       <c r="BC64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD64" t="n">
-        <v>6.4181818181818</v>
+        <v>6.425</v>
       </c>
       <c r="BE64" t="n">
         <v>332</v>
@@ -21021,19 +21015,19 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="F82" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G82" t="n">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="H82" t="n">
-        <v>84.50704225352101</v>
+        <v>83.046683046683</v>
       </c>
       <c r="I82" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="J82" t="n">
         <v>6</v>
@@ -21042,7 +21036,7 @@
         <v>6</v>
       </c>
       <c r="L82" t="n">
-        <v>42.857142857143</v>
+        <v>37.5</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
@@ -21057,31 +21051,31 @@
         <v>4</v>
       </c>
       <c r="Q82" t="n">
-        <v>17.391304347826</v>
+        <v>15.384615384615</v>
       </c>
       <c r="R82" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S82" t="n">
+        <v>8</v>
+      </c>
+      <c r="T82" t="n">
         <v>6</v>
       </c>
-      <c r="T82" t="n">
-        <v>5</v>
-      </c>
       <c r="U82" t="n">
-        <v>41.666666666667</v>
+        <v>42.857142857143</v>
       </c>
       <c r="V82" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="W82" t="n">
-        <v>46.511627906977</v>
+        <v>50.467289719626</v>
       </c>
       <c r="X82" t="n">
-        <v>596</v>
+        <v>743</v>
       </c>
       <c r="Y82" t="n">
-        <v>10</v>
+        <v>7.6923076923077</v>
       </c>
       <c r="Z82" t="n">
         <v>0</v>
@@ -21093,22 +21087,22 @@
         <v>0</v>
       </c>
       <c r="AC82" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>39.393939393939</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="n">
         <v>12</v>
       </c>
-      <c r="AD82" t="n">
-        <v>46.153846153846</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>10</v>
-      </c>
       <c r="AH82" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI82" t="n">
         <v>9</v>
@@ -21117,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="AK82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL82" t="n">
         <v>0</v>
@@ -21132,25 +21126,25 @@
         <v>0</v>
       </c>
       <c r="AP82" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ82" t="n">
         <v>0</v>
       </c>
       <c r="AR82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS82" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AT82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU82" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AV82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW82" t="n">
         <v>0</v>
@@ -21161,7 +21155,7 @@
         <v>0</v>
       </c>
       <c r="BA82" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="BB82" t="inlineStr">
         <is>
@@ -21169,19 +21163,19 @@
         </is>
       </c>
       <c r="BC82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD82" t="n">
-        <v>6.8769230769231</v>
+        <v>6.9133333333333</v>
       </c>
       <c r="BE82" t="n">
-        <v>596</v>
+        <v>743</v>
       </c>
       <c r="BF82" t="n">
         <v>0</v>
       </c>
       <c r="BG82" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BH82" t="n">
         <v>2</v>
@@ -21190,10 +21184,10 @@
         <v>0</v>
       </c>
       <c r="BJ82" t="n">
-        <v>89.40000000000001</v>
+        <v>103.7</v>
       </c>
       <c r="BK82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BL82" t="n">
         <v>0</v>
@@ -21202,19 +21196,19 @@
         <v>0</v>
       </c>
       <c r="BN82" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="BO82" t="n">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="BP82" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="BQ82" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="BR82" t="n">
-        <v>47.297297297297</v>
+        <v>51.612903225806</v>
       </c>
       <c r="BS82" t="n">
         <v>0</v>
@@ -21235,7 +21229,7 @@
         <v>4</v>
       </c>
       <c r="BY82" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BZ82" t="n">
         <v>0</v>
@@ -21250,22 +21244,22 @@
         <v>0</v>
       </c>
       <c r="CD82" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CE82" t="n">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="CF82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CG82" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="CH82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CI82" t="n">
-        <v>518</v>
+        <v>610</v>
       </c>
       <c r="CJ82" t="n">
         <v>0</v>
@@ -21283,7 +21277,7 @@
         <v>0</v>
       </c>
       <c r="CO82" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CP82" t="n">
         <v>1</v>
@@ -21307,7 +21301,7 @@
         <v>6</v>
       </c>
       <c r="CW82" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CX82" t="n">
         <v>0</v>
@@ -21316,10 +21310,10 @@
         <v>0</v>
       </c>
       <c r="CZ82" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="DA82" t="n">
-        <v>68.421052631579</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DB82" t="n">
         <v>0</v>
@@ -21328,10 +21322,10 @@
         <v>0</v>
       </c>
       <c r="DD82" t="n">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="DE82" t="n">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="DF82" t="n">
         <v>1</v>
@@ -24707,28 +24701,28 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="F96" t="n">
         <v>60</v>
       </c>
       <c r="G96" t="n">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="H96" t="n">
-        <v>88.45999999999999</v>
+        <v>89.67</v>
       </c>
       <c r="I96" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L96" t="n">
-        <v>66.67</v>
+        <v>70</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
@@ -24740,10 +24734,10 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q96" t="n">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="R96" t="n">
         <v>7</v>
@@ -24758,13 +24752,13 @@
         <v>18.75</v>
       </c>
       <c r="V96" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W96" t="n">
-        <v>34.9</v>
+        <v>34.84</v>
       </c>
       <c r="X96" t="n">
-        <v>1253</v>
+        <v>1342</v>
       </c>
       <c r="Y96" t="n">
         <v>0</v>
@@ -24779,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="AC96" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD96" t="n">
-        <v>51.28</v>
+        <v>53.66</v>
       </c>
       <c r="AE96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF96" t="n">
         <v>6</v>
@@ -24794,7 +24788,7 @@
         <v>19</v>
       </c>
       <c r="AH96" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI96" t="n">
         <v>31</v>
@@ -24803,7 +24797,7 @@
         <v>0</v>
       </c>
       <c r="AK96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL96" t="n">
         <v>1</v>
@@ -24818,22 +24812,22 @@
         <v>0</v>
       </c>
       <c r="AP96" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ96" t="n">
         <v>0</v>
       </c>
       <c r="AR96" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS96" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AT96" t="n">
         <v>13</v>
       </c>
       <c r="AU96" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AV96" t="n">
         <v>0</v>
@@ -24842,7 +24836,7 @@
         <v>0</v>
       </c>
       <c r="AX96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY96" t="n">
         <v>0</v>
@@ -24851,7 +24845,7 @@
         <v>0</v>
       </c>
       <c r="BA96" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="BB96" t="inlineStr">
         <is>
@@ -24859,10 +24853,10 @@
         </is>
       </c>
       <c r="BC96" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD96" t="n">
-        <v>6.8428571428571</v>
+        <v>6.8733333333333</v>
       </c>
       <c r="BE96" t="inlineStr"/>
       <c r="BF96" t="inlineStr"/>
@@ -24935,16 +24929,16 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F97" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G97" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H97" t="n">
-        <v>76.53061224489799</v>
+        <v>76.92307692307701</v>
       </c>
       <c r="I97" t="n">
         <v>26</v>
@@ -24953,10 +24947,10 @@
         <v>4</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -24986,13 +24980,13 @@
         <v>31.578947368421</v>
       </c>
       <c r="V97" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W97" t="n">
-        <v>27.142857142857</v>
+        <v>27.027027027027</v>
       </c>
       <c r="X97" t="n">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="Y97" t="n">
         <v>0</v>
@@ -25022,7 +25016,7 @@
         <v>5</v>
       </c>
       <c r="AH97" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI97" t="n">
         <v>3</v>
@@ -25055,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="AS97" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AT97" t="n">
         <v>26</v>
@@ -25064,7 +25058,7 @@
         <v>5</v>
       </c>
       <c r="AV97" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW97" t="n">
         <v>0</v>
@@ -25075,7 +25069,7 @@
         <v>0</v>
       </c>
       <c r="BA97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB97" t="inlineStr">
         <is>
@@ -25083,10 +25077,10 @@
         </is>
       </c>
       <c r="BC97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD97" t="n">
-        <v>6.5727272727273</v>
+        <v>6.5416666666667</v>
       </c>
       <c r="BE97" t="n">
         <v>0</v>
@@ -25104,31 +25098,31 @@
         <v>0</v>
       </c>
       <c r="BJ97" t="n">
-        <v>72.3</v>
+        <v>78.5</v>
       </c>
       <c r="BK97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BL97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM97" t="n">
         <v>2</v>
       </c>
       <c r="BN97" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="BO97" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BP97" t="n">
         <v>2</v>
       </c>
       <c r="BQ97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR97" t="n">
-        <v>21.875</v>
+        <v>22.222222222222</v>
       </c>
       <c r="BS97" t="n">
         <v>0</v>
@@ -25164,10 +25158,10 @@
         <v>0</v>
       </c>
       <c r="CD97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CE97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="CF97" t="n">
         <v>0</v>
@@ -25179,7 +25173,7 @@
         <v>1</v>
       </c>
       <c r="CI97" t="n">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="CJ97" t="n">
         <v>1</v>
@@ -25197,7 +25191,7 @@
         <v>0</v>
       </c>
       <c r="CO97" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CP97" t="n">
         <v>1</v>
@@ -25221,7 +25215,7 @@
         <v>4</v>
       </c>
       <c r="CW97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CX97" t="n">
         <v>0</v>
@@ -25242,7 +25236,7 @@
         <v>0</v>
       </c>
       <c r="DD97" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="DE97" t="n">
         <v>59</v>
@@ -27879,16 +27873,16 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G109" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H109" t="n">
-        <v>91.891891891892</v>
+        <v>91.764705882353</v>
       </c>
       <c r="I109" t="n">
         <v>9</v>
@@ -27930,13 +27924,13 @@
         <v>75</v>
       </c>
       <c r="V109" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W109" t="n">
-        <v>68.421052631579</v>
+        <v>68.181818181818</v>
       </c>
       <c r="X109" t="n">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="Y109" t="n">
         <v>0</v>
@@ -27969,7 +27963,7 @@
         <v>2</v>
       </c>
       <c r="AI109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ109" t="n">
         <v>0</v>
@@ -27999,7 +27993,7 @@
         <v>0</v>
       </c>
       <c r="AS109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT109" t="n">
         <v>2</v>
@@ -28027,10 +28021,10 @@
         </is>
       </c>
       <c r="BC109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD109" t="n">
-        <v>6.62</v>
+        <v>6.6166666666667</v>
       </c>
       <c r="BE109" t="n">
         <v>0</v>
@@ -28048,10 +28042,10 @@
         <v>0</v>
       </c>
       <c r="BJ109" t="n">
-        <v>33.1</v>
+        <v>39.7</v>
       </c>
       <c r="BK109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL109" t="n">
         <v>0</v>
@@ -28060,19 +28054,19 @@
         <v>0</v>
       </c>
       <c r="BN109" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="BO109" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BP109" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BQ109" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BR109" t="n">
-        <v>63.636363636364</v>
+        <v>64.28571428571399</v>
       </c>
       <c r="BS109" t="n">
         <v>0</v>
@@ -28111,7 +28105,7 @@
         <v>1</v>
       </c>
       <c r="CE109" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="CF109" t="n">
         <v>0</v>
@@ -28123,7 +28117,7 @@
         <v>3</v>
       </c>
       <c r="CI109" t="n">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="CJ109" t="n">
         <v>0</v>
@@ -28174,10 +28168,10 @@
         <v>0</v>
       </c>
       <c r="CZ109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DA109" t="n">
-        <v>60</v>
+        <v>57.142857142857</v>
       </c>
       <c r="DB109" t="n">
         <v>0</v>
@@ -28186,10 +28180,10 @@
         <v>0</v>
       </c>
       <c r="DD109" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="DE109" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="DF109" t="n">
         <v>0</v>
@@ -28543,19 +28537,19 @@
         <v>2</v>
       </c>
       <c r="E111" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F111" t="n">
         <v>19</v>
       </c>
       <c r="G111" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H111" t="n">
-        <v>66.071428571429</v>
+        <v>67.241379310345</v>
       </c>
       <c r="I111" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J111" t="n">
         <v>3</v>
@@ -28588,19 +28582,19 @@
         <v>4</v>
       </c>
       <c r="T111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U111" t="n">
-        <v>11.111111111111</v>
+        <v>20</v>
       </c>
       <c r="V111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W111" t="n">
-        <v>30.434782608696</v>
+        <v>33.333333333333</v>
       </c>
       <c r="X111" t="n">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="Y111" t="n">
         <v>12.5</v>
@@ -28672,7 +28666,7 @@
         <v>4</v>
       </c>
       <c r="AV111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW111" t="n">
         <v>0</v>
@@ -28691,13 +28685,13 @@
         </is>
       </c>
       <c r="BC111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD111" t="n">
-        <v>6.625</v>
+        <v>6.6153846153846</v>
       </c>
       <c r="BE111" t="n">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="BF111" t="n">
         <v>0</v>
@@ -28712,10 +28706,10 @@
         <v>0</v>
       </c>
       <c r="BJ111" t="n">
-        <v>79.5</v>
+        <v>86</v>
       </c>
       <c r="BK111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BL111" t="n">
         <v>1</v>
@@ -28724,10 +28718,10 @@
         <v>0</v>
       </c>
       <c r="BN111" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BO111" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BP111" t="n">
         <v>2</v>
@@ -28787,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="CI111" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CJ111" t="n">
         <v>0</v>
@@ -28805,7 +28799,7 @@
         <v>0</v>
       </c>
       <c r="CO111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CP111" t="n">
         <v>0</v>
@@ -28850,10 +28844,10 @@
         <v>0</v>
       </c>
       <c r="DD111" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="DE111" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="DF111" t="n">
         <v>0</v>
@@ -28875,22 +28869,22 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="F112" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G112" t="n">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="H112" t="n">
-        <v>55.440414507772</v>
+        <v>56.968215158924</v>
       </c>
       <c r="I112" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -28899,7 +28893,7 @@
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112" t="n">
         <v>0</v>
@@ -28920,19 +28914,19 @@
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U112" t="n">
-        <v>92.30769230769199</v>
+        <v>92.857142857143</v>
       </c>
       <c r="V112" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W112" t="n">
-        <v>85</v>
+        <v>86.363636363636</v>
       </c>
       <c r="X112" t="n">
-        <v>1170</v>
+        <v>1260</v>
       </c>
       <c r="Y112" t="n">
         <v>0</v>
@@ -28947,10 +28941,10 @@
         <v>0</v>
       </c>
       <c r="AC112" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AD112" t="n">
-        <v>28.991596638655</v>
+        <v>30.364372469636</v>
       </c>
       <c r="AE112" t="n">
         <v>20</v>
@@ -28959,7 +28953,7 @@
         <v>0</v>
       </c>
       <c r="AG112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH112" t="n">
         <v>0</v>
@@ -28977,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="AM112" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN112" t="n">
         <v>4</v>
@@ -28986,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="AP112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ112" t="n">
         <v>0</v>
@@ -29001,10 +28995,10 @@
         <v>1</v>
       </c>
       <c r="AU112" t="n">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AV112" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW112" t="n">
         <v>0</v>
@@ -29012,10 +29006,10 @@
       <c r="AX112" t="inlineStr"/>
       <c r="AY112" t="inlineStr"/>
       <c r="AZ112" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BA112" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="BB112" t="inlineStr">
         <is>
@@ -29023,10 +29017,10 @@
         </is>
       </c>
       <c r="BC112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD112" t="n">
-        <v>6.9923076923077</v>
+        <v>6.9642857142857</v>
       </c>
       <c r="BE112" t="n">
         <v>0</v>
@@ -29044,10 +29038,10 @@
         <v>0</v>
       </c>
       <c r="BJ112" t="n">
-        <v>90.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="BK112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BL112" t="n">
         <v>0</v>
@@ -29056,19 +29050,19 @@
         <v>0</v>
       </c>
       <c r="BN112" t="n">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="BO112" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BP112" t="n">
         <v>2</v>
       </c>
       <c r="BQ112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR112" t="n">
-        <v>71.428571428571</v>
+        <v>75</v>
       </c>
       <c r="BS112" t="n">
         <v>0</v>
@@ -29107,19 +29101,19 @@
         <v>1</v>
       </c>
       <c r="CE112" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CF112" t="n">
         <v>0</v>
       </c>
       <c r="CG112" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CH112" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CI112" t="n">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="CJ112" t="n">
         <v>0</v>
@@ -29131,13 +29125,13 @@
         <v>0</v>
       </c>
       <c r="CM112" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CN112" t="n">
         <v>15</v>
       </c>
       <c r="CO112" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CP112" t="n">
         <v>3</v>
@@ -29152,13 +29146,13 @@
         <v>7</v>
       </c>
       <c r="CT112" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CU112" t="n">
         <v>0</v>
       </c>
       <c r="CV112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW112" t="n">
         <v>1</v>
@@ -29182,10 +29176,10 @@
         <v>1</v>
       </c>
       <c r="DD112" t="n">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="DE112" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="DF112" t="n">
         <v>2</v>
@@ -29539,16 +29533,16 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="F114" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G114" t="n">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="H114" t="n">
-        <v>81.44044321329601</v>
+        <v>82.291666666667</v>
       </c>
       <c r="I114" t="n">
         <v>54</v>
@@ -29572,10 +29566,10 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q114" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R114" t="n">
         <v>6</v>
@@ -29584,19 +29578,19 @@
         <v>1</v>
       </c>
       <c r="T114" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U114" t="n">
-        <v>42.857142857143</v>
+        <v>43.478260869565</v>
       </c>
       <c r="V114" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W114" t="n">
-        <v>57.777777777778</v>
+        <v>57.446808510638</v>
       </c>
       <c r="X114" t="n">
-        <v>846</v>
+        <v>936</v>
       </c>
       <c r="Y114" t="n">
         <v>0</v>
@@ -29611,13 +29605,13 @@
         <v>0</v>
       </c>
       <c r="AC114" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AD114" t="n">
-        <v>46.987951807229</v>
+        <v>47.674418604651</v>
       </c>
       <c r="AE114" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AF114" t="n">
         <v>0</v>
@@ -29650,25 +29644,25 @@
         <v>0</v>
       </c>
       <c r="AP114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ114" t="n">
         <v>0</v>
       </c>
       <c r="AR114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS114" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU114" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AV114" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW114" t="n">
         <v>0</v>
@@ -29679,7 +29673,7 @@
         <v>0</v>
       </c>
       <c r="BA114" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB114" t="inlineStr">
         <is>
@@ -29687,10 +29681,10 @@
         </is>
       </c>
       <c r="BC114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD114" t="n">
-        <v>6.95</v>
+        <v>6.9363636363636</v>
       </c>
       <c r="BE114" t="n">
         <v>0</v>
@@ -29699,7 +29693,7 @@
         <v>1</v>
       </c>
       <c r="BG114" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BH114" t="n">
         <v>4</v>
@@ -29708,10 +29702,10 @@
         <v>0</v>
       </c>
       <c r="BJ114" t="n">
-        <v>69.5</v>
+        <v>76.3</v>
       </c>
       <c r="BK114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BL114" t="n">
         <v>1</v>
@@ -29720,10 +29714,10 @@
         <v>2</v>
       </c>
       <c r="BN114" t="n">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="BO114" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="BP114" t="n">
         <v>13</v>
@@ -29771,7 +29765,7 @@
         <v>1</v>
       </c>
       <c r="CE114" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CF114" t="n">
         <v>0</v>
@@ -29780,10 +29774,10 @@
         <v>54</v>
       </c>
       <c r="CH114" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="CI114" t="n">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="CJ114" t="n">
         <v>2</v>
@@ -29801,7 +29795,7 @@
         <v>0</v>
       </c>
       <c r="CO114" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CP114" t="n">
         <v>1</v>
@@ -29846,10 +29840,10 @@
         <v>0</v>
       </c>
       <c r="DD114" t="n">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="DE114" t="n">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="DF114" t="n">
         <v>0</v>
@@ -42128,7 +42122,7 @@
         <v>20</v>
       </c>
       <c r="BD167" t="n">
-        <v>6.6380952380952</v>
+        <v>6.6181818181818</v>
       </c>
       <c r="BE167" t="n">
         <v>700.5</v>
@@ -42979,7 +42973,7 @@
         <v>59</v>
       </c>
       <c r="AI171" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AJ171" t="n">
         <v>9</v>
@@ -43278,15 +43272,9 @@
       </c>
       <c r="BE172" t="inlineStr"/>
       <c r="BF172" t="inlineStr"/>
-      <c r="BG172" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH172" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI172" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG172" t="inlineStr"/>
+      <c r="BH172" t="inlineStr"/>
+      <c r="BI172" t="inlineStr"/>
       <c r="BJ172" t="inlineStr"/>
       <c r="BK172" t="inlineStr"/>
       <c r="BL172" t="inlineStr"/>
@@ -45108,7 +45096,7 @@
         <v>33</v>
       </c>
       <c r="BD180" t="n">
-        <v>6.5875</v>
+        <v>6.5666666666667</v>
       </c>
       <c r="BE180" t="n">
         <v>1689</v>
@@ -46106,7 +46094,7 @@
         <v>906</v>
       </c>
       <c r="H185" t="n">
-        <v>80.794701986755</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="I185" t="n">
         <v>119</v>
@@ -46118,7 +46106,7 @@
         <v>23</v>
       </c>
       <c r="L185" t="n">
-        <v>85.18518518518501</v>
+        <v>85.19</v>
       </c>
       <c r="M185" t="n">
         <v>4</v>
@@ -46145,16 +46133,16 @@
         <v>48</v>
       </c>
       <c r="U185" t="n">
-        <v>48.484848484848</v>
+        <v>48.48</v>
       </c>
       <c r="V185" t="n">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="W185" t="n">
-        <v>35.263157894737</v>
+        <v>38.04</v>
       </c>
       <c r="X185" t="n">
-        <v>2185</v>
+        <v>2292</v>
       </c>
       <c r="Y185" t="n">
         <v>6.25</v>
@@ -46172,13 +46160,13 @@
         <v>34</v>
       </c>
       <c r="AD185" t="n">
-        <v>46.575342465753</v>
+        <v>46.58</v>
       </c>
       <c r="AE185" t="n">
         <v>42</v>
       </c>
       <c r="AF185" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AG185" t="n">
         <v>22</v>
@@ -46187,13 +46175,13 @@
         <v>24</v>
       </c>
       <c r="AI185" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="AJ185" t="n">
         <v>2</v>
       </c>
       <c r="AK185" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AL185" t="n">
         <v>0</v>
@@ -46208,7 +46196,7 @@
         <v>0</v>
       </c>
       <c r="AP185" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ185" t="n">
         <v>0</v>
@@ -46217,7 +46205,7 @@
         <v>16</v>
       </c>
       <c r="AS185" t="n">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="AT185" t="n">
         <v>51</v>
@@ -46226,7 +46214,7 @@
         <v>73</v>
       </c>
       <c r="AV185" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AW185" t="n">
         <v>0</v>
@@ -46255,173 +46243,63 @@
         <v>6.737037037037</v>
       </c>
       <c r="BE185" t="n">
-        <v>2185</v>
-      </c>
-      <c r="BF185" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG185" t="n">
-        <v>52</v>
-      </c>
-      <c r="BH185" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI185" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ185" t="n">
-        <v>181.9</v>
-      </c>
-      <c r="BK185" t="n">
-        <v>27</v>
-      </c>
-      <c r="BL185" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM185" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN185" t="n">
-        <v>324</v>
-      </c>
-      <c r="BO185" t="n">
-        <v>379</v>
-      </c>
-      <c r="BP185" t="n">
-        <v>2</v>
-      </c>
-      <c r="BQ185" t="n">
-        <v>86</v>
-      </c>
-      <c r="BR185" t="n">
-        <v>30.604982206406</v>
-      </c>
-      <c r="BS185" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT185" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU185" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV185" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW185" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX185" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY185" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ185" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD185" t="n">
-        <v>8</v>
-      </c>
-      <c r="CE185" t="n">
-        <v>269</v>
-      </c>
-      <c r="CF185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI185" t="n">
-        <v>1213</v>
-      </c>
-      <c r="CJ185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO185" t="n">
-        <v>34</v>
-      </c>
-      <c r="CP185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV185" t="n">
-        <v>8</v>
-      </c>
-      <c r="CW185" t="n">
-        <v>27</v>
-      </c>
-      <c r="CX185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY185" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ185" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA185" t="n">
-        <v>50</v>
-      </c>
-      <c r="DB185" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC185" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD185" t="n">
-        <v>365</v>
-      </c>
-      <c r="DE185" t="n">
-        <v>495</v>
-      </c>
-      <c r="DF185" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG185" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="DH185" t="n">
-        <v>2.4</v>
-      </c>
+        <v>2292</v>
+      </c>
+      <c r="BF185" t="inlineStr"/>
+      <c r="BG185" t="inlineStr"/>
+      <c r="BH185" t="inlineStr"/>
+      <c r="BI185" t="inlineStr"/>
+      <c r="BJ185" t="inlineStr"/>
+      <c r="BK185" t="inlineStr"/>
+      <c r="BL185" t="inlineStr"/>
+      <c r="BM185" t="inlineStr"/>
+      <c r="BN185" t="inlineStr"/>
+      <c r="BO185" t="inlineStr"/>
+      <c r="BP185" t="inlineStr"/>
+      <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr"/>
+      <c r="BS185" t="inlineStr"/>
+      <c r="BT185" t="inlineStr"/>
+      <c r="BU185" t="inlineStr"/>
+      <c r="BV185" t="inlineStr"/>
+      <c r="BW185" t="inlineStr"/>
+      <c r="BX185" t="inlineStr"/>
+      <c r="BY185" t="inlineStr"/>
+      <c r="BZ185" t="inlineStr"/>
+      <c r="CA185" t="inlineStr"/>
+      <c r="CB185" t="inlineStr"/>
+      <c r="CC185" t="inlineStr"/>
+      <c r="CD185" t="inlineStr"/>
+      <c r="CE185" t="inlineStr"/>
+      <c r="CF185" t="inlineStr"/>
+      <c r="CG185" t="inlineStr"/>
+      <c r="CH185" t="inlineStr"/>
+      <c r="CI185" t="inlineStr"/>
+      <c r="CJ185" t="inlineStr"/>
+      <c r="CK185" t="inlineStr"/>
+      <c r="CL185" t="inlineStr"/>
+      <c r="CM185" t="inlineStr"/>
+      <c r="CN185" t="inlineStr"/>
+      <c r="CO185" t="inlineStr"/>
+      <c r="CP185" t="inlineStr"/>
+      <c r="CQ185" t="inlineStr"/>
+      <c r="CR185" t="inlineStr"/>
+      <c r="CS185" t="inlineStr"/>
+      <c r="CT185" t="inlineStr"/>
+      <c r="CU185" t="inlineStr"/>
+      <c r="CV185" t="inlineStr"/>
+      <c r="CW185" t="inlineStr"/>
+      <c r="CX185" t="inlineStr"/>
+      <c r="CY185" t="inlineStr"/>
+      <c r="CZ185" t="inlineStr"/>
+      <c r="DA185" t="inlineStr"/>
+      <c r="DB185" t="inlineStr"/>
+      <c r="DC185" t="inlineStr"/>
+      <c r="DD185" t="inlineStr"/>
+      <c r="DE185" t="inlineStr"/>
+      <c r="DF185" t="inlineStr"/>
+      <c r="DG185" t="inlineStr"/>
+      <c r="DH185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -52263,19 +52141,19 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>592</v>
+        <v>629</v>
       </c>
       <c r="F207" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G207" t="n">
-        <v>670</v>
+        <v>712</v>
       </c>
       <c r="H207" t="n">
-        <v>88.36</v>
+        <v>88.34</v>
       </c>
       <c r="I207" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J207" t="n">
         <v>4</v>
@@ -52302,25 +52180,25 @@
         <v>40</v>
       </c>
       <c r="R207" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T207" t="n">
         <v>12</v>
       </c>
       <c r="U207" t="n">
-        <v>80</v>
+        <v>70.59</v>
       </c>
       <c r="V207" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="W207" t="n">
-        <v>40.76</v>
+        <v>41.71</v>
       </c>
       <c r="X207" t="n">
-        <v>1153</v>
+        <v>1256</v>
       </c>
       <c r="Y207" t="n">
         <v>0</v>
@@ -52335,46 +52213,46 @@
         <v>0</v>
       </c>
       <c r="AC207" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD207" t="n">
-        <v>60.98</v>
+        <v>60</v>
       </c>
       <c r="AE207" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF207" t="n">
         <v>6</v>
       </c>
       <c r="AG207" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP207" t="n">
         <v>12</v>
-      </c>
-      <c r="AH207" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI207" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ207" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK207" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL207" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM207" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN207" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO207" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP207" t="n">
-        <v>11</v>
       </c>
       <c r="AQ207" t="n">
         <v>0</v>
@@ -52383,13 +52261,13 @@
         <v>5</v>
       </c>
       <c r="AS207" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="AT207" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU207" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AV207" t="n">
         <v>0</v>
@@ -52407,7 +52285,7 @@
         <v>0</v>
       </c>
       <c r="BA207" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="BB207" t="inlineStr">
         <is>
@@ -52415,10 +52293,10 @@
         </is>
       </c>
       <c r="BC207" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD207" t="n">
-        <v>6.9461538461538</v>
+        <v>6.95</v>
       </c>
       <c r="BE207" t="inlineStr"/>
       <c r="BF207" t="inlineStr"/>
@@ -53753,22 +53631,22 @@
         <v>3</v>
       </c>
       <c r="E213" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F213" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G213" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H213" t="n">
-        <v>74.15730337078701</v>
+        <v>74.73684210526299</v>
       </c>
       <c r="I213" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J213" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K213" t="n">
         <v>4</v>
@@ -53792,28 +53670,28 @@
         <v>25</v>
       </c>
       <c r="R213" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S213" t="n">
         <v>4</v>
       </c>
       <c r="T213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U213" t="n">
-        <v>14.285714285714</v>
+        <v>25</v>
       </c>
       <c r="V213" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W213" t="n">
-        <v>34.210526315789</v>
+        <v>37.5</v>
       </c>
       <c r="X213" t="n">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="Y213" t="n">
-        <v>25</v>
+        <v>22.222222222222</v>
       </c>
       <c r="Z213" t="n">
         <v>0</v>
@@ -53849,7 +53727,7 @@
         <v>4</v>
       </c>
       <c r="AK213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL213" t="n">
         <v>0</v>
@@ -53893,7 +53771,7 @@
         <v>0</v>
       </c>
       <c r="BA213" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB213" t="inlineStr">
         <is>
@@ -53901,13 +53779,13 @@
         </is>
       </c>
       <c r="BC213" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD213" t="n">
-        <v>6.7875</v>
+        <v>6.7888888888889</v>
       </c>
       <c r="BE213" t="n">
-        <v>250.5</v>
+        <v>259</v>
       </c>
       <c r="BF213" t="n">
         <v>0</v>
@@ -53922,10 +53800,10 @@
         <v>0</v>
       </c>
       <c r="BJ213" t="n">
-        <v>54.3</v>
+        <v>61.1</v>
       </c>
       <c r="BK213" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BL213" t="n">
         <v>1</v>
@@ -53934,19 +53812,19 @@
         <v>2</v>
       </c>
       <c r="BN213" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BO213" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="BP213" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ213" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BR213" t="n">
-        <v>38.709677419355</v>
+        <v>40.625</v>
       </c>
       <c r="BS213" t="n">
         <v>0</v>
@@ -53967,7 +53845,7 @@
         <v>8</v>
       </c>
       <c r="BY213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ213" t="n">
         <v>0</v>
@@ -53985,7 +53863,7 @@
         <v>7</v>
       </c>
       <c r="CE213" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CF213" t="n">
         <v>4</v>
@@ -53997,7 +53875,7 @@
         <v>2</v>
       </c>
       <c r="CI213" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="CJ213" t="n">
         <v>0</v>
@@ -54036,7 +53914,7 @@
         <v>0</v>
       </c>
       <c r="CV213" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CW213" t="n">
         <v>6</v>
@@ -54048,10 +53926,10 @@
         <v>0</v>
       </c>
       <c r="CZ213" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DA213" t="n">
-        <v>80</v>
+        <v>83.333333333333</v>
       </c>
       <c r="DB213" t="n">
         <v>0</v>
@@ -54060,10 +53938,10 @@
         <v>0</v>
       </c>
       <c r="DD213" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="DE213" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="DF213" t="n">
         <v>1</v>
@@ -54867,22 +54745,22 @@
         <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H217" t="n">
-        <v>83.33</v>
+        <v>96.15000000000001</v>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K217" t="n">
         <v>1</v>
@@ -54918,13 +54796,13 @@
         <v>0</v>
       </c>
       <c r="V217" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W217" t="n">
-        <v>88.89</v>
+        <v>76.92</v>
       </c>
       <c r="X217" t="n">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="Y217" t="n">
         <v>0</v>
@@ -54939,13 +54817,13 @@
         <v>0</v>
       </c>
       <c r="AC217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD217" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF217" t="n">
         <v>0</v>
@@ -54987,13 +54865,13 @@
         <v>0</v>
       </c>
       <c r="AS217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT217" t="n">
         <v>0</v>
       </c>
       <c r="AU217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV217" t="n">
         <v>0</v>
@@ -55005,13 +54883,13 @@
         <v>0</v>
       </c>
       <c r="AY217" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ217" t="n">
         <v>0</v>
       </c>
       <c r="BA217" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB217" t="inlineStr">
         <is>
@@ -55019,10 +54897,10 @@
         </is>
       </c>
       <c r="BC217" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD217" t="n">
-        <v>6.5666666666667</v>
+        <v>6.575</v>
       </c>
       <c r="BE217" t="inlineStr"/>
       <c r="BF217" t="inlineStr"/>
@@ -55095,31 +54973,31 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="F218" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G218" t="n">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="H218" t="n">
-        <v>80.09708737864101</v>
+        <v>80.400890868597</v>
       </c>
       <c r="I218" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J218" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K218" t="n">
         <v>12</v>
       </c>
       <c r="L218" t="n">
-        <v>70.58823529411799</v>
+        <v>66.666666666667</v>
       </c>
       <c r="M218" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N218" t="n">
         <v>0</v>
@@ -55134,55 +55012,55 @@
         <v>15</v>
       </c>
       <c r="R218" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S218" t="n">
         <v>2</v>
       </c>
       <c r="T218" t="n">
+        <v>14</v>
+      </c>
+      <c r="U218" t="n">
+        <v>77.777777777778</v>
+      </c>
+      <c r="V218" t="n">
+        <v>58</v>
+      </c>
+      <c r="W218" t="n">
+        <v>63.04347826087</v>
+      </c>
+      <c r="X218" t="n">
+        <v>847</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH218" t="n">
         <v>12</v>
-      </c>
-      <c r="U218" t="n">
-        <v>75</v>
-      </c>
-      <c r="V218" t="n">
-        <v>54</v>
-      </c>
-      <c r="W218" t="n">
-        <v>64.28571428571399</v>
-      </c>
-      <c r="X218" t="n">
-        <v>757</v>
-      </c>
-      <c r="Y218" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB218" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC218" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD218" t="n">
-        <v>39.473684210526</v>
-      </c>
-      <c r="AE218" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF218" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG218" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH218" t="n">
-        <v>10</v>
       </c>
       <c r="AI218" t="n">
         <v>9</v>
@@ -55200,13 +55078,13 @@
         <v>0</v>
       </c>
       <c r="AN218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO218" t="n">
         <v>0</v>
       </c>
       <c r="AP218" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ218" t="n">
         <v>0</v>
@@ -55215,13 +55093,13 @@
         <v>20</v>
       </c>
       <c r="AS218" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AT218" t="n">
         <v>4</v>
       </c>
       <c r="AU218" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AV218" t="n">
         <v>11</v>
@@ -55235,7 +55113,7 @@
         <v>0</v>
       </c>
       <c r="BA218" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="BB218" t="inlineStr">
         <is>
@@ -55243,10 +55121,10 @@
         </is>
       </c>
       <c r="BC218" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD218" t="n">
-        <v>6.9909090909091</v>
+        <v>7.0166666666667</v>
       </c>
       <c r="BE218" t="n">
         <v>0</v>
@@ -55255,62 +55133,62 @@
         <v>0</v>
       </c>
       <c r="BG218" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>12</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>166</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>198</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>19</v>
+      </c>
+      <c r="BQ218" t="n">
+        <v>44</v>
+      </c>
+      <c r="BR218" t="n">
+        <v>59.459459459459</v>
+      </c>
+      <c r="BS218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY218" t="n">
         <v>6</v>
       </c>
-      <c r="BH218" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ218" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="BK218" t="n">
-        <v>11</v>
-      </c>
-      <c r="BL218" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN218" t="n">
-        <v>154</v>
-      </c>
-      <c r="BO218" t="n">
-        <v>179</v>
-      </c>
-      <c r="BP218" t="n">
-        <v>18</v>
-      </c>
-      <c r="BQ218" t="n">
-        <v>42</v>
-      </c>
-      <c r="BR218" t="n">
-        <v>61.764705882353</v>
-      </c>
-      <c r="BS218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW218" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX218" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY218" t="n">
-        <v>5</v>
-      </c>
       <c r="BZ218" t="n">
         <v>0</v>
       </c>
@@ -55324,22 +55202,22 @@
         <v>0</v>
       </c>
       <c r="CD218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE218" t="n">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="CF218" t="n">
         <v>1</v>
       </c>
       <c r="CG218" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CH218" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CI218" t="n">
-        <v>644</v>
+        <v>712</v>
       </c>
       <c r="CJ218" t="n">
         <v>1</v>
@@ -55378,10 +55256,10 @@
         <v>0</v>
       </c>
       <c r="CV218" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW218" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CX218" t="n">
         <v>0</v>
@@ -55393,7 +55271,7 @@
         <v>14</v>
       </c>
       <c r="DA218" t="n">
-        <v>77.777777777778</v>
+        <v>73.68421052631599</v>
       </c>
       <c r="DB218" t="n">
         <v>0</v>
@@ -55402,10 +55280,10 @@
         <v>0</v>
       </c>
       <c r="DD218" t="n">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="DE218" t="n">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="DF218" t="n">
         <v>1</v>
@@ -55759,19 +55637,19 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="F220" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G220" t="n">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="H220" t="n">
-        <v>84.250764525994</v>
+        <v>84.525547445255</v>
       </c>
       <c r="I220" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J220" t="n">
         <v>2</v>
@@ -55780,7 +55658,7 @@
         <v>3</v>
       </c>
       <c r="L220" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M220" t="n">
         <v>1</v>
@@ -55798,28 +55676,28 @@
         <v>0</v>
       </c>
       <c r="R220" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S220" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T220" t="n">
         <v>24</v>
       </c>
       <c r="U220" t="n">
-        <v>68.571428571429</v>
+        <v>64.864864864865</v>
       </c>
       <c r="V220" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="W220" t="n">
-        <v>73.529411764706</v>
+        <v>72.222222222222</v>
       </c>
       <c r="X220" t="n">
-        <v>1346</v>
+        <v>1436</v>
       </c>
       <c r="Y220" t="n">
-        <v>12.5</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Z220" t="n">
         <v>0</v>
@@ -55831,25 +55709,25 @@
         <v>0</v>
       </c>
       <c r="AC220" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD220" t="n">
-        <v>48.351648351648</v>
+        <v>48.936170212766</v>
       </c>
       <c r="AE220" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF220" t="n">
         <v>0</v>
       </c>
       <c r="AG220" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH220" t="n">
         <v>11</v>
       </c>
       <c r="AI220" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ220" t="n">
         <v>0</v>
@@ -55864,28 +55742,28 @@
         <v>0</v>
       </c>
       <c r="AN220" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO220" t="n">
         <v>0</v>
       </c>
       <c r="AP220" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ220" t="n">
         <v>0</v>
       </c>
       <c r="AR220" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS220" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AT220" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU220" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AV220" t="n">
         <v>31</v>
@@ -55899,7 +55777,7 @@
         <v>0</v>
       </c>
       <c r="BA220" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="BB220" t="inlineStr">
         <is>
@@ -55907,13 +55785,13 @@
         </is>
       </c>
       <c r="BC220" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD220" t="n">
-        <v>6.9933333333333</v>
+        <v>7.0125</v>
       </c>
       <c r="BE220" t="n">
-        <v>1346</v>
+        <v>1436</v>
       </c>
       <c r="BF220" t="n">
         <v>1</v>
@@ -55928,10 +55806,10 @@
         <v>0</v>
       </c>
       <c r="BJ220" t="n">
-        <v>104.9</v>
+        <v>112.2</v>
       </c>
       <c r="BK220" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BL220" t="n">
         <v>0</v>
@@ -55940,19 +55818,19 @@
         <v>1</v>
       </c>
       <c r="BN220" t="n">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="BO220" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="BP220" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BQ220" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="BR220" t="n">
-        <v>75.247524752475</v>
+        <v>74.766355140187</v>
       </c>
       <c r="BS220" t="n">
         <v>0</v>
@@ -55970,7 +55848,7 @@
         <v>0</v>
       </c>
       <c r="BX220" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BY220" t="n">
         <v>2</v>
@@ -55991,19 +55869,19 @@
         <v>6</v>
       </c>
       <c r="CE220" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="CF220" t="n">
         <v>2</v>
       </c>
       <c r="CG220" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CH220" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CI220" t="n">
-        <v>873</v>
+        <v>923</v>
       </c>
       <c r="CJ220" t="n">
         <v>0</v>
@@ -56045,7 +55923,7 @@
         <v>2</v>
       </c>
       <c r="CW220" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CX220" t="n">
         <v>0</v>
@@ -56057,7 +55935,7 @@
         <v>26</v>
       </c>
       <c r="DA220" t="n">
-        <v>70.27027027027</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DB220" t="n">
         <v>0</v>
@@ -56066,10 +55944,10 @@
         <v>0</v>
       </c>
       <c r="DD220" t="n">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="DE220" t="n">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="DF220" t="n">
         <v>1</v>
@@ -56827,28 +56705,28 @@
         <v>4</v>
       </c>
       <c r="E225" t="n">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F225" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G225" t="n">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="H225" t="n">
-        <v>73.80952380952399</v>
+        <v>74.479166666667</v>
       </c>
       <c r="I225" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="J225" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K225" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L225" t="n">
-        <v>47.058823529412</v>
+        <v>50</v>
       </c>
       <c r="M225" t="n">
         <v>1</v>
@@ -56863,13 +56741,13 @@
         <v>6</v>
       </c>
       <c r="Q225" t="n">
-        <v>22.222222222222</v>
+        <v>20.689655172414</v>
       </c>
       <c r="R225" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S225" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T225" t="n">
         <v>4</v>
@@ -56878,16 +56756,16 @@
         <v>25</v>
       </c>
       <c r="V225" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="W225" t="n">
-        <v>33.846153846154</v>
+        <v>35.211267605634</v>
       </c>
       <c r="X225" t="n">
-        <v>662</v>
+        <v>752</v>
       </c>
       <c r="Y225" t="n">
-        <v>22.222222222222</v>
+        <v>17.391304347826</v>
       </c>
       <c r="Z225" t="n">
         <v>1</v>
@@ -56902,22 +56780,22 @@
         <v>3</v>
       </c>
       <c r="AD225" t="n">
-        <v>30</v>
+        <v>27.272727272727</v>
       </c>
       <c r="AE225" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF225" t="n">
         <v>0</v>
       </c>
       <c r="AG225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH225" t="n">
         <v>6</v>
       </c>
-      <c r="AH225" t="n">
-        <v>5</v>
-      </c>
       <c r="AI225" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ225" t="n">
         <v>1</v>
@@ -56938,25 +56816,25 @@
         <v>0</v>
       </c>
       <c r="AP225" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ225" t="n">
         <v>100</v>
       </c>
       <c r="AR225" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS225" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AT225" t="n">
         <v>12</v>
       </c>
       <c r="AU225" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV225" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AW225" t="n">
         <v>0</v>
@@ -56967,7 +56845,7 @@
         <v>0</v>
       </c>
       <c r="BA225" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BB225" t="inlineStr">
         <is>
@@ -56975,13 +56853,13 @@
         </is>
       </c>
       <c r="BC225" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD225" t="n">
-        <v>6.84</v>
+        <v>6.8818181818182</v>
       </c>
       <c r="BE225" t="n">
-        <v>165.5</v>
+        <v>188</v>
       </c>
       <c r="BF225" t="n">
         <v>0</v>
@@ -56990,37 +56868,37 @@
         <v>5</v>
       </c>
       <c r="BH225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>11</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>33</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>116</v>
+      </c>
+      <c r="BP225" t="n">
         <v>6</v>
       </c>
-      <c r="BI225" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ225" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="BK225" t="n">
-        <v>10</v>
-      </c>
-      <c r="BL225" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM225" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN225" t="n">
-        <v>31</v>
-      </c>
-      <c r="BO225" t="n">
-        <v>99</v>
-      </c>
-      <c r="BP225" t="n">
-        <v>5</v>
-      </c>
       <c r="BQ225" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BR225" t="n">
-        <v>36.734693877551</v>
+        <v>38.181818181818</v>
       </c>
       <c r="BS225" t="n">
         <v>0</v>
@@ -57038,10 +56916,10 @@
         <v>1</v>
       </c>
       <c r="BX225" t="n">
+        <v>13</v>
+      </c>
+      <c r="BY225" t="n">
         <v>10</v>
-      </c>
-      <c r="BY225" t="n">
-        <v>8</v>
       </c>
       <c r="BZ225" t="n">
         <v>0</v>
@@ -57056,22 +56934,22 @@
         <v>0</v>
       </c>
       <c r="CD225" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CE225" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="CF225" t="n">
         <v>2</v>
       </c>
       <c r="CG225" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CH225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CI225" t="n">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="CJ225" t="n">
         <v>0</v>
@@ -57089,7 +56967,7 @@
         <v>0</v>
       </c>
       <c r="CO225" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CP225" t="n">
         <v>4</v>
@@ -57110,10 +56988,10 @@
         <v>0</v>
       </c>
       <c r="CV225" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW225" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CX225" t="n">
         <v>0</v>
@@ -57125,7 +57003,7 @@
         <v>3</v>
       </c>
       <c r="DA225" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="DB225" t="n">
         <v>0</v>
@@ -57134,10 +57012,10 @@
         <v>0</v>
       </c>
       <c r="DD225" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="DE225" t="n">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="DF225" t="n">
         <v>0</v>
@@ -57837,31 +57715,31 @@
         <v>4</v>
       </c>
       <c r="E229" t="n">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="F229" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G229" t="n">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="H229" t="n">
-        <v>75.967413441955</v>
+        <v>76.290630975143</v>
       </c>
       <c r="I229" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="J229" t="n">
         <v>20</v>
       </c>
       <c r="K229" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L229" t="n">
-        <v>57.142857142857</v>
+        <v>56.25</v>
       </c>
       <c r="M229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N229" t="n">
         <v>0</v>
@@ -57885,16 +57763,16 @@
         <v>4</v>
       </c>
       <c r="U229" t="n">
-        <v>26.666666666667</v>
+        <v>28.571428571429</v>
       </c>
       <c r="V229" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="W229" t="n">
-        <v>50.34965034965</v>
+        <v>49.677419354839</v>
       </c>
       <c r="X229" t="n">
-        <v>1102</v>
+        <v>1192</v>
       </c>
       <c r="Y229" t="n">
         <v>11.764705882353</v>
@@ -57909,10 +57787,10 @@
         <v>0</v>
       </c>
       <c r="AC229" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD229" t="n">
-        <v>40.47619047619</v>
+        <v>40.909090909091</v>
       </c>
       <c r="AE229" t="n">
         <v>8</v>
@@ -57924,10 +57802,10 @@
         <v>25</v>
       </c>
       <c r="AH229" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI229" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AJ229" t="n">
         <v>2</v>
@@ -57948,7 +57826,7 @@
         <v>0</v>
       </c>
       <c r="AP229" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ229" t="n">
         <v>0</v>
@@ -57957,16 +57835,16 @@
         <v>10</v>
       </c>
       <c r="AS229" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AT229" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU229" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AV229" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW229" t="n">
         <v>0</v>
@@ -57977,7 +57855,7 @@
         <v>0</v>
       </c>
       <c r="BA229" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="BB229" t="inlineStr">
         <is>
@@ -57985,19 +57863,19 @@
         </is>
       </c>
       <c r="BC229" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD229" t="n">
-        <v>7.0933333333333</v>
+        <v>7.08125</v>
       </c>
       <c r="BE229" t="n">
-        <v>551</v>
+        <v>596</v>
       </c>
       <c r="BF229" t="n">
         <v>0</v>
       </c>
       <c r="BG229" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH229" t="n">
         <v>1</v>
@@ -58006,10 +57884,10 @@
         <v>0</v>
       </c>
       <c r="BJ229" t="n">
-        <v>106.4</v>
+        <v>113.3</v>
       </c>
       <c r="BK229" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BL229" t="n">
         <v>2</v>
@@ -58018,19 +57896,19 @@
         <v>2</v>
       </c>
       <c r="BN229" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="BO229" t="n">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="BP229" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BQ229" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="BR229" t="n">
-        <v>53.125</v>
+        <v>51.77304964539</v>
       </c>
       <c r="BS229" t="n">
         <v>1</v>
@@ -58069,19 +57947,19 @@
         <v>19</v>
       </c>
       <c r="CE229" t="n">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="CF229" t="n">
         <v>6</v>
       </c>
       <c r="CG229" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="CH229" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CI229" t="n">
-        <v>718</v>
+        <v>763</v>
       </c>
       <c r="CJ229" t="n">
         <v>0</v>
@@ -58099,7 +57977,7 @@
         <v>0</v>
       </c>
       <c r="CO229" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CP229" t="n">
         <v>4</v>
@@ -58123,7 +58001,7 @@
         <v>20</v>
       </c>
       <c r="CW229" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="CX229" t="n">
         <v>0</v>
@@ -58132,10 +58010,10 @@
         <v>0</v>
       </c>
       <c r="CZ229" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="DA229" t="n">
-        <v>55.555555555556</v>
+        <v>60</v>
       </c>
       <c r="DB229" t="n">
         <v>0</v>
@@ -58144,10 +58022,10 @@
         <v>0</v>
       </c>
       <c r="DD229" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="DE229" t="n">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="DF229" t="n">
         <v>1</v>
@@ -58571,28 +58449,28 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F233" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G233" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H233" t="n">
-        <v>68</v>
+        <v>69.642857142857</v>
       </c>
       <c r="I233" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K233" t="n">
         <v>1</v>
       </c>
       <c r="L233" t="n">
-        <v>50</v>
+        <v>33.333333333333</v>
       </c>
       <c r="M233" t="n">
         <v>1</v>
@@ -58622,13 +58500,13 @@
         <v>33.333333333333</v>
       </c>
       <c r="V233" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W233" t="n">
-        <v>34.782608695652</v>
+        <v>33.333333333333</v>
       </c>
       <c r="X233" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Y233" t="n">
         <v>0</v>
@@ -58658,7 +58536,7 @@
         <v>1</v>
       </c>
       <c r="AH233" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI233" t="n">
         <v>0</v>
@@ -58691,7 +58569,7 @@
         <v>0</v>
       </c>
       <c r="AS233" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AT233" t="n">
         <v>4</v>
@@ -58711,7 +58589,7 @@
         <v>0</v>
       </c>
       <c r="BA233" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB233" t="inlineStr">
         <is>
@@ -58719,10 +58597,10 @@
         </is>
       </c>
       <c r="BC233" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD233" t="n">
-        <v>6.5666666666667</v>
+        <v>6.5714285714286</v>
       </c>
       <c r="BE233" t="n">
         <v>0</v>
@@ -58740,10 +58618,10 @@
         <v>0</v>
       </c>
       <c r="BJ233" t="n">
-        <v>39.4</v>
+        <v>46</v>
       </c>
       <c r="BK233" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BL233" t="n">
         <v>0</v>
@@ -58752,19 +58630,19 @@
         <v>0</v>
       </c>
       <c r="BN233" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BO233" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BP233" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BQ233" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BR233" t="n">
-        <v>35.294117647059</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BS233" t="n">
         <v>0</v>
@@ -58800,10 +58678,10 @@
         <v>0</v>
       </c>
       <c r="CD233" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE233" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="CF233" t="n">
         <v>1</v>
@@ -58815,7 +58693,7 @@
         <v>0</v>
       </c>
       <c r="CI233" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="CJ233" t="n">
         <v>0</v>
@@ -58854,10 +58732,10 @@
         <v>0</v>
       </c>
       <c r="CV233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW233" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CX233" t="n">
         <v>0</v>
@@ -58869,7 +58747,7 @@
         <v>2</v>
       </c>
       <c r="DA233" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DB233" t="n">
         <v>0</v>
@@ -58878,10 +58756,10 @@
         <v>0</v>
       </c>
       <c r="DD233" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="DE233" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="DF233" t="n">
         <v>0</v>
@@ -59795,28 +59673,28 @@
         <v>8</v>
       </c>
       <c r="E237" t="n">
-        <v>514</v>
+        <v>554</v>
       </c>
       <c r="F237" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G237" t="n">
-        <v>597</v>
+        <v>643</v>
       </c>
       <c r="H237" t="n">
-        <v>86.097152428811</v>
+        <v>86.158631415241</v>
       </c>
       <c r="I237" t="n">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="J237" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K237" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L237" t="n">
-        <v>55.555555555556</v>
+        <v>57.142857142857</v>
       </c>
       <c r="M237" t="n">
         <v>1</v>
@@ -59831,10 +59709,10 @@
         <v>2</v>
       </c>
       <c r="Q237" t="n">
-        <v>20</v>
+        <v>18.181818181818</v>
       </c>
       <c r="R237" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S237" t="n">
         <v>21</v>
@@ -59846,16 +59724,16 @@
         <v>33.333333333333</v>
       </c>
       <c r="V237" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W237" t="n">
-        <v>52.459016393443</v>
+        <v>52.41935483871</v>
       </c>
       <c r="X237" t="n">
-        <v>1208</v>
+        <v>1295</v>
       </c>
       <c r="Y237" t="n">
-        <v>10.169491525424</v>
+        <v>9.836065573770499</v>
       </c>
       <c r="Z237" t="n">
         <v>0</v>
@@ -59867,13 +59745,13 @@
         <v>0</v>
       </c>
       <c r="AC237" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AD237" t="n">
-        <v>75.75757575757601</v>
+        <v>77.142857142857</v>
       </c>
       <c r="AE237" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF237" t="n">
         <v>0</v>
@@ -59882,7 +59760,7 @@
         <v>21</v>
       </c>
       <c r="AH237" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI237" t="n">
         <v>7</v>
@@ -59891,7 +59769,7 @@
         <v>2</v>
       </c>
       <c r="AK237" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL237" t="n">
         <v>0</v>
@@ -59906,22 +59784,22 @@
         <v>0</v>
       </c>
       <c r="AP237" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ237" t="n">
         <v>0</v>
       </c>
       <c r="AR237" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS237" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AT237" t="n">
         <v>14</v>
       </c>
       <c r="AU237" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AV237" t="n">
         <v>9</v>
@@ -59935,7 +59813,7 @@
         <v>0</v>
       </c>
       <c r="BA237" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="BB237" t="inlineStr">
         <is>
@@ -59943,13 +59821,13 @@
         </is>
       </c>
       <c r="BC237" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD237" t="n">
-        <v>7.5666666666667</v>
+        <v>7.5375</v>
       </c>
       <c r="BE237" t="n">
-        <v>201.33333333333</v>
+        <v>215.83333333333</v>
       </c>
       <c r="BF237" t="n">
         <v>0</v>
@@ -59958,16 +59836,16 @@
         <v>3</v>
       </c>
       <c r="BH237" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI237" t="n">
         <v>0</v>
       </c>
       <c r="BJ237" t="n">
-        <v>113.5</v>
+        <v>120.6</v>
       </c>
       <c r="BK237" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BL237" t="n">
         <v>0</v>
@@ -59976,19 +59854,19 @@
         <v>2</v>
       </c>
       <c r="BN237" t="n">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="BO237" t="n">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="BP237" t="n">
         <v>21</v>
       </c>
       <c r="BQ237" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BR237" t="n">
-        <v>56.435643564356</v>
+        <v>56.31067961165</v>
       </c>
       <c r="BS237" t="n">
         <v>0</v>
@@ -60006,7 +59884,7 @@
         <v>1</v>
       </c>
       <c r="BX237" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BY237" t="n">
         <v>37</v>
@@ -60027,19 +59905,19 @@
         <v>22</v>
       </c>
       <c r="CE237" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="CF237" t="n">
         <v>8</v>
       </c>
       <c r="CG237" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CH237" t="n">
         <v>19</v>
       </c>
       <c r="CI237" t="n">
-        <v>848</v>
+        <v>905</v>
       </c>
       <c r="CJ237" t="n">
         <v>0</v>
@@ -60078,10 +59956,10 @@
         <v>0</v>
       </c>
       <c r="CV237" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CW237" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CX237" t="n">
         <v>0</v>
@@ -60102,10 +59980,10 @@
         <v>0</v>
       </c>
       <c r="DD237" t="n">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="DE237" t="n">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="DF237" t="n">
         <v>3</v>
@@ -60720,7 +60598,7 @@
         <v>4</v>
       </c>
       <c r="L241" t="n">
-        <v>25</v>
+        <v>26.666666666667</v>
       </c>
       <c r="M241" t="n">
         <v>0</v>
@@ -60744,16 +60622,16 @@
         <v>5</v>
       </c>
       <c r="T241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U241" t="n">
-        <v>30</v>
+        <v>22.222222222222</v>
       </c>
       <c r="V241" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W241" t="n">
-        <v>32.786885245902</v>
+        <v>31.666666666667</v>
       </c>
       <c r="X241" t="n">
         <v>454</v>
@@ -60928,10 +60806,10 @@
         <v>0</v>
       </c>
       <c r="CD241" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CE241" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="CF241" t="n">
         <v>3</v>
@@ -60943,7 +60821,7 @@
         <v>0</v>
       </c>
       <c r="CI241" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="CJ241" t="n">
         <v>1</v>
@@ -60985,7 +60863,7 @@
         <v>0</v>
       </c>
       <c r="CW241" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CX241" t="n">
         <v>0</v>
@@ -64805,28 +64683,28 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="F258" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G258" t="n">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="H258" t="n">
-        <v>88.671875</v>
+        <v>88.255033557047</v>
       </c>
       <c r="I258" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J258" t="n">
         <v>3</v>
       </c>
       <c r="K258" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L258" t="n">
-        <v>38.461538461538</v>
+        <v>40</v>
       </c>
       <c r="M258" t="n">
         <v>1</v>
@@ -64841,31 +64719,31 @@
         <v>1</v>
       </c>
       <c r="Q258" t="n">
-        <v>9.090909090909101</v>
+        <v>8.3333333333333</v>
       </c>
       <c r="R258" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T258" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U258" t="n">
-        <v>62.5</v>
+        <v>54.545454545455</v>
       </c>
       <c r="V258" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="W258" t="n">
-        <v>36.585365853659</v>
+        <v>40.384615384615</v>
       </c>
       <c r="X258" t="n">
-        <v>474</v>
+        <v>572</v>
       </c>
       <c r="Y258" t="n">
-        <v>33.333333333333</v>
+        <v>25</v>
       </c>
       <c r="Z258" t="n">
         <v>0</v>
@@ -64880,61 +64758,61 @@
         <v>8</v>
       </c>
       <c r="AD258" t="n">
-        <v>50</v>
+        <v>47.058823529412</v>
       </c>
       <c r="AE258" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>31</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV258" t="n">
         <v>10</v>
-      </c>
-      <c r="AF258" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG258" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH258" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI258" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ258" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK258" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL258" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM258" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN258" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO258" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP258" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ258" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR258" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS258" t="n">
-        <v>26</v>
-      </c>
-      <c r="AT258" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU258" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV258" t="n">
-        <v>9</v>
       </c>
       <c r="AW258" t="n">
         <v>0</v>
@@ -64945,7 +64823,7 @@
         <v>0</v>
       </c>
       <c r="BA258" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB258" t="inlineStr">
         <is>
@@ -64953,32 +64831,32 @@
         </is>
       </c>
       <c r="BC258" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>6.6272727272727</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>572</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="BK258" t="n">
         <v>11</v>
       </c>
-      <c r="BD258" t="n">
-        <v>6.6222222222222</v>
-      </c>
-      <c r="BE258" t="n">
-        <v>474</v>
-      </c>
-      <c r="BF258" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG258" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH258" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI258" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ258" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="BK258" t="n">
-        <v>9</v>
-      </c>
       <c r="BL258" t="n">
         <v>0</v>
       </c>
@@ -64986,19 +64864,19 @@
         <v>0</v>
       </c>
       <c r="BN258" t="n">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="BO258" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="BP258" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BQ258" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BR258" t="n">
-        <v>30.30303030303</v>
+        <v>36.585365853659</v>
       </c>
       <c r="BS258" t="n">
         <v>0</v>
@@ -65019,7 +64897,7 @@
         <v>1</v>
       </c>
       <c r="BY258" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ258" t="n">
         <v>0</v>
@@ -65037,19 +64915,19 @@
         <v>4</v>
       </c>
       <c r="CE258" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="CF258" t="n">
         <v>1</v>
       </c>
       <c r="CG258" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CH258" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CI258" t="n">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="CJ258" t="n">
         <v>0</v>
@@ -65067,7 +64945,7 @@
         <v>0</v>
       </c>
       <c r="CO258" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CP258" t="n">
         <v>2</v>
@@ -65091,7 +64969,7 @@
         <v>3</v>
       </c>
       <c r="CW258" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CX258" t="n">
         <v>0</v>
@@ -65100,10 +64978,10 @@
         <v>0</v>
       </c>
       <c r="CZ258" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DA258" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="DB258" t="n">
         <v>0</v>
@@ -65112,19 +64990,19 @@
         <v>0</v>
       </c>
       <c r="DD258" t="n">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="DE258" t="n">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="DF258" t="n">
         <v>0</v>
       </c>
       <c r="DG258" t="n">
-        <v>0.34794109</v>
+        <v>0.35416931</v>
       </c>
       <c r="DH258" t="n">
-        <v>0.1783</v>
+        <v>0.2221</v>
       </c>
     </row>
     <row r="259">
@@ -68460,7 +68338,7 @@
         <v>50</v>
       </c>
       <c r="J273" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K273" t="n">
         <v>46</v>
@@ -70343,22 +70221,22 @@
         <v>0</v>
       </c>
       <c r="E279" t="n">
-        <v>740</v>
+        <v>774</v>
       </c>
       <c r="F279" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G279" t="n">
-        <v>845</v>
+        <v>888</v>
       </c>
       <c r="H279" t="n">
-        <v>87.573964497041</v>
+        <v>87.16216216216201</v>
       </c>
       <c r="I279" t="n">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J279" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K279" t="n">
         <v>2</v>
@@ -70391,16 +70269,16 @@
         <v>10</v>
       </c>
       <c r="U279" t="n">
-        <v>45.454545454545</v>
+        <v>41.666666666667</v>
       </c>
       <c r="V279" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="W279" t="n">
-        <v>65.789473684211</v>
+        <v>64.754098360656</v>
       </c>
       <c r="X279" t="n">
-        <v>1270</v>
+        <v>1353</v>
       </c>
       <c r="Y279" t="n">
         <v>0</v>
@@ -70415,10 +70293,10 @@
         <v>0</v>
       </c>
       <c r="AC279" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AD279" t="n">
-        <v>58.823529411765</v>
+        <v>56.410256410256</v>
       </c>
       <c r="AE279" t="n">
         <v>23</v>
@@ -70433,7 +70311,7 @@
         <v>9</v>
       </c>
       <c r="AI279" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ279" t="n">
         <v>0</v>
@@ -70454,7 +70332,7 @@
         <v>0</v>
       </c>
       <c r="AP279" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ279" t="n">
         <v>0</v>
@@ -70463,13 +70341,13 @@
         <v>16</v>
       </c>
       <c r="AS279" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AT279" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU279" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AV279" t="n">
         <v>16</v>
@@ -70483,7 +70361,7 @@
         <v>0</v>
       </c>
       <c r="BA279" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="BB279" t="inlineStr">
         <is>
@@ -70491,10 +70369,10 @@
         </is>
       </c>
       <c r="BC279" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD279" t="n">
-        <v>7.1466666666667</v>
+        <v>7.1625</v>
       </c>
       <c r="BE279" t="n">
         <v>0</v>
@@ -70503,7 +70381,7 @@
         <v>0</v>
       </c>
       <c r="BG279" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BH279" t="n">
         <v>6</v>
@@ -70512,10 +70390,10 @@
         <v>0</v>
       </c>
       <c r="BJ279" t="n">
-        <v>107.2</v>
+        <v>114.6</v>
       </c>
       <c r="BK279" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BL279" t="n">
         <v>3</v>
@@ -70524,19 +70402,19 @@
         <v>1</v>
       </c>
       <c r="BN279" t="n">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="BO279" t="n">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="BP279" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="BQ279" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BR279" t="n">
-        <v>70.652173913043</v>
+        <v>70.408163265306</v>
       </c>
       <c r="BS279" t="n">
         <v>0</v>
@@ -70572,22 +70450,22 @@
         <v>0</v>
       </c>
       <c r="CD279" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE279" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="CF279" t="n">
         <v>7</v>
       </c>
       <c r="CG279" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="CH279" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CI279" t="n">
-        <v>1047</v>
+        <v>1099</v>
       </c>
       <c r="CJ279" t="n">
         <v>1</v>
@@ -70626,7 +70504,7 @@
         <v>0</v>
       </c>
       <c r="CV279" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CW279" t="n">
         <v>4</v>
@@ -70638,10 +70516,10 @@
         <v>0</v>
       </c>
       <c r="CZ279" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="DA279" t="n">
-        <v>64.705882352941</v>
+        <v>68.421052631579</v>
       </c>
       <c r="DB279" t="n">
         <v>0</v>
@@ -70650,10 +70528,10 @@
         <v>0</v>
       </c>
       <c r="DD279" t="n">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="DE279" t="n">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="DF279" t="n">
         <v>0</v>
@@ -70675,16 +70553,16 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="F280" t="n">
         <v>42</v>
       </c>
       <c r="G280" t="n">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="H280" t="n">
-        <v>87.68000000000001</v>
+        <v>88.27</v>
       </c>
       <c r="I280" t="n">
         <v>6</v>
@@ -70732,7 +70610,7 @@
         <v>83.33</v>
       </c>
       <c r="X280" t="n">
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="Y280" t="n">
         <v>0</v>
@@ -70747,10 +70625,10 @@
         <v>0</v>
       </c>
       <c r="AC280" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AD280" t="n">
-        <v>60.58</v>
+        <v>62.04</v>
       </c>
       <c r="AE280" t="n">
         <v>5</v>
@@ -70786,7 +70664,7 @@
         <v>1</v>
       </c>
       <c r="AP280" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ280" t="n">
         <v>0</v>
@@ -70801,10 +70679,10 @@
         <v>1</v>
       </c>
       <c r="AU280" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AV280" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW280" t="n">
         <v>0</v>
@@ -70816,10 +70694,10 @@
         <v>0</v>
       </c>
       <c r="AZ280" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="BA280" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BB280" t="inlineStr">
         <is>
@@ -70827,10 +70705,10 @@
         </is>
       </c>
       <c r="BC280" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD280" t="n">
-        <v>6.8666666666667</v>
+        <v>6.8125</v>
       </c>
       <c r="BE280" t="inlineStr"/>
       <c r="BF280" t="inlineStr"/>
@@ -70903,19 +70781,19 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="F281" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G281" t="n">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="H281" t="n">
-        <v>90.25</v>
+        <v>90.31</v>
       </c>
       <c r="I281" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J281" t="n">
         <v>5</v>
@@ -70930,10 +70808,10 @@
         <v>2</v>
       </c>
       <c r="N281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P281" t="n">
         <v>0</v>
@@ -70948,19 +70826,19 @@
         <v>2</v>
       </c>
       <c r="T281" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U281" t="n">
-        <v>69.12</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="V281" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W281" t="n">
-        <v>48.85</v>
+        <v>48.59</v>
       </c>
       <c r="X281" t="n">
-        <v>1260</v>
+        <v>1350</v>
       </c>
       <c r="Y281" t="n">
         <v>33.33</v>
@@ -70975,10 +70853,10 @@
         <v>0</v>
       </c>
       <c r="AC281" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD281" t="n">
-        <v>51.49</v>
+        <v>51.46</v>
       </c>
       <c r="AE281" t="n">
         <v>34</v>
@@ -70990,10 +70868,10 @@
         <v>12</v>
       </c>
       <c r="AH281" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI281" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ281" t="n">
         <v>1</v>
@@ -71014,7 +70892,7 @@
         <v>0</v>
       </c>
       <c r="AP281" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ281" t="n">
         <v>0</v>
@@ -71023,19 +70901,19 @@
         <v>3</v>
       </c>
       <c r="AS281" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AT281" t="n">
         <v>21</v>
       </c>
       <c r="AU281" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AV281" t="n">
         <v>0</v>
       </c>
       <c r="AW281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX281" t="n">
         <v>0</v>
@@ -71044,10 +70922,10 @@
         <v>0</v>
       </c>
       <c r="AZ281" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BA281" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="BB281" t="inlineStr">
         <is>
@@ -71055,13 +70933,13 @@
         </is>
       </c>
       <c r="BC281" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD281" t="n">
-        <v>7.1846153846154</v>
+        <v>7.0214285714286</v>
       </c>
       <c r="BE281" t="n">
-        <v>1334</v>
+        <v>1362</v>
       </c>
       <c r="BF281" t="inlineStr"/>
       <c r="BG281" t="inlineStr"/>
@@ -73166,7 +73044,7 @@
         <v>35</v>
       </c>
       <c r="J289" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K289" t="n">
         <v>88</v>
@@ -74162,37 +74040,37 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C293" t="n">
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E293" t="n">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="F293" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G293" t="n">
-        <v>567</v>
+        <v>608</v>
       </c>
       <c r="H293" t="n">
-        <v>78.48</v>
+        <v>78.95</v>
       </c>
       <c r="I293" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J293" t="n">
         <v>19</v>
       </c>
       <c r="K293" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L293" t="n">
-        <v>80</v>
+        <v>80.25</v>
       </c>
       <c r="M293" t="n">
         <v>1</v>
@@ -74207,31 +74085,31 @@
         <v>32</v>
       </c>
       <c r="Q293" t="n">
+        <v>49.23</v>
+      </c>
+      <c r="R293" t="n">
+        <v>19</v>
+      </c>
+      <c r="S293" t="n">
+        <v>6</v>
+      </c>
+      <c r="T293" t="n">
+        <v>4</v>
+      </c>
+      <c r="U293" t="n">
+        <v>20</v>
+      </c>
+      <c r="V293" t="n">
+        <v>161</v>
+      </c>
+      <c r="W293" t="n">
         <v>50.79</v>
       </c>
-      <c r="R293" t="n">
-        <v>16</v>
-      </c>
-      <c r="S293" t="n">
-        <v>4</v>
-      </c>
-      <c r="T293" t="n">
-        <v>3</v>
-      </c>
-      <c r="U293" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="V293" t="n">
-        <v>149</v>
-      </c>
-      <c r="W293" t="n">
-        <v>51.38</v>
-      </c>
       <c r="X293" t="n">
-        <v>1260</v>
+        <v>1350</v>
       </c>
       <c r="Y293" t="n">
-        <v>12.5</v>
+        <v>15.79</v>
       </c>
       <c r="Z293" t="n">
         <v>0</v>
@@ -74243,13 +74121,13 @@
         <v>1</v>
       </c>
       <c r="AC293" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD293" t="n">
-        <v>49.33</v>
+        <v>48.72</v>
       </c>
       <c r="AE293" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF293" t="n">
         <v>3</v>
@@ -74258,10 +74136,10 @@
         <v>43</v>
       </c>
       <c r="AH293" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI293" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ293" t="n">
         <v>2</v>
@@ -74282,22 +74160,22 @@
         <v>0</v>
       </c>
       <c r="AP293" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ293" t="n">
         <v>0</v>
       </c>
       <c r="AR293" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AS293" t="n">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="AT293" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AU293" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AV293" t="n">
         <v>0</v>
@@ -74306,7 +74184,7 @@
         <v>0</v>
       </c>
       <c r="AX293" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY293" t="n">
         <v>0</v>
@@ -74315,7 +74193,7 @@
         <v>0</v>
       </c>
       <c r="BA293" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="BB293" t="inlineStr">
         <is>
@@ -74323,13 +74201,13 @@
         </is>
       </c>
       <c r="BC293" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD293" t="n">
-        <v>7.5857142857143</v>
+        <v>7.62</v>
       </c>
       <c r="BE293" t="n">
-        <v>647</v>
+        <v>462.33333333333</v>
       </c>
       <c r="BF293" t="inlineStr"/>
       <c r="BG293" t="inlineStr"/>
@@ -74401,19 +74279,19 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="F294" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G294" t="n">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="H294" t="n">
-        <v>81.693989071038</v>
+        <v>81.60377358490599</v>
       </c>
       <c r="I294" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J294" t="n">
         <v>3</v>
@@ -74446,19 +74324,19 @@
         <v>1</v>
       </c>
       <c r="T294" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U294" t="n">
-        <v>68.75</v>
+        <v>66.666666666667</v>
       </c>
       <c r="V294" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="W294" t="n">
-        <v>65.454545454545</v>
+        <v>65.573770491803</v>
       </c>
       <c r="X294" t="n">
-        <v>628</v>
+        <v>718</v>
       </c>
       <c r="Y294" t="n">
         <v>0</v>
@@ -74473,13 +74351,13 @@
         <v>0</v>
       </c>
       <c r="AC294" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AD294" t="n">
-        <v>30</v>
+        <v>31.578947368421</v>
       </c>
       <c r="AE294" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AF294" t="n">
         <v>0</v>
@@ -74506,13 +74384,13 @@
         <v>0</v>
       </c>
       <c r="AN294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO294" t="n">
         <v>0</v>
       </c>
       <c r="AP294" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ294" t="n">
         <v>0</v>
@@ -74521,13 +74399,13 @@
         <v>3</v>
       </c>
       <c r="AS294" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT294" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU294" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AV294" t="n">
         <v>7</v>
@@ -74538,10 +74416,10 @@
       <c r="AX294" t="inlineStr"/>
       <c r="AY294" t="inlineStr"/>
       <c r="AZ294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA294" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB294" t="inlineStr">
         <is>
@@ -74549,10 +74427,10 @@
         </is>
       </c>
       <c r="BC294" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD294" t="n">
-        <v>6.9444444444444</v>
+        <v>6.99</v>
       </c>
       <c r="BE294" t="n">
         <v>0</v>
@@ -74570,10 +74448,10 @@
         <v>0</v>
       </c>
       <c r="BJ294" t="n">
-        <v>62.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="BK294" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BL294" t="n">
         <v>0</v>
@@ -74582,19 +74460,19 @@
         <v>1</v>
       </c>
       <c r="BN294" t="n">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="BO294" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="BP294" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BQ294" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BR294" t="n">
-        <v>60.869565217391</v>
+        <v>64</v>
       </c>
       <c r="BS294" t="n">
         <v>0</v>
@@ -74633,19 +74511,19 @@
         <v>3</v>
       </c>
       <c r="CE294" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="CF294" t="n">
         <v>1</v>
       </c>
       <c r="CG294" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="CH294" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CI294" t="n">
-        <v>463</v>
+        <v>536</v>
       </c>
       <c r="CJ294" t="n">
         <v>0</v>
@@ -74696,10 +74574,10 @@
         <v>0</v>
       </c>
       <c r="CZ294" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DA294" t="n">
-        <v>76.92307692307701</v>
+        <v>80</v>
       </c>
       <c r="DB294" t="n">
         <v>0</v>
@@ -74708,10 +74586,10 @@
         <v>0</v>
       </c>
       <c r="DD294" t="n">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="DE294" t="n">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="DF294" t="n">
         <v>0</v>
@@ -74733,28 +74611,28 @@
         <v>2</v>
       </c>
       <c r="E295" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F295" t="n">
         <v>34</v>
       </c>
       <c r="G295" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H295" t="n">
-        <v>74.62686567164199</v>
+        <v>76.388888888889</v>
       </c>
       <c r="I295" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J295" t="n">
         <v>5</v>
       </c>
       <c r="K295" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L295" t="n">
-        <v>38.095238095238</v>
+        <v>39.583333333333</v>
       </c>
       <c r="M295" t="n">
         <v>1</v>
@@ -74784,13 +74662,13 @@
         <v>0</v>
       </c>
       <c r="V295" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="W295" t="n">
-        <v>29.357798165138</v>
+        <v>31.707317073171</v>
       </c>
       <c r="X295" t="n">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="Y295" t="n">
         <v>10</v>
@@ -74811,19 +74689,19 @@
         <v>33.333333333333</v>
       </c>
       <c r="AE295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF295" t="n">
         <v>0</v>
       </c>
       <c r="AG295" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH295" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI295" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ295" t="n">
         <v>3</v>
@@ -74850,10 +74728,10 @@
         <v>0</v>
       </c>
       <c r="AR295" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS295" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AT295" t="n">
         <v>7</v>
@@ -74873,7 +74751,7 @@
         <v>0</v>
       </c>
       <c r="BA295" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BB295" t="inlineStr">
         <is>
@@ -74881,13 +74759,13 @@
         </is>
       </c>
       <c r="BC295" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD295" t="n">
-        <v>6.6</v>
+        <v>6.6076923076923</v>
       </c>
       <c r="BE295" t="n">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="BF295" t="n">
         <v>0</v>
@@ -74902,31 +74780,31 @@
         <v>0</v>
       </c>
       <c r="BJ295" t="n">
-        <v>79.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="BK295" t="n">
+        <v>13</v>
+      </c>
+      <c r="BL295" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM295" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN295" t="n">
+        <v>34</v>
+      </c>
+      <c r="BO295" t="n">
+        <v>76</v>
+      </c>
+      <c r="BP295" t="n">
         <v>12</v>
       </c>
-      <c r="BL295" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM295" t="n">
-        <v>2</v>
-      </c>
-      <c r="BN295" t="n">
-        <v>32</v>
-      </c>
-      <c r="BO295" t="n">
-        <v>68</v>
-      </c>
-      <c r="BP295" t="n">
-        <v>10</v>
-      </c>
       <c r="BQ295" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="BR295" t="n">
-        <v>31.372549019608</v>
+        <v>33.620689655172</v>
       </c>
       <c r="BS295" t="n">
         <v>0</v>
@@ -74962,13 +74840,13 @@
         <v>0</v>
       </c>
       <c r="CD295" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE295" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="CF295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG295" t="n">
         <v>6</v>
@@ -74977,7 +74855,7 @@
         <v>4</v>
       </c>
       <c r="CI295" t="n">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="CJ295" t="n">
         <v>0</v>
@@ -75019,7 +74897,7 @@
         <v>5</v>
       </c>
       <c r="CW295" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="CX295" t="n">
         <v>0</v>
@@ -75031,7 +74909,7 @@
         <v>6</v>
       </c>
       <c r="DA295" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="DB295" t="n">
         <v>0</v>
@@ -75040,10 +74918,10 @@
         <v>0</v>
       </c>
       <c r="DD295" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="DE295" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="DF295" t="n">
         <v>0</v>
@@ -76393,28 +76271,28 @@
         <v>9</v>
       </c>
       <c r="E300" t="n">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="F300" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G300" t="n">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="H300" t="n">
-        <v>72.83950617284</v>
+        <v>71.75792507204601</v>
       </c>
       <c r="I300" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J300" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K300" t="n">
         <v>31</v>
       </c>
       <c r="L300" t="n">
-        <v>57.407407407407</v>
+        <v>53.448275862069</v>
       </c>
       <c r="M300" t="n">
         <v>3</v>
@@ -76426,10 +76304,10 @@
         <v>0</v>
       </c>
       <c r="P300" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q300" t="n">
-        <v>21.621621621622</v>
+        <v>21.25</v>
       </c>
       <c r="R300" t="n">
         <v>39</v>
@@ -76441,16 +76319,16 @@
         <v>7</v>
       </c>
       <c r="U300" t="n">
-        <v>38.888888888889</v>
+        <v>35</v>
       </c>
       <c r="V300" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W300" t="n">
-        <v>46.969696969697</v>
+        <v>45</v>
       </c>
       <c r="X300" t="n">
-        <v>1090</v>
+        <v>1180</v>
       </c>
       <c r="Y300" t="n">
         <v>15.384615384615</v>
@@ -76465,10 +76343,10 @@
         <v>0</v>
       </c>
       <c r="AC300" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD300" t="n">
-        <v>80.645161290323</v>
+        <v>78.787878787879</v>
       </c>
       <c r="AE300" t="n">
         <v>10</v>
@@ -76477,19 +76355,19 @@
         <v>0</v>
       </c>
       <c r="AG300" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH300" t="n">
         <v>17</v>
       </c>
       <c r="AI300" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ300" t="n">
         <v>9</v>
       </c>
       <c r="AK300" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL300" t="n">
         <v>0</v>
@@ -76504,25 +76382,25 @@
         <v>0</v>
       </c>
       <c r="AP300" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ300" t="n">
         <v>0</v>
       </c>
       <c r="AR300" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AS300" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AT300" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU300" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AV300" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AW300" t="n">
         <v>0</v>
@@ -76533,7 +76411,7 @@
         <v>0</v>
       </c>
       <c r="BA300" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BB300" t="inlineStr">
         <is>
@@ -76541,13 +76419,13 @@
         </is>
       </c>
       <c r="BC300" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD300" t="n">
-        <v>7.3153846153846</v>
+        <v>7.2071428571429</v>
       </c>
       <c r="BE300" t="n">
-        <v>181.66666666667</v>
+        <v>196.66666666667</v>
       </c>
       <c r="BF300" t="n">
         <v>0</v>
@@ -76556,37 +76434,37 @@
         <v>4</v>
       </c>
       <c r="BH300" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="BK300" t="n">
         <v>14</v>
       </c>
-      <c r="BI300" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ300" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="BK300" t="n">
-        <v>13</v>
-      </c>
       <c r="BL300" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BM300" t="n">
         <v>5</v>
       </c>
       <c r="BN300" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="BO300" t="n">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="BP300" t="n">
         <v>8</v>
       </c>
       <c r="BQ300" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BR300" t="n">
-        <v>48.245614035088</v>
+        <v>46.666666666667</v>
       </c>
       <c r="BS300" t="n">
         <v>0</v>
@@ -76604,10 +76482,10 @@
         <v>2</v>
       </c>
       <c r="BX300" t="n">
+        <v>19</v>
+      </c>
+      <c r="BY300" t="n">
         <v>20</v>
-      </c>
-      <c r="BY300" t="n">
-        <v>19</v>
       </c>
       <c r="BZ300" t="n">
         <v>1</v>
@@ -76625,19 +76503,19 @@
         <v>16</v>
       </c>
       <c r="CE300" t="n">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="CF300" t="n">
         <v>4</v>
       </c>
       <c r="CG300" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CH300" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CI300" t="n">
-        <v>615</v>
+        <v>653</v>
       </c>
       <c r="CJ300" t="n">
         <v>0</v>
@@ -76655,10 +76533,10 @@
         <v>0</v>
       </c>
       <c r="CO300" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CP300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CQ300" t="n">
         <v>0</v>
@@ -76676,10 +76554,10 @@
         <v>0</v>
       </c>
       <c r="CV300" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CW300" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="CX300" t="n">
         <v>0</v>
@@ -76700,10 +76578,10 @@
         <v>0</v>
       </c>
       <c r="DD300" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="DE300" t="n">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="DF300" t="n">
         <v>3</v>
@@ -76725,28 +76603,28 @@
         <v>2</v>
       </c>
       <c r="E301" t="n">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="F301" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G301" t="n">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="H301" t="n">
-        <v>84.362139917695</v>
+        <v>84.25047438330201</v>
       </c>
       <c r="I301" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J301" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K301" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L301" t="n">
-        <v>55.555555555556</v>
+        <v>50</v>
       </c>
       <c r="M301" t="n">
         <v>3</v>
@@ -76773,16 +76651,16 @@
         <v>14</v>
       </c>
       <c r="U301" t="n">
-        <v>58.333333333333</v>
+        <v>53.846153846154</v>
       </c>
       <c r="V301" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="W301" t="n">
-        <v>50</v>
+        <v>48.818897637795</v>
       </c>
       <c r="X301" t="n">
-        <v>858</v>
+        <v>948</v>
       </c>
       <c r="Y301" t="n">
         <v>9.090909090909101</v>
@@ -76797,10 +76675,10 @@
         <v>0</v>
       </c>
       <c r="AC301" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AD301" t="n">
-        <v>61.904761904762</v>
+        <v>63.265306122449</v>
       </c>
       <c r="AE301" t="n">
         <v>11</v>
@@ -76812,10 +76690,10 @@
         <v>11</v>
       </c>
       <c r="AH301" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI301" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ301" t="n">
         <v>0</v>
@@ -76830,13 +76708,13 @@
         <v>0</v>
       </c>
       <c r="AN301" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO301" t="n">
         <v>0</v>
       </c>
       <c r="AP301" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ301" t="n">
         <v>0</v>
@@ -76845,13 +76723,13 @@
         <v>3</v>
       </c>
       <c r="AS301" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AT301" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU301" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AV301" t="n">
         <v>13</v>
@@ -76865,7 +76743,7 @@
         <v>2</v>
       </c>
       <c r="BA301" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BB301" t="inlineStr">
         <is>
@@ -76873,19 +76751,19 @@
         </is>
       </c>
       <c r="BC301" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>6.7333333333333</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>948</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG301" t="n">
         <v>11</v>
-      </c>
-      <c r="BD301" t="n">
-        <v>6.7363636363636</v>
-      </c>
-      <c r="BE301" t="n">
-        <v>858</v>
-      </c>
-      <c r="BF301" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG301" t="n">
-        <v>10</v>
       </c>
       <c r="BH301" t="n">
         <v>4</v>
@@ -76894,10 +76772,10 @@
         <v>0</v>
       </c>
       <c r="BJ301" t="n">
-        <v>74.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="BK301" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BL301" t="n">
         <v>3</v>
@@ -76906,19 +76784,19 @@
         <v>0</v>
       </c>
       <c r="BN301" t="n">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="BO301" t="n">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="BP301" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="BQ301" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="BR301" t="n">
-        <v>47.777777777778</v>
+        <v>47.524752475248</v>
       </c>
       <c r="BS301" t="n">
         <v>0</v>
@@ -76957,19 +76835,19 @@
         <v>8</v>
       </c>
       <c r="CE301" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="CF301" t="n">
         <v>0</v>
       </c>
       <c r="CG301" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="CH301" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="CI301" t="n">
-        <v>632</v>
+        <v>686</v>
       </c>
       <c r="CJ301" t="n">
         <v>0</v>
@@ -77008,10 +76886,10 @@
         <v>0</v>
       </c>
       <c r="CV301" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW301" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CX301" t="n">
         <v>0</v>
@@ -77020,10 +76898,10 @@
         <v>0</v>
       </c>
       <c r="CZ301" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DA301" t="n">
-        <v>44.444444444444</v>
+        <v>41.935483870968</v>
       </c>
       <c r="DB301" t="n">
         <v>0</v>
@@ -77032,10 +76910,10 @@
         <v>0</v>
       </c>
       <c r="DD301" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="DE301" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="DF301" t="n">
         <v>1</v>
@@ -77051,34 +76929,34 @@
         <v>3</v>
       </c>
       <c r="C302" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D302" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E302" t="n">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="F302" t="n">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G302" t="n">
-        <v>775</v>
+        <v>820</v>
       </c>
       <c r="H302" t="n">
-        <v>81.55</v>
+        <v>81.22</v>
       </c>
       <c r="I302" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J302" t="n">
         <v>33</v>
       </c>
       <c r="K302" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L302" t="n">
-        <v>65.91</v>
+        <v>66.67</v>
       </c>
       <c r="M302" t="n">
         <v>2</v>
@@ -77093,10 +76971,10 @@
         <v>13</v>
       </c>
       <c r="Q302" t="n">
-        <v>37.14</v>
+        <v>36.11</v>
       </c>
       <c r="R302" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S302" t="n">
         <v>14</v>
@@ -77108,16 +76986,16 @@
         <v>14.29</v>
       </c>
       <c r="V302" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="W302" t="n">
-        <v>35.86</v>
+        <v>37.13</v>
       </c>
       <c r="X302" t="n">
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="Y302" t="n">
-        <v>9.090999999999999</v>
+        <v>8.333</v>
       </c>
       <c r="Z302" t="n">
         <v>1</v>
@@ -77129,10 +77007,10 @@
         <v>2</v>
       </c>
       <c r="AC302" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD302" t="n">
-        <v>51.39</v>
+        <v>50</v>
       </c>
       <c r="AE302" t="n">
         <v>3</v>
@@ -77141,7 +77019,7 @@
         <v>7</v>
       </c>
       <c r="AG302" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH302" t="n">
         <v>13</v>
@@ -77168,22 +77046,22 @@
         <v>0</v>
       </c>
       <c r="AP302" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ302" t="n">
         <v>0</v>
       </c>
       <c r="AR302" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AS302" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="AT302" t="n">
         <v>18</v>
       </c>
       <c r="AU302" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AV302" t="n">
         <v>0</v>
@@ -77201,7 +77079,7 @@
         <v>0</v>
       </c>
       <c r="BA302" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="BB302" t="inlineStr">
         <is>
@@ -77209,13 +77087,13 @@
         </is>
       </c>
       <c r="BC302" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD302" t="n">
-        <v>7.4666666666667</v>
+        <v>7.49375</v>
       </c>
       <c r="BE302" t="n">
-        <v>474</v>
+        <v>506.66666666667</v>
       </c>
       <c r="BF302" t="inlineStr"/>
       <c r="BG302" t="inlineStr"/>
@@ -79179,16 +79057,16 @@
         <v>3</v>
       </c>
       <c r="E309" t="n">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F309" t="n">
         <v>227</v>
       </c>
       <c r="G309" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H309" t="n">
-        <v>75.35287730727499</v>
+        <v>75.37960954446901</v>
       </c>
       <c r="I309" t="n">
         <v>234</v>
@@ -79254,7 +79132,7 @@
         <v>37</v>
       </c>
       <c r="AD309" t="n">
-        <v>35.922330097087</v>
+        <v>36.274509803922</v>
       </c>
       <c r="AE309" t="n">
         <v>43</v>
@@ -79305,7 +79183,7 @@
         <v>28</v>
       </c>
       <c r="AU309" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AV309" t="n">
         <v>25</v>
@@ -79363,7 +79241,7 @@
         <v>270</v>
       </c>
       <c r="BO309" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BP309" t="n">
         <v>33</v>
@@ -79423,7 +79301,7 @@
         <v>27</v>
       </c>
       <c r="CI309" t="n">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="CJ309" t="n">
         <v>0</v>
@@ -79486,7 +79364,7 @@
         <v>0</v>
       </c>
       <c r="DD309" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="DE309" t="n">
         <v>667</v>
@@ -86333,19 +86211,19 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="F333" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G333" t="n">
-        <v>612</v>
+        <v>684</v>
       </c>
       <c r="H333" t="n">
-        <v>81.69934640522899</v>
+        <v>82.45614035087701</v>
       </c>
       <c r="I333" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J333" t="n">
         <v>3</v>
@@ -86357,7 +86235,7 @@
         <v>33.333333333333</v>
       </c>
       <c r="M333" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N333" t="n">
         <v>0</v>
@@ -86372,7 +86250,7 @@
         <v>33.333333333333</v>
       </c>
       <c r="R333" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S333" t="n">
         <v>4</v>
@@ -86381,19 +86259,19 @@
         <v>29</v>
       </c>
       <c r="U333" t="n">
-        <v>64.444444444444</v>
+        <v>61.702127659574</v>
       </c>
       <c r="V333" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="W333" t="n">
-        <v>66.666666666667</v>
+        <v>65.853658536585</v>
       </c>
       <c r="X333" t="n">
-        <v>1170</v>
+        <v>1260</v>
       </c>
       <c r="Y333" t="n">
-        <v>11.111111111111</v>
+        <v>10</v>
       </c>
       <c r="Z333" t="n">
         <v>0</v>
@@ -86405,46 +86283,46 @@
         <v>0</v>
       </c>
       <c r="AC333" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AD333" t="n">
-        <v>55.454545454545</v>
+        <v>55.46218487395</v>
       </c>
       <c r="AE333" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AF333" t="n">
         <v>1</v>
       </c>
       <c r="AG333" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH333" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP333" t="n">
         <v>14</v>
-      </c>
-      <c r="AI333" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ333" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK333" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL333" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM333" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN333" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO333" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP333" t="n">
-        <v>13</v>
       </c>
       <c r="AQ333" t="n">
         <v>0</v>
@@ -86453,16 +86331,16 @@
         <v>6</v>
       </c>
       <c r="AS333" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AT333" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU333" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AV333" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AW333" t="n">
         <v>0</v>
@@ -86470,10 +86348,10 @@
       <c r="AX333" t="inlineStr"/>
       <c r="AY333" t="inlineStr"/>
       <c r="AZ333" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BA333" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB333" t="inlineStr">
         <is>
@@ -86481,13 +86359,13 @@
         </is>
       </c>
       <c r="BC333" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD333" t="n">
-        <v>7.1538461538462</v>
+        <v>7.1428571428571</v>
       </c>
       <c r="BE333" t="n">
-        <v>1170</v>
+        <v>1260</v>
       </c>
       <c r="BF333" t="n">
         <v>0</v>
@@ -86502,31 +86380,31 @@
         <v>0</v>
       </c>
       <c r="BJ333" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="BK333" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BL333" t="n">
         <v>1</v>
       </c>
       <c r="BM333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN333" t="n">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="BO333" t="n">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="BP333" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BQ333" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="BR333" t="n">
-        <v>68.115942028986</v>
+        <v>68.421052631579</v>
       </c>
       <c r="BS333" t="n">
         <v>0</v>
@@ -86544,7 +86422,7 @@
         <v>0</v>
       </c>
       <c r="BX333" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BY333" t="n">
         <v>1</v>
@@ -86565,19 +86443,19 @@
         <v>3</v>
       </c>
       <c r="CE333" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="CF333" t="n">
         <v>1</v>
       </c>
       <c r="CG333" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="CH333" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="CI333" t="n">
-        <v>885</v>
+        <v>973</v>
       </c>
       <c r="CJ333" t="n">
         <v>0</v>
@@ -86595,7 +86473,7 @@
         <v>0</v>
       </c>
       <c r="CO333" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CP333" t="n">
         <v>4</v>
@@ -86631,7 +86509,7 @@
         <v>10</v>
       </c>
       <c r="DA333" t="n">
-        <v>38.461538461538</v>
+        <v>34.48275862069</v>
       </c>
       <c r="DB333" t="n">
         <v>0</v>
@@ -86640,10 +86518,10 @@
         <v>0</v>
       </c>
       <c r="DD333" t="n">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="DE333" t="n">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="DF333" t="n">
         <v>3</v>
@@ -89962,7 +89840,7 @@
         <v>44.3</v>
       </c>
       <c r="X345" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="Y345" t="n">
         <v>8.333</v>
@@ -90016,7 +89894,7 @@
         <v>0</v>
       </c>
       <c r="AP345" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ345" t="n">
         <v>0</v>
@@ -90057,13 +89935,13 @@
         </is>
       </c>
       <c r="BC345" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD345" t="n">
         <v>7.5125</v>
       </c>
       <c r="BE345" t="n">
-        <v>728.5</v>
+        <v>777</v>
       </c>
       <c r="BF345" t="inlineStr"/>
       <c r="BG345" t="inlineStr"/>
@@ -90135,22 +90013,22 @@
         <v>9</v>
       </c>
       <c r="E346" t="n">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="F346" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G346" t="n">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="H346" t="n">
-        <v>79.08</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I346" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J346" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K346" t="n">
         <v>28</v>
@@ -90171,7 +90049,7 @@
         <v>16</v>
       </c>
       <c r="Q346" t="n">
-        <v>40</v>
+        <v>38.1</v>
       </c>
       <c r="R346" t="n">
         <v>27</v>
@@ -90183,16 +90061,16 @@
         <v>4</v>
       </c>
       <c r="U346" t="n">
-        <v>22.22</v>
+        <v>21.05</v>
       </c>
       <c r="V346" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W346" t="n">
-        <v>36.04</v>
+        <v>35.35</v>
       </c>
       <c r="X346" t="n">
-        <v>1304</v>
+        <v>1401</v>
       </c>
       <c r="Y346" t="n">
         <v>18.52</v>
@@ -90225,10 +90103,10 @@
         <v>13</v>
       </c>
       <c r="AI346" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AJ346" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK346" t="n">
         <v>4</v>
@@ -90246,19 +90124,19 @@
         <v>0</v>
       </c>
       <c r="AP346" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ346" t="n">
         <v>0</v>
       </c>
       <c r="AR346" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AS346" t="n">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AT346" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU346" t="n">
         <v>17</v>
@@ -90279,7 +90157,7 @@
         <v>0</v>
       </c>
       <c r="BA346" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB346" t="inlineStr">
         <is>
@@ -90287,13 +90165,13 @@
         </is>
       </c>
       <c r="BC346" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD346" t="n">
-        <v>7.34</v>
+        <v>7.275</v>
       </c>
       <c r="BE346" t="n">
-        <v>260.8</v>
+        <v>280.2</v>
       </c>
       <c r="BF346" t="inlineStr"/>
       <c r="BG346" t="inlineStr"/>
@@ -90359,34 +90237,34 @@
         <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D347" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E347" t="n">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="F347" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G347" t="n">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="H347" t="n">
-        <v>84.23</v>
+        <v>83.70999999999999</v>
       </c>
       <c r="I347" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J347" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K347" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L347" t="n">
-        <v>81.81999999999999</v>
+        <v>84</v>
       </c>
       <c r="M347" t="n">
         <v>1</v>
@@ -90398,10 +90276,10 @@
         <v>0</v>
       </c>
       <c r="P347" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q347" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="R347" t="n">
         <v>8</v>
@@ -90410,19 +90288,19 @@
         <v>5</v>
       </c>
       <c r="T347" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U347" t="n">
-        <v>30</v>
+        <v>36.36</v>
       </c>
       <c r="V347" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="W347" t="n">
-        <v>37.04</v>
+        <v>37.83</v>
       </c>
       <c r="X347" t="n">
-        <v>894</v>
+        <v>953</v>
       </c>
       <c r="Y347" t="n">
         <v>12.5</v>
@@ -90437,25 +90315,25 @@
         <v>0</v>
       </c>
       <c r="AC347" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AD347" t="n">
-        <v>64.70999999999999</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="AE347" t="n">
         <v>5</v>
       </c>
       <c r="AF347" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG347" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH347" t="n">
         <v>6</v>
       </c>
       <c r="AI347" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ347" t="n">
         <v>0</v>
@@ -90476,22 +90354,22 @@
         <v>0</v>
       </c>
       <c r="AP347" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ347" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR347" t="n">
         <v>10</v>
       </c>
-      <c r="AQ347" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR347" t="n">
-        <v>8</v>
-      </c>
       <c r="AS347" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AT347" t="n">
         <v>7</v>
       </c>
       <c r="AU347" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AV347" t="n">
         <v>0</v>
@@ -90500,7 +90378,7 @@
         <v>0</v>
       </c>
       <c r="AX347" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY347" t="n">
         <v>3</v>
@@ -90509,7 +90387,7 @@
         <v>0</v>
       </c>
       <c r="BA347" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BB347" t="inlineStr">
         <is>
@@ -90517,13 +90395,13 @@
         </is>
       </c>
       <c r="BC347" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD347" t="n">
-        <v>7.0583333333333</v>
+        <v>7.0846153846154</v>
       </c>
       <c r="BE347" t="n">
-        <v>894</v>
+        <v>953</v>
       </c>
       <c r="BF347" t="inlineStr"/>
       <c r="BG347" t="inlineStr"/>
@@ -90595,19 +90473,19 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="F348" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G348" t="n">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="H348" t="n">
-        <v>84.84999999999999</v>
+        <v>85.08</v>
       </c>
       <c r="I348" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J348" t="n">
         <v>0</v>
@@ -90640,19 +90518,19 @@
         <v>1</v>
       </c>
       <c r="T348" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U348" t="n">
-        <v>90</v>
+        <v>91.67</v>
       </c>
       <c r="V348" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W348" t="n">
-        <v>65.22</v>
+        <v>68</v>
       </c>
       <c r="X348" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="Y348" t="n">
         <v>0</v>
@@ -90667,10 +90545,10 @@
         <v>0</v>
       </c>
       <c r="AC348" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AD348" t="n">
-        <v>53.21</v>
+        <v>51.69</v>
       </c>
       <c r="AE348" t="n">
         <v>3</v>
@@ -90697,7 +90575,7 @@
         <v>0</v>
       </c>
       <c r="AM348" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AN348" t="n">
         <v>2</v>
@@ -90706,7 +90584,7 @@
         <v>1</v>
       </c>
       <c r="AP348" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ348" t="n">
         <v>0</v>
@@ -90721,10 +90599,10 @@
         <v>1</v>
       </c>
       <c r="AU348" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AV348" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW348" t="n">
         <v>0</v>
@@ -90736,10 +90614,10 @@
         <v>0</v>
       </c>
       <c r="AZ348" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BA348" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="BB348" t="inlineStr">
         <is>
@@ -90747,10 +90625,10 @@
         </is>
       </c>
       <c r="BC348" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD348" t="n">
-        <v>7.6583333333333</v>
+        <v>7.7</v>
       </c>
       <c r="BE348" t="inlineStr"/>
       <c r="BF348" t="inlineStr"/>
@@ -90823,19 +90701,19 @@
         <v>2</v>
       </c>
       <c r="E349" t="n">
-        <v>678</v>
+        <v>739</v>
       </c>
       <c r="F349" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G349" t="n">
-        <v>756</v>
+        <v>821</v>
       </c>
       <c r="H349" t="n">
-        <v>89.68000000000001</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="I349" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J349" t="n">
         <v>11</v>
@@ -90847,7 +90725,7 @@
         <v>80</v>
       </c>
       <c r="M349" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N349" t="n">
         <v>0</v>
@@ -90874,13 +90752,13 @@
         <v>33.33</v>
       </c>
       <c r="V349" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="W349" t="n">
-        <v>35.57</v>
+        <v>34.7</v>
       </c>
       <c r="X349" t="n">
-        <v>1142</v>
+        <v>1240</v>
       </c>
       <c r="Y349" t="n">
         <v>14.29</v>
@@ -90895,25 +90773,25 @@
         <v>0</v>
       </c>
       <c r="AC349" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AD349" t="n">
-        <v>65.52</v>
+        <v>67.69</v>
       </c>
       <c r="AE349" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF349" t="n">
         <v>11</v>
       </c>
       <c r="AG349" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH349" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI349" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ349" t="n">
         <v>2</v>
@@ -90934,7 +90812,7 @@
         <v>0</v>
       </c>
       <c r="AP349" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ349" t="n">
         <v>0</v>
@@ -90943,13 +90821,13 @@
         <v>6</v>
       </c>
       <c r="AS349" t="n">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AT349" t="n">
         <v>6</v>
       </c>
       <c r="AU349" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AV349" t="n">
         <v>0</v>
@@ -90967,7 +90845,7 @@
         <v>0</v>
       </c>
       <c r="BA349" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="BB349" t="inlineStr">
         <is>
@@ -90975,13 +90853,13 @@
         </is>
       </c>
       <c r="BC349" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD349" t="n">
-        <v>6.8428571428571</v>
+        <v>6.8466666666667</v>
       </c>
       <c r="BE349" t="n">
-        <v>1142</v>
+        <v>1240</v>
       </c>
       <c r="BF349" t="inlineStr"/>
       <c r="BG349" t="inlineStr"/>
@@ -91053,64 +90931,64 @@
         <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="F350" t="n">
+        <v>92</v>
+      </c>
+      <c r="G350" t="n">
+        <v>655</v>
+      </c>
+      <c r="H350" t="n">
+        <v>85.95</v>
+      </c>
+      <c r="I350" t="n">
+        <v>67</v>
+      </c>
+      <c r="J350" t="n">
+        <v>7</v>
+      </c>
+      <c r="K350" t="n">
+        <v>9</v>
+      </c>
+      <c r="L350" t="n">
+        <v>60</v>
+      </c>
+      <c r="M350" t="n">
+        <v>1</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P350" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>38.46</v>
+      </c>
+      <c r="R350" t="n">
+        <v>16</v>
+      </c>
+      <c r="S350" t="n">
+        <v>4</v>
+      </c>
+      <c r="T350" t="n">
+        <v>11</v>
+      </c>
+      <c r="U350" t="n">
+        <v>45.83</v>
+      </c>
+      <c r="V350" t="n">
         <v>78</v>
       </c>
-      <c r="G350" t="n">
-        <v>583</v>
-      </c>
-      <c r="H350" t="n">
-        <v>86.62</v>
-      </c>
-      <c r="I350" t="n">
-        <v>59</v>
-      </c>
-      <c r="J350" t="n">
-        <v>6</v>
-      </c>
-      <c r="K350" t="n">
-        <v>6</v>
-      </c>
-      <c r="L350" t="n">
-        <v>50</v>
-      </c>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="n">
-        <v>0</v>
-      </c>
-      <c r="O350" t="n">
-        <v>0</v>
-      </c>
-      <c r="P350" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q350" t="n">
-        <v>36.36</v>
-      </c>
-      <c r="R350" t="n">
-        <v>13</v>
-      </c>
-      <c r="S350" t="n">
-        <v>3</v>
-      </c>
-      <c r="T350" t="n">
-        <v>10</v>
-      </c>
-      <c r="U350" t="n">
-        <v>52.63</v>
-      </c>
-      <c r="V350" t="n">
-        <v>66</v>
-      </c>
       <c r="W350" t="n">
-        <v>31.13</v>
+        <v>31.84</v>
       </c>
       <c r="X350" t="n">
-        <v>956</v>
+        <v>1054</v>
       </c>
       <c r="Y350" t="n">
         <v>0</v>
@@ -91125,25 +91003,25 @@
         <v>0</v>
       </c>
       <c r="AC350" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AD350" t="n">
-        <v>52.83</v>
+        <v>56.06</v>
       </c>
       <c r="AE350" t="n">
         <v>8</v>
       </c>
       <c r="AF350" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG350" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH350" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI350" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ350" t="n">
         <v>0</v>
@@ -91164,22 +91042,22 @@
         <v>0</v>
       </c>
       <c r="AP350" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ350" t="n">
         <v>0</v>
       </c>
       <c r="AR350" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS350" t="n">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AT350" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AU350" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AV350" t="n">
         <v>0</v>
@@ -91197,7 +91075,7 @@
         <v>0</v>
       </c>
       <c r="BA350" t="n">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="BB350" t="inlineStr">
         <is>
@@ -91205,10 +91083,10 @@
         </is>
       </c>
       <c r="BC350" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD350" t="n">
-        <v>6.5333333333333</v>
+        <v>6.6384615384615</v>
       </c>
       <c r="BE350" t="inlineStr"/>
       <c r="BF350" t="inlineStr"/>
@@ -94335,31 +94213,31 @@
         <v>2</v>
       </c>
       <c r="E363" t="n">
-        <v>900</v>
+        <v>984</v>
       </c>
       <c r="F363" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G363" t="n">
-        <v>1021</v>
+        <v>1112</v>
       </c>
       <c r="H363" t="n">
-        <v>88.148873653281</v>
+        <v>88.48920863309399</v>
       </c>
       <c r="I363" t="n">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J363" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K363" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L363" t="n">
-        <v>68.181818181818</v>
+        <v>69.565217391304</v>
       </c>
       <c r="M363" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N363" t="n">
         <v>0</v>
@@ -94380,19 +94258,19 @@
         <v>3</v>
       </c>
       <c r="T363" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U363" t="n">
-        <v>61.538461538462</v>
+        <v>62.068965517241</v>
       </c>
       <c r="V363" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="W363" t="n">
-        <v>65.868263473054</v>
+        <v>65.921787709497</v>
       </c>
       <c r="X363" t="n">
-        <v>1149</v>
+        <v>1239</v>
       </c>
       <c r="Y363" t="n">
         <v>9.090909090909101</v>
@@ -94407,25 +94285,25 @@
         <v>1</v>
       </c>
       <c r="AC363" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD363" t="n">
-        <v>56.701030927835</v>
+        <v>55.445544554455</v>
       </c>
       <c r="AE363" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF363" t="n">
         <v>0</v>
       </c>
       <c r="AG363" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AH363" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI363" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ363" t="n">
         <v>1</v>
@@ -94440,13 +94318,13 @@
         <v>0</v>
       </c>
       <c r="AN363" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO363" t="n">
         <v>0</v>
       </c>
       <c r="AP363" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ363" t="n">
         <v>0</v>
@@ -94455,13 +94333,13 @@
         <v>6</v>
       </c>
       <c r="AS363" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AT363" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU363" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AV363" t="n">
         <v>19</v>
@@ -94472,10 +94350,10 @@
       <c r="AX363" t="inlineStr"/>
       <c r="AY363" t="inlineStr"/>
       <c r="AZ363" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA363" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="BB363" t="inlineStr">
         <is>
@@ -94483,19 +94361,19 @@
         </is>
       </c>
       <c r="BC363" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD363" t="n">
-        <v>7.7076923076923</v>
+        <v>7.7214285714286</v>
       </c>
       <c r="BE363" t="n">
-        <v>1149</v>
+        <v>1239</v>
       </c>
       <c r="BF363" t="n">
         <v>0</v>
       </c>
       <c r="BG363" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BH363" t="n">
         <v>6</v>
@@ -94504,10 +94382,10 @@
         <v>0</v>
       </c>
       <c r="BJ363" t="n">
-        <v>100.2</v>
+        <v>108.1</v>
       </c>
       <c r="BK363" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BL363" t="n">
         <v>1</v>
@@ -94516,16 +94394,16 @@
         <v>1</v>
       </c>
       <c r="BN363" t="n">
-        <v>513</v>
+        <v>555</v>
       </c>
       <c r="BO363" t="n">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="BP363" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BQ363" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="BR363" t="n">
         <v>66.666666666667</v>
@@ -94567,19 +94445,19 @@
         <v>8</v>
       </c>
       <c r="CE363" t="n">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="CF363" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CG363" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="CH363" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CI363" t="n">
-        <v>1311</v>
+        <v>1421</v>
       </c>
       <c r="CJ363" t="n">
         <v>1</v>
@@ -94618,10 +94496,10 @@
         <v>0</v>
       </c>
       <c r="CV363" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW363" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CX363" t="n">
         <v>0</v>
@@ -94630,10 +94508,10 @@
         <v>0</v>
       </c>
       <c r="CZ363" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="DA363" t="n">
-        <v>57.777777777778</v>
+        <v>60.416666666667</v>
       </c>
       <c r="DB363" t="n">
         <v>0</v>
@@ -94642,10 +94520,10 @@
         <v>0</v>
       </c>
       <c r="DD363" t="n">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="DE363" t="n">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="DF363" t="n">
         <v>4</v>

--- a/players_stats.xlsx
+++ b/players_stats.xlsx
@@ -2386,19 +2386,19 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="H8" t="n">
-        <v>84.27</v>
+        <v>83.84</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -2437,13 +2437,13 @@
         <v>16.67</v>
       </c>
       <c r="V8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W8" t="n">
-        <v>41.03</v>
+        <v>39.53</v>
       </c>
       <c r="X8" t="n">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="Y8" t="n">
         <v>16.67</v>
@@ -2458,19 +2458,19 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>45</v>
+        <v>47.83</v>
       </c>
       <c r="AE8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>5</v>
@@ -2506,13 +2506,13 @@
         <v>5</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
       </c>
       <c r="AU8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
@@ -2538,13 +2538,13 @@
         </is>
       </c>
       <c r="BC8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>7.075</v>
       </c>
       <c r="BE8" t="n">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr"/>
@@ -5583,19 +5583,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G21" t="n">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="H21" t="n">
-        <v>85.47</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -5628,52 +5628,52 @@
         <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U21" t="n">
-        <v>65.22</v>
+        <v>60.71</v>
       </c>
       <c r="V21" t="n">
+        <v>33</v>
+      </c>
+      <c r="W21" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="X21" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
         <v>29</v>
       </c>
-      <c r="W21" t="n">
-        <v>52.73</v>
-      </c>
-      <c r="X21" t="n">
-        <v>360</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>25</v>
-      </c>
       <c r="AD21" t="n">
-        <v>65.79000000000001</v>
+        <v>56.86</v>
       </c>
       <c r="AE21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ21" t="n">
         <v>0</v>
@@ -5687,12 +5687,14 @@
       <c r="AM21" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" t="inlineStr"/>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
       <c r="AO21" t="n">
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
@@ -5701,15 +5703,17 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AU21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AV21" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>2</v>
+      </c>
       <c r="AW21" t="n">
         <v>0</v>
       </c>
@@ -5723,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="BB21" t="inlineStr">
         <is>
@@ -5731,10 +5735,10 @@
         </is>
       </c>
       <c r="BC21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD21" t="n">
-        <v>7.0333333333333</v>
+        <v>7.025</v>
       </c>
       <c r="BE21" t="inlineStr"/>
       <c r="BF21" t="n">
@@ -8086,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB30" t="inlineStr">
         <is>
@@ -8855,7 +8859,7 @@
         <v>3</v>
       </c>
       <c r="CH32" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CI32" t="n">
         <v>0</v>
@@ -10282,13 +10286,13 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
         <v>39</v>
@@ -10348,7 +10352,7 @@
         <v>55.56</v>
       </c>
       <c r="X37" t="n">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="Y37" t="n">
         <v>33.33</v>
@@ -10402,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ37" t="n">
         <v>0</v>
@@ -10443,13 +10447,13 @@
         </is>
       </c>
       <c r="BC37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD37" t="n">
         <v>7.6</v>
       </c>
       <c r="BE37" t="n">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="BF37" t="inlineStr"/>
       <c r="BG37" t="inlineStr"/>
@@ -14587,7 +14591,9 @@
       <c r="AU55" t="n">
         <v>18</v>
       </c>
-      <c r="AV55" t="inlineStr"/>
+      <c r="AV55" t="n">
+        <v>1</v>
+      </c>
       <c r="AW55" t="n">
         <v>0</v>
       </c>
@@ -14601,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="BA55" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB55" t="inlineStr">
         <is>
@@ -14688,16 +14694,16 @@
         <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G56" t="n">
         <v>136</v>
       </c>
       <c r="H56" t="n">
-        <v>80.88</v>
+        <v>81.62</v>
       </c>
       <c r="I56" t="n">
         <v>12</v>
@@ -15252,43 +15258,43 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>5</v>
       </c>
       <c r="H58" t="n">
+        <v>80</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>50</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
         <v>100</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1</v>
-      </c>
-      <c r="L58" t="n">
-        <v>100</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>50</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -15369,7 +15375,7 @@
         <v>0</v>
       </c>
       <c r="AR58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS58" t="n">
         <v>2</v>
@@ -15427,7 +15433,7 @@
         <v>1</v>
       </c>
       <c r="BL58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BM58" t="n">
         <v>1</v>
@@ -15478,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="CC58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD58" t="n">
         <v>2</v>
@@ -15487,7 +15493,7 @@
         <v>0</v>
       </c>
       <c r="CF58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG58" t="n">
         <v>0</v>
@@ -15535,7 +15541,7 @@
         <v>0</v>
       </c>
       <c r="CV58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW58" t="n">
         <v>0</v>
@@ -15562,7 +15568,7 @@
         <v>1</v>
       </c>
       <c r="DE58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DF58" t="n">
         <v>0</v>
@@ -31783,16 +31789,16 @@
         <v>2</v>
       </c>
       <c r="E125" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F125" t="n">
         <v>15</v>
       </c>
       <c r="G125" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H125" t="n">
-        <v>79.73</v>
+        <v>78.87</v>
       </c>
       <c r="I125" t="n">
         <v>5</v>
@@ -31801,13 +31807,13 @@
         <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L125" t="n">
-        <v>69.23</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="M125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -31834,10 +31840,10 @@
         <v>37.5</v>
       </c>
       <c r="V125" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W125" t="n">
-        <v>45.16</v>
+        <v>43.82</v>
       </c>
       <c r="X125" t="n">
         <v>388</v>
@@ -31870,7 +31876,7 @@
         <v>15</v>
       </c>
       <c r="AH125" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI125" t="n">
         <v>2</v>
@@ -31901,7 +31907,7 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AT125" t="n">
         <v>10</v>
@@ -31939,7 +31945,7 @@
         <v>7.18</v>
       </c>
       <c r="BE125" t="n">
-        <v>194</v>
+        <v>193.5</v>
       </c>
       <c r="BF125" t="n">
         <v>0</v>
@@ -32324,7 +32330,7 @@
         <v>14</v>
       </c>
       <c r="AF127" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG127" t="n">
         <v>3</v>
@@ -32333,7 +32339,7 @@
         <v>2</v>
       </c>
       <c r="AI127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ127" t="n">
         <v>0</v>
@@ -33161,31 +33167,31 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F131" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G131" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H131" t="n">
-        <v>72.34</v>
+        <v>66.25</v>
       </c>
       <c r="I131" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L131" t="n">
-        <v>100</v>
+        <v>73.33</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
@@ -33194,31 +33200,31 @@
         <v>0</v>
       </c>
       <c r="P131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131" t="n">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="R131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U131" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V131" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="W131" t="n">
-        <v>43.9</v>
+        <v>37.97</v>
       </c>
       <c r="X131" t="n">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="Y131" t="n">
         <v>0</v>
@@ -33236,7 +33242,7 @@
         <v>2</v>
       </c>
       <c r="AD131" t="n">
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE131" t="n">
         <v>0</v>
@@ -33245,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="AG131" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH131" t="n">
         <v>8</v>
       </c>
-      <c r="AH131" t="n">
-        <v>5</v>
-      </c>
       <c r="AI131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK131" t="n">
         <v>0</v>
@@ -33270,29 +33276,31 @@
         <v>0</v>
       </c>
       <c r="AP131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ131" t="n">
         <v>0</v>
       </c>
       <c r="AR131" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>49</v>
+      </c>
+      <c r="AT131" t="n">
         <v>4</v>
       </c>
-      <c r="AS131" t="n">
-        <v>23</v>
-      </c>
-      <c r="AT131" t="n">
-        <v>1</v>
-      </c>
       <c r="AU131" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV131" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>0</v>
+      </c>
       <c r="AW131" t="n">
         <v>0</v>
       </c>
       <c r="AX131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY131" t="n">
         <v>2</v>
@@ -33301,7 +33309,7 @@
         <v>0</v>
       </c>
       <c r="BA131" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BB131" t="inlineStr">
         <is>
@@ -33309,10 +33317,10 @@
         </is>
       </c>
       <c r="BC131" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD131" t="n">
-        <v>6.7666666666667</v>
+        <v>6.7</v>
       </c>
       <c r="BE131" t="inlineStr"/>
       <c r="BF131" t="n">
@@ -35446,34 +35454,34 @@
         <v>180</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E141" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F141" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G141" t="n">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="H141" t="n">
-        <v>71.20999999999999</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="I141" t="n">
+        <v>9</v>
+      </c>
+      <c r="J141" t="n">
+        <v>11</v>
+      </c>
+      <c r="K141" t="n">
         <v>5</v>
-      </c>
-      <c r="J141" t="n">
-        <v>4</v>
-      </c>
-      <c r="K141" t="n">
-        <v>3</v>
       </c>
       <c r="L141" t="n">
         <v>100</v>
@@ -35491,55 +35499,55 @@
         <v>1</v>
       </c>
       <c r="Q141" t="n">
-        <v>33.33</v>
+        <v>25</v>
       </c>
       <c r="R141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T141" t="n">
         <v>3</v>
       </c>
       <c r="U141" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="V141" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="W141" t="n">
-        <v>32.43</v>
+        <v>40</v>
       </c>
       <c r="X141" t="n">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="Y141" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="Z141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB141" t="n">
         <v>0</v>
       </c>
       <c r="AC141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD141" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AE141" t="n">
         <v>0</v>
       </c>
       <c r="AF141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH141" t="n">
         <v>2</v>
@@ -35554,7 +35562,7 @@
         <v>0</v>
       </c>
       <c r="AL141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM141" t="n">
         <v>0</v>
@@ -35564,24 +35572,26 @@
         <v>0</v>
       </c>
       <c r="AP141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS141" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AT141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU141" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV141" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>0</v>
+      </c>
       <c r="AW141" t="n">
         <v>0</v>
       </c>
@@ -35595,7 +35605,7 @@
         <v>0</v>
       </c>
       <c r="BA141" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BB141" t="inlineStr">
         <is>
@@ -35603,12 +35613,14 @@
         </is>
       </c>
       <c r="BC141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD141" t="n">
-        <v>7.0666666666667</v>
-      </c>
-      <c r="BE141" t="inlineStr"/>
+        <v>7.6</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>269</v>
+      </c>
       <c r="BF141" t="n">
         <v>0</v>
       </c>
@@ -36592,34 +36604,34 @@
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F146" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G146" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H146" t="n">
-        <v>84.62</v>
+        <v>82.02</v>
       </c>
       <c r="I146" t="n">
         <v>5</v>
       </c>
       <c r="J146" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K146" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L146" t="n">
-        <v>85.70999999999999</v>
+        <v>88.89</v>
       </c>
       <c r="M146" t="n">
         <v>0</v>
@@ -36631,34 +36643,34 @@
         <v>0</v>
       </c>
       <c r="P146" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>53.85</v>
+      </c>
+      <c r="R146" t="n">
+        <v>13</v>
+      </c>
+      <c r="S146" t="n">
         <v>4</v>
       </c>
-      <c r="Q146" t="n">
-        <v>57.14</v>
-      </c>
-      <c r="R146" t="n">
-        <v>11</v>
-      </c>
-      <c r="S146" t="n">
-        <v>3</v>
-      </c>
       <c r="T146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U146" t="n">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="V146" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="W146" t="n">
-        <v>37.5</v>
+        <v>36.84</v>
       </c>
       <c r="X146" t="n">
-        <v>272</v>
+        <v>363</v>
       </c>
       <c r="Y146" t="n">
-        <v>9.090999999999999</v>
+        <v>7.692</v>
       </c>
       <c r="Z146" t="n">
         <v>0</v>
@@ -36676,7 +36688,7 @@
         <v>100</v>
       </c>
       <c r="AE146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF146" t="n">
         <v>0</v>
@@ -36707,29 +36719,31 @@
         <v>0</v>
       </c>
       <c r="AP146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ146" t="n">
         <v>0</v>
       </c>
       <c r="AR146" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AS146" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AT146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU146" t="n">
         <v>5</v>
       </c>
-      <c r="AV146" t="inlineStr"/>
+      <c r="AV146" t="n">
+        <v>0</v>
+      </c>
       <c r="AW146" t="n">
         <v>0</v>
       </c>
       <c r="AX146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY146" t="n">
         <v>1</v>
@@ -36738,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="BA146" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BB146" t="inlineStr">
         <is>
@@ -36746,13 +36760,13 @@
         </is>
       </c>
       <c r="BC146" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD146" t="n">
-        <v>7.125</v>
+        <v>7.2</v>
       </c>
       <c r="BE146" t="n">
-        <v>272</v>
+        <v>363</v>
       </c>
       <c r="BF146" t="n">
         <v>0</v>
@@ -37508,19 +37522,19 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F150" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G150" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="H150" t="n">
-        <v>73.97</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="I150" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J150" t="n">
         <v>3</v>
@@ -37553,52 +37567,52 @@
         <v>1</v>
       </c>
       <c r="T150" t="n">
+        <v>5</v>
+      </c>
+      <c r="U150" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="V150" t="n">
+        <v>22</v>
+      </c>
+      <c r="W150" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="X150" t="n">
+        <v>431</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC150" t="n">
         <v>3</v>
       </c>
-      <c r="U150" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="V150" t="n">
-        <v>17</v>
-      </c>
-      <c r="W150" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="X150" t="n">
-        <v>427</v>
-      </c>
-      <c r="Y150" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC150" t="n">
-        <v>2</v>
-      </c>
       <c r="AD150" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE150" t="n">
         <v>2</v>
       </c>
       <c r="AF150" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG150" t="n">
         <v>4</v>
       </c>
       <c r="AH150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI150" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ150" t="n">
         <v>0</v>
@@ -37612,7 +37626,9 @@
       <c r="AM150" t="n">
         <v>0</v>
       </c>
-      <c r="AN150" t="inlineStr"/>
+      <c r="AN150" t="n">
+        <v>0</v>
+      </c>
       <c r="AO150" t="n">
         <v>0</v>
       </c>
@@ -37621,34 +37637,34 @@
       </c>
       <c r="AQ150" t="inlineStr"/>
       <c r="AR150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS150" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AT150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU150" t="n">
         <v>5</v>
       </c>
-      <c r="AU150" t="n">
-        <v>4</v>
-      </c>
       <c r="AV150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW150" t="n">
         <v>0</v>
       </c>
       <c r="AX150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ150" t="n">
         <v>0</v>
       </c>
       <c r="BA150" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BB150" t="inlineStr">
         <is>
@@ -37659,7 +37675,7 @@
         <v>6</v>
       </c>
       <c r="BD150" t="n">
-        <v>6.7</v>
+        <v>6.6166666666667</v>
       </c>
       <c r="BE150" t="inlineStr"/>
       <c r="BF150" t="n">
@@ -41862,7 +41878,7 @@
         <v>35</v>
       </c>
       <c r="AI164" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ164" t="n">
         <v>0</v>
@@ -45693,7 +45709,9 @@
       <c r="AS179" t="inlineStr"/>
       <c r="AT179" t="inlineStr"/>
       <c r="AU179" t="inlineStr"/>
-      <c r="AV179" t="inlineStr"/>
+      <c r="AV179" t="n">
+        <v>3</v>
+      </c>
       <c r="AW179" t="inlineStr"/>
       <c r="AX179" t="inlineStr"/>
       <c r="AY179" t="inlineStr"/>
@@ -53161,16 +53179,16 @@
         <v>6</v>
       </c>
       <c r="T208" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U208" t="n">
-        <v>55.56</v>
+        <v>44.44</v>
       </c>
       <c r="V208" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W208" t="n">
-        <v>49.12</v>
+        <v>47.37</v>
       </c>
       <c r="X208" t="n">
         <v>218</v>
@@ -53236,10 +53254,10 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT208" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU208" t="n">
         <v>3</v>
@@ -55981,16 +55999,16 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F219" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G219" t="n">
         <v>291</v>
       </c>
       <c r="H219" t="n">
-        <v>58.07560137457</v>
+        <v>57.388316151203</v>
       </c>
       <c r="I219" t="n">
         <v>11</v>
@@ -56053,10 +56071,10 @@
         <v>0</v>
       </c>
       <c r="AC219" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AD219" t="n">
-        <v>25.157232704403</v>
+        <v>23.899371069182</v>
       </c>
       <c r="AE219" t="n">
         <v>6</v>
@@ -56156,7 +56174,7 @@
         <v>143</v>
       </c>
       <c r="BL219" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BM219" t="n">
         <v>0</v>
@@ -56210,7 +56228,7 @@
         <v>0</v>
       </c>
       <c r="CD219" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="CE219" t="n">
         <v>0</v>
@@ -56328,7 +56346,7 @@
         <v>100</v>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J220" t="n">
         <v>2</v>
@@ -56388,10 +56406,10 @@
         <v>0</v>
       </c>
       <c r="AC220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD220" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE220" t="n">
         <v>0</v>
@@ -56442,7 +56460,7 @@
         <v>0</v>
       </c>
       <c r="AU220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV220" t="n">
         <v>0</v>
@@ -57128,7 +57146,7 @@
         <v>67</v>
       </c>
       <c r="BA222" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BB222" t="inlineStr">
         <is>
@@ -57139,7 +57157,7 @@
         <v>22</v>
       </c>
       <c r="BD222" t="n">
-        <v>6.7714285714286</v>
+        <v>6.8363636363636</v>
       </c>
       <c r="BE222" t="inlineStr"/>
       <c r="BF222" t="n">
@@ -60246,31 +60264,31 @@
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E233" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F233" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G233" t="n">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="H233" t="n">
-        <v>60.47</v>
+        <v>60</v>
       </c>
       <c r="I233" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J233" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K233" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L233" t="n">
-        <v>78.56999999999999</v>
+        <v>80</v>
       </c>
       <c r="M233" t="n">
         <v>0</v>
@@ -60282,34 +60300,34 @@
         <v>0</v>
       </c>
       <c r="P233" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
       </c>
       <c r="R233" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S233" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T233" t="n">
         <v>6</v>
       </c>
       <c r="U233" t="n">
-        <v>50</v>
+        <v>46.15</v>
       </c>
       <c r="V233" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="W233" t="n">
-        <v>47.57</v>
+        <v>44.35</v>
       </c>
       <c r="X233" t="n">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="Y233" t="n">
-        <v>0</v>
+        <v>7.692</v>
       </c>
       <c r="Z233" t="n">
         <v>0</v>
@@ -60321,19 +60339,19 @@
         <v>0</v>
       </c>
       <c r="AC233" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD233" t="n">
-        <v>28.57</v>
+        <v>36.36</v>
       </c>
       <c r="AE233" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF233" t="n">
         <v>0</v>
       </c>
       <c r="AG233" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH233" t="n">
         <v>6</v>
@@ -60342,10 +60360,10 @@
         <v>3</v>
       </c>
       <c r="AJ233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL233" t="n">
         <v>0</v>
@@ -60358,29 +60376,31 @@
         <v>0</v>
       </c>
       <c r="AP233" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ233" t="n">
         <v>0</v>
       </c>
       <c r="AR233" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AS233" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="AT233" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU233" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV233" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1</v>
+      </c>
       <c r="AW233" t="n">
         <v>0</v>
       </c>
       <c r="AX233" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY233" t="n">
         <v>0</v>
@@ -60389,7 +60409,7 @@
         <v>0</v>
       </c>
       <c r="BA233" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB233" t="inlineStr">
         <is>
@@ -60397,13 +60417,13 @@
         </is>
       </c>
       <c r="BC233" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD233" t="n">
-        <v>7.15</v>
+        <v>7.32</v>
       </c>
       <c r="BE233" t="n">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="BF233" t="n">
         <v>0</v>
@@ -64511,7 +64531,7 @@
         <v>0</v>
       </c>
       <c r="CB246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC246" t="n">
         <v>3</v>
@@ -64623,16 +64643,16 @@
         <v>2</v>
       </c>
       <c r="E247" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F247" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G247" t="n">
         <v>338</v>
       </c>
       <c r="H247" t="n">
-        <v>76.03550295858</v>
+        <v>75.73964497041401</v>
       </c>
       <c r="I247" t="n">
         <v>65</v>
@@ -64695,10 +64715,10 @@
         <v>0</v>
       </c>
       <c r="AC247" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD247" t="n">
-        <v>40.425531914894</v>
+        <v>38.297872340426</v>
       </c>
       <c r="AE247" t="n">
         <v>28</v>
@@ -64798,7 +64818,7 @@
         <v>146</v>
       </c>
       <c r="BL247" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BM247" t="n">
         <v>23</v>
@@ -64852,7 +64872,7 @@
         <v>5</v>
       </c>
       <c r="CD247" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="CE247" t="n">
         <v>4</v>
@@ -64918,10 +64938,10 @@
         <v>0</v>
       </c>
       <c r="CZ247" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="DA247" t="n">
-        <v>73.913043478261</v>
+        <v>69.565217391304</v>
       </c>
       <c r="DB247" t="n">
         <v>0</v>
@@ -66635,19 +66655,19 @@
         <v>2</v>
       </c>
       <c r="E253" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F253" t="n">
         <v>57</v>
       </c>
       <c r="G253" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H253" t="n">
-        <v>82.882882882883</v>
+        <v>82.831325301205</v>
       </c>
       <c r="I253" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J253" t="n">
         <v>11</v>
@@ -66810,7 +66830,7 @@
         <v>104</v>
       </c>
       <c r="BL253" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BM253" t="n">
         <v>12</v>
@@ -66945,7 +66965,7 @@
         <v>117</v>
       </c>
       <c r="DE253" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="DF253" t="n">
         <v>1</v>
@@ -71120,10 +71140,10 @@
         <v>61.54</v>
       </c>
       <c r="V269" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W269" t="n">
-        <v>35.71</v>
+        <v>34.69</v>
       </c>
       <c r="X269" t="n">
         <v>419</v>
@@ -71189,7 +71209,7 @@
         <v>4</v>
       </c>
       <c r="AS269" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AT269" t="n">
         <v>5</v>
@@ -71647,16 +71667,16 @@
         <v>64.705882352941</v>
       </c>
       <c r="I271" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J271" t="n">
         <v>8</v>
       </c>
       <c r="K271" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L271" t="n">
-        <v>36.363636363636</v>
+        <v>38.461538461538</v>
       </c>
       <c r="M271" t="n">
         <v>2</v>
@@ -71683,10 +71703,10 @@
         <v>4</v>
       </c>
       <c r="U271" t="n">
-        <v>66.666666666667</v>
+        <v>57.142857142857</v>
       </c>
       <c r="V271" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W271" t="n">
         <v>50</v>
@@ -71755,10 +71775,10 @@
         <v>23</v>
       </c>
       <c r="AS271" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AT271" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU271" t="n">
         <v>8</v>
@@ -71822,10 +71842,10 @@
         <v>5</v>
       </c>
       <c r="BP271" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BQ271" t="n">
-        <v>48.275862068966</v>
+        <v>49.152542372881</v>
       </c>
       <c r="BR271" t="n">
         <v>0</v>
@@ -71864,7 +71884,7 @@
         <v>6</v>
       </c>
       <c r="CD271" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="CE271" t="n">
         <v>0</v>
@@ -71876,7 +71896,7 @@
         <v>2</v>
       </c>
       <c r="CH271" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="CI271" t="n">
         <v>0</v>
@@ -71918,7 +71938,7 @@
         <v>8</v>
       </c>
       <c r="CV271" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CW271" t="n">
         <v>0</v>
@@ -72326,7 +72346,7 @@
         <v>3</v>
       </c>
       <c r="L273" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M273" t="n">
         <v>0</v>
@@ -72359,7 +72379,7 @@
         <v>9</v>
       </c>
       <c r="W273" t="n">
-        <v>50</v>
+        <v>40.909090909091</v>
       </c>
       <c r="X273" t="n">
         <v>281</v>
@@ -72377,10 +72397,10 @@
         <v>0</v>
       </c>
       <c r="AC273" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD273" t="n">
-        <v>55</v>
+        <v>47.058823529412</v>
       </c>
       <c r="AE273" t="n">
         <v>9</v>
@@ -72395,7 +72415,7 @@
         <v>2</v>
       </c>
       <c r="AI273" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ273" t="n">
         <v>0</v>
@@ -72425,13 +72445,13 @@
         <v>3</v>
       </c>
       <c r="AS273" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AT273" t="n">
         <v>4</v>
       </c>
       <c r="AU273" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AV273" t="n">
         <v>5</v>
@@ -72495,7 +72515,7 @@
         <v>6</v>
       </c>
       <c r="BQ273" t="n">
-        <v>54.545454545455</v>
+        <v>40</v>
       </c>
       <c r="BR273" t="n">
         <v>0</v>
@@ -72531,22 +72551,22 @@
         <v>0</v>
       </c>
       <c r="CC273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD273" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CE273" t="n">
         <v>0</v>
       </c>
       <c r="CF273" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CG273" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH273" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="CI273" t="n">
         <v>0</v>
@@ -72588,7 +72608,7 @@
         <v>0</v>
       </c>
       <c r="CV273" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW273" t="n">
         <v>0</v>
@@ -72600,10 +72620,10 @@
         <v>0</v>
       </c>
       <c r="CZ273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA273" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DB273" t="n">
         <v>0</v>
@@ -72640,22 +72660,22 @@
         <v>4</v>
       </c>
       <c r="E274" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F274" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G274" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H274" t="n">
-        <v>81.410256410256</v>
+        <v>82.165605095541</v>
       </c>
       <c r="I274" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J274" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K274" t="n">
         <v>0</v>
@@ -72712,10 +72732,10 @@
         <v>0</v>
       </c>
       <c r="AC274" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD274" t="n">
-        <v>50</v>
+        <v>45.833333333333</v>
       </c>
       <c r="AE274" t="n">
         <v>4</v>
@@ -72727,7 +72747,7 @@
         <v>8</v>
       </c>
       <c r="AH274" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI274" t="n">
         <v>3</v>
@@ -72766,7 +72786,7 @@
         <v>4</v>
       </c>
       <c r="AU274" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AV274" t="n">
         <v>9</v>
@@ -72812,10 +72832,10 @@
         <v>0</v>
       </c>
       <c r="BK274" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BL274" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BM274" t="n">
         <v>9</v>
@@ -72866,7 +72886,7 @@
         <v>0</v>
       </c>
       <c r="CC274" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD274" t="n">
         <v>51</v>
@@ -72881,7 +72901,7 @@
         <v>10</v>
       </c>
       <c r="CH274" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="CI274" t="n">
         <v>0</v>
@@ -72920,7 +72940,7 @@
         <v>0</v>
       </c>
       <c r="CU274" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CV274" t="n">
         <v>4</v>
@@ -72950,7 +72970,7 @@
         <v>66</v>
       </c>
       <c r="DE274" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="DF274" t="n">
         <v>1</v>
@@ -75926,7 +75946,7 @@
         <v>87</v>
       </c>
       <c r="AV285" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW285" t="n">
         <v>0</v>
@@ -78746,25 +78766,25 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="F296" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G296" t="n">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="H296" t="n">
-        <v>80.56999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="I296" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J296" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K296" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L296" t="n">
         <v>100</v>
@@ -78779,64 +78799,64 @@
         <v>0</v>
       </c>
       <c r="P296" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q296" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="R296" t="n">
+        <v>6</v>
+      </c>
+      <c r="S296" t="n">
+        <v>2</v>
+      </c>
+      <c r="T296" t="n">
+        <v>7</v>
+      </c>
+      <c r="U296" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="V296" t="n">
+        <v>25</v>
+      </c>
+      <c r="W296" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="X296" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE296" t="n">
         <v>4</v>
       </c>
-      <c r="S296" t="n">
-        <v>1</v>
-      </c>
-      <c r="T296" t="n">
-        <v>6</v>
-      </c>
-      <c r="U296" t="n">
-        <v>54.55</v>
-      </c>
-      <c r="V296" t="n">
-        <v>20</v>
-      </c>
-      <c r="W296" t="n">
-        <v>34.48</v>
-      </c>
-      <c r="X296" t="n">
-        <v>360</v>
-      </c>
-      <c r="Y296" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z296" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA296" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB296" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC296" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD296" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="AE296" t="n">
-        <v>3</v>
-      </c>
       <c r="AF296" t="n">
         <v>1</v>
       </c>
       <c r="AG296" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH296" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI296" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ296" t="n">
         <v>0</v>
@@ -78855,24 +78875,26 @@
         <v>0</v>
       </c>
       <c r="AP296" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ296" t="n">
         <v>0</v>
       </c>
       <c r="AR296" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AS296" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AT296" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AU296" t="n">
-        <v>38</v>
-      </c>
-      <c r="AV296" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>0</v>
+      </c>
       <c r="AW296" t="n">
         <v>0</v>
       </c>
@@ -78886,7 +78908,7 @@
         <v>0</v>
       </c>
       <c r="BA296" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="BB296" t="inlineStr">
         <is>
@@ -78894,10 +78916,10 @@
         </is>
       </c>
       <c r="BC296" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD296" t="n">
-        <v>7.5</v>
+        <v>7.46</v>
       </c>
       <c r="BE296" t="inlineStr"/>
       <c r="BF296" t="n">
@@ -85802,10 +85824,10 @@
         <v>19.57</v>
       </c>
       <c r="V321" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W321" t="n">
-        <v>35.58</v>
+        <v>35.82</v>
       </c>
       <c r="X321" t="n">
         <v>1440</v>
@@ -85895,7 +85917,7 @@
         <v>0</v>
       </c>
       <c r="BA321" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BB321" t="inlineStr">
         <is>
@@ -86358,7 +86380,7 @@
       <c r="AT323" t="inlineStr"/>
       <c r="AU323" t="inlineStr"/>
       <c r="AV323" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW323" t="inlineStr"/>
       <c r="AX323" t="inlineStr"/>
@@ -86373,7 +86395,7 @@
       <c r="BC323" t="inlineStr"/>
       <c r="BD323" t="inlineStr"/>
       <c r="BE323" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="BF323" t="n">
         <v>0</v>
@@ -90632,10 +90654,10 @@
         <v>17</v>
       </c>
       <c r="K342" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L342" t="n">
-        <v>81.48</v>
+        <v>81.31</v>
       </c>
       <c r="M342" t="n">
         <v>0</v>
@@ -90653,10 +90675,10 @@
         <v>22.86</v>
       </c>
       <c r="R342" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S342" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T342" t="n">
         <v>12</v>
@@ -90665,16 +90687,16 @@
         <v>32.43</v>
       </c>
       <c r="V342" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W342" t="n">
-        <v>41.59</v>
+        <v>41.45</v>
       </c>
       <c r="X342" t="n">
         <v>2147</v>
       </c>
       <c r="Y342" t="n">
-        <v>25.58</v>
+        <v>26.19</v>
       </c>
       <c r="Z342" t="n">
         <v>3</v>
@@ -90707,7 +90729,7 @@
         <v>23</v>
       </c>
       <c r="AJ342" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK342" t="n">
         <v>1</v>
@@ -90758,7 +90780,7 @@
         <v>0</v>
       </c>
       <c r="BA342" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BB342" t="inlineStr">
         <is>
@@ -92353,7 +92375,7 @@
       <c r="AT348" t="inlineStr"/>
       <c r="AU348" t="inlineStr"/>
       <c r="AV348" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW348" t="inlineStr"/>
       <c r="AX348" t="inlineStr"/>
@@ -92370,7 +92392,7 @@
         <v>7.0615384615385</v>
       </c>
       <c r="BE348" t="n">
-        <v>313.75</v>
+        <v>336.25</v>
       </c>
       <c r="BF348" t="n">
         <v>0</v>
